--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3B2603-F98E-492C-936E-906C6F9D535D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E37AE6-D01C-4804-83EA-CFCC9ECD508D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Dirt6</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>E-road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -869,28 +875,138 @@
       </c>
     </row>
     <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.95694444444444438</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>102.98</v>
+      </c>
+      <c r="G14" s="4">
+        <v>161.07</v>
+      </c>
+      <c r="H14" s="4">
+        <v>342.17</v>
+      </c>
+      <c r="I14" s="4">
+        <v>193.78</v>
+      </c>
+      <c r="J14" s="4">
+        <v>188.58</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM(E14:J14)</f>
+        <v>1987.58</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E15" s="4">
+        <v>999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>278.07</v>
+      </c>
+      <c r="G15" s="4">
+        <v>617.26</v>
+      </c>
+      <c r="H15" s="4">
+        <v>456.25</v>
+      </c>
+      <c r="I15" s="4">
+        <v>535.96</v>
+      </c>
+      <c r="J15" s="4">
+        <v>550.19000000000005</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ref="K15:K18" si="2">SUM(E15:J15)</f>
+        <v>3436.73</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="F16" s="4">
+        <v>1236.4000000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2827.24</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1816.45</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2388.8200000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2464.91</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>10733.82</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="4:4">
+      <c r="F17" s="4">
+        <v>76</v>
+      </c>
+      <c r="G17" s="4">
+        <v>77</v>
+      </c>
+      <c r="H17" s="4">
+        <v>78</v>
+      </c>
+      <c r="I17" s="4">
+        <v>77</v>
+      </c>
+      <c r="J17" s="4">
+        <v>76</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
       <c r="D18" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E37AE6-D01C-4804-83EA-CFCC9ECD508D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF01890-4457-40BB-BB75-9E7B8E519B52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Dirt6</t>
   </si>
@@ -100,13 +100,44 @@
     <t>PIDv1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PIDv1.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(_speed &lt; 20)//at the begining (initial)
+ D_err = -atan2(_midline[5][0], _midline[5][1]);//original[5]
+else
+ D_err = 2 * (_yaw - 3 * atan2(_midline[1][0], _midline[1][1]));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续直角弯出问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(min5(CircleFoot.r, CircleNear.r, CircleMiddle.r, CircleSpeed.r, CircleFar.r)&gt;450)
+ expectedSpeed = 200;
+else
+ expectedSpeed = 80;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了直线速度，减少时间，但是误差变大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -141,12 +172,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -187,16 +224,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -205,6 +239,36 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,36 +608,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="10.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="10.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="7"/>
+    <col min="11" max="12" width="8.88671875" style="3"/>
+    <col min="13" max="13" width="8.88671875" style="13"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>4.9000000000000004</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -591,422 +659,804 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="5">
+        <v>43533</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>178.1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>92.39</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>148.09</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>260.57</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>172.6</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="7">
         <v>169</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f>SUM(E2:J2)</f>
         <v>1020.7500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>142.85</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>99.37</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>125.94</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>140.49</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>114.42</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="7">
         <v>123.49</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" ref="K3:K6" si="0">SUM(E3:J3)</f>
         <v>746.56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>481.73</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>373.74</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>435.71</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>369.18</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>349.23</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="7">
         <v>398.08</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>2407.67</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>89</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>108</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>111</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>142</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>111</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="7">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="5">
+        <v>43533</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.62708333333333333</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="E8" s="3">
+        <v>999</v>
+      </c>
+      <c r="F8" s="3">
         <v>108.64</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>169.05</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>356.27</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>212.65</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="7">
         <v>199.17</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f>SUM(E8:J8)</f>
-        <v>1045.78</v>
+        <v>2044.7800000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>173.36</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>336.06</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>277.27</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>22866.02</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="7">
         <v>470.34</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" ref="K9:K12" si="1">SUM(E9:J9)</f>
         <v>25122.05</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>716.38</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1439.6</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>922.17</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>111783</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="7">
         <v>2060.6999999999998</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>116921.84999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3">
         <v>74</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>77</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>78</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>77</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="8">
         <v>72</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="5">
+        <v>43533</v>
+      </c>
+      <c r="C14" s="4">
         <v>0.95694444444444438</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>102.98</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>161.07</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>342.17</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>193.78</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7">
         <v>188.58</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f>SUM(E14:J14)</f>
         <v>1987.58</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>278.07</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>617.26</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>456.25</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>535.96</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="7">
         <v>550.19000000000005</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" ref="K15:K18" si="2">SUM(E15:J15)</f>
         <v>3436.73</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1236.4000000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>2827.24</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>1816.45</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>2388.8200000000002</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="7">
         <v>2464.91</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>10733.82</v>
       </c>
     </row>
-    <row r="17" spans="4:11">
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="1:13">
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>76</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>77</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>78</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>77</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="7">
         <v>76</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="4:11">
-      <c r="D18" s="4" t="s">
+    <row r="18" spans="1:13">
+      <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43534</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="7">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="7">
+        <v>572.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2555.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43534</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>164.4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>103.89</v>
+      </c>
+      <c r="G26" s="3">
+        <v>161.53</v>
+      </c>
+      <c r="H26" s="3">
+        <v>343.02</v>
+      </c>
+      <c r="I26" s="3">
+        <v>195.67</v>
+      </c>
+      <c r="J26" s="7">
+        <v>190.73</v>
+      </c>
+      <c r="K26" s="3">
+        <f>SUM(E26:J26)</f>
+        <v>1159.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>112.1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>141.9</v>
+      </c>
+      <c r="H27" s="3">
+        <v>173.87</v>
+      </c>
+      <c r="I27" s="3">
+        <v>175.04</v>
+      </c>
+      <c r="J27" s="7">
+        <v>160.53</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" ref="K27:K30" si="3">SUM(E27:J27)</f>
+        <v>1044.5899999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1176.27</v>
+      </c>
+      <c r="F28" s="3">
+        <v>422.04</v>
+      </c>
+      <c r="G28" s="3">
+        <v>497.44</v>
+      </c>
+      <c r="H28" s="3">
+        <v>431.77</v>
+      </c>
+      <c r="I28" s="3">
+        <v>618.02</v>
+      </c>
+      <c r="J28" s="7">
+        <v>552.92999999999995</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>3698.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3">
+        <v>76</v>
+      </c>
+      <c r="G29" s="3">
+        <v>77</v>
+      </c>
+      <c r="H29" s="3">
+        <v>78</v>
+      </c>
+      <c r="I29" s="3">
+        <v>77</v>
+      </c>
+      <c r="J29" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="J31" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="5">
+        <v>43534</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="7">
+        <v>143.5</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="7">
+        <v>239.47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="7">
+        <v>997.56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="J37" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="D41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="D47" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20341"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF01890-4457-40BB-BB75-9E7B8E519B52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDE6B1B-BFAC-4B70-80F4-80879E35F262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Dirt6</t>
   </si>
@@ -101,33 +101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PIDv1.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(_speed &lt; 20)//at the begining (initial)
- D_err = -atan2(_midline[5][0], _midline[5][1]);//original[5]
-else
- D_err = 2 * (_yaw - 3 * atan2(_midline[1][0], _midline[1][1]));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续直角弯出问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(min5(CircleFoot.r, CircleNear.r, CircleMiddle.r, CircleSpeed.r, CircleFar.r)&gt;450)
- expectedSpeed = 200;
-else
- expectedSpeed = 80;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改了直线速度，减少时间，但是误差变大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIDv1.0.2</t>
+    <t>v1.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,9 +109,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -172,18 +145,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -224,11 +191,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -239,36 +209,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,40 +548,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="10.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="7"/>
-    <col min="11" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="8.88671875" style="13"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="14.46484375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="4"/>
+    <col min="4" max="4" width="10.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="4"/>
+    <col min="9" max="9" width="9.53125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="23.25">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>4.9000000000000004</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -659,804 +595,522 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
-        <v>43533</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="C2" s="5">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>178.1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>92.39</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>148.09</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>260.57</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>172.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>169</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <f>SUM(E2:J2)</f>
         <v>1020.7500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>142.85</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>99.37</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>125.94</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>140.49</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>114.42</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>123.49</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <f t="shared" ref="K3:K6" si="0">SUM(E3:J3)</f>
         <v>746.56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>481.73</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>373.74</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>435.71</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>369.18</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>349.23</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>398.08</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>2407.67</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>89</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>108</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>111</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>142</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>111</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
-        <v>43533</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.62708333333333333</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>108.64</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>169.05</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>356.27</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>212.65</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>199.17</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f>SUM(E8:J8)</f>
         <v>2044.7800000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>173.36</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>336.06</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>277.27</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>22866.02</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>470.34</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <f t="shared" ref="K9:K12" si="1">SUM(E9:J9)</f>
         <v>25122.05</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>716.38</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>1439.6</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>922.17</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>111783</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="4">
         <v>2060.6999999999998</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
         <v>116921.84999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
         <v>74</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>77</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>78</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>77</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="3">
         <v>72</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
-        <v>43533</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.95694444444444438</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>102.98</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>161.07</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>342.17</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>193.78</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="4">
         <v>188.58</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <f>SUM(E14:J14)</f>
         <v>1987.58</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>999</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>278.07</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>617.26</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>456.25</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>535.96</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4">
         <v>550.19000000000005</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f t="shared" ref="K15:K18" si="2">SUM(E15:J15)</f>
         <v>3436.73</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>1236.4000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>2827.24</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>1816.45</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>2388.8200000000002</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4">
         <v>2464.91</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <f t="shared" si="2"/>
         <v>10733.82</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="D17" s="3" t="s">
+    <row r="17" spans="1:11">
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>76</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>77</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>78</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>77</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <v>76</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="D18" s="3" t="s">
+    <row r="18" spans="1:11">
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>43534</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.44236111111111115</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="7">
-        <v>201.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="D21" s="3" t="s">
+      <c r="E20" s="4">
+        <v>999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>120.29</v>
+      </c>
+      <c r="G20" s="4">
+        <v>209.79</v>
+      </c>
+      <c r="H20" s="4">
+        <v>999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>208.72</v>
+      </c>
+      <c r="J20" s="4">
+        <v>209.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="7">
-        <v>572.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="D22" s="3" t="s">
+      <c r="F21" s="4">
+        <v>364.81</v>
+      </c>
+      <c r="G21" s="4">
+        <v>330.06</v>
+      </c>
+      <c r="I21" s="4">
+        <v>478.16</v>
+      </c>
+      <c r="J21" s="4">
+        <v>330.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="7">
-        <v>2555.91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="D23" s="3" t="s">
+      <c r="F22" s="4">
+        <v>1640.22</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1360.33</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2087.31</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1360.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="D24" s="3" t="s">
+      <c r="F23" s="4">
+        <v>121</v>
+      </c>
+      <c r="G23" s="4">
+        <v>112</v>
+      </c>
+      <c r="I23" s="4">
+        <v>117</v>
+      </c>
+      <c r="J23" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5">
-        <v>43534</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.47152777777777777</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3">
-        <v>164.4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>103.89</v>
-      </c>
-      <c r="G26" s="3">
-        <v>161.53</v>
-      </c>
-      <c r="H26" s="3">
-        <v>343.02</v>
-      </c>
-      <c r="I26" s="3">
-        <v>195.67</v>
-      </c>
-      <c r="J26" s="7">
-        <v>190.73</v>
-      </c>
-      <c r="K26" s="3">
-        <f>SUM(E26:J26)</f>
-        <v>1159.24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3">
-        <v>281.14999999999998</v>
-      </c>
-      <c r="F27" s="3">
-        <v>112.1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>141.9</v>
-      </c>
-      <c r="H27" s="3">
-        <v>173.87</v>
-      </c>
-      <c r="I27" s="3">
-        <v>175.04</v>
-      </c>
-      <c r="J27" s="7">
-        <v>160.53</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" ref="K27:K30" si="3">SUM(E27:J27)</f>
-        <v>1044.5899999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1176.27</v>
-      </c>
-      <c r="F28" s="3">
-        <v>422.04</v>
-      </c>
-      <c r="G28" s="3">
-        <v>497.44</v>
-      </c>
-      <c r="H28" s="3">
-        <v>431.77</v>
-      </c>
-      <c r="I28" s="3">
-        <v>618.02</v>
-      </c>
-      <c r="J28" s="7">
-        <v>552.92999999999995</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="3"/>
-        <v>3698.47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="D29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="3">
-        <v>76</v>
-      </c>
-      <c r="F29" s="3">
-        <v>76</v>
-      </c>
-      <c r="G29" s="3">
-        <v>77</v>
-      </c>
-      <c r="H29" s="3">
-        <v>78</v>
-      </c>
-      <c r="I29" s="3">
-        <v>77</v>
-      </c>
-      <c r="J29" s="7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="J31" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="5">
-        <v>43534</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="7">
-        <v>143.5</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="7">
-        <v>239.47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="7">
-        <v>997.56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="7">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="D36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="J37" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="D41" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="D42" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="D44" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="D45" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="D46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="D47" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="D48" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="3" t="s">
-        <v>12</v>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,7 +1140,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF01890-4457-40BB-BB75-9E7B8E519B52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA351CB-7456-4793-867E-21E7CB90CE20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>Dirt6</t>
   </si>
@@ -130,6 +130,14 @@
     <t>PIDv1.0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PIDv1.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +145,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -240,7 +248,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +618,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1278,6 +1286,9 @@
       </c>
     </row>
     <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B32" s="5">
         <v>43534</v>
       </c>
@@ -1294,8 +1305,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1305,7 +1316,7 @@
         <v>239.47</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="1:10">
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1324,7 @@
         <v>997.56</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="1:10">
       <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="1:10">
       <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
@@ -1329,57 +1340,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="1:10">
       <c r="J37" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="1:10">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D38" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="J38" s="7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="J39" s="7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="1:10">
       <c r="D41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="1:10">
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="1:10">
       <c r="D44" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="1:10">
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="1:10">
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="1:10">
       <c r="D47" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="1:10">
       <c r="D48" s="3" t="s">
         <v>12</v>
       </c>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA351CB-7456-4793-867E-21E7CB90CE20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B988E-0109-47AB-9E99-8C1B2EBC991C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Dirt6</t>
   </si>
@@ -136,6 +136,22 @@
   </si>
   <si>
     <t>PIDv1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以改进刹车更猛烈？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直道加速加上延时系统，加速时方向太大晃动了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下坡有问题？速度太大了？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +292,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +640,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1305,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
         <v>22</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>239.47</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1346,7 @@
         <v>997.56</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1354,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
@@ -1340,12 +1362,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="J37" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1378,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
@@ -1364,107 +1386,202 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="D41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
+      <c r="A44" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="E44" s="3">
+        <v>999</v>
+      </c>
+      <c r="F44" s="3">
+        <v>73.69</v>
+      </c>
+      <c r="G44" s="3">
+        <v>134.9</v>
+      </c>
+      <c r="H44" s="3">
+        <v>999</v>
+      </c>
+      <c r="I44" s="3">
+        <v>999</v>
+      </c>
+      <c r="J44" s="7">
+        <v>135.63999999999999</v>
+      </c>
+      <c r="K44" s="3">
+        <f>SUM(E44:J44)</f>
+        <v>3341.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="E45" s="3">
+        <v>999</v>
+      </c>
+      <c r="F45" s="3">
+        <v>105.44</v>
+      </c>
+      <c r="G45" s="3">
+        <v>138.05000000000001</v>
+      </c>
+      <c r="H45" s="3">
+        <v>999</v>
+      </c>
+      <c r="I45" s="3">
+        <v>999</v>
+      </c>
+      <c r="J45" s="7">
+        <v>125.4</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" ref="K45:K48" si="4">SUM(E45:J45)</f>
+        <v>3365.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="F46" s="3">
+        <v>426.4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>511.2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>448.31</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="4"/>
+        <v>1385.9099999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="D47" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="F47" s="3">
+        <v>159</v>
+      </c>
+      <c r="G47" s="3">
+        <v>158</v>
+      </c>
+      <c r="J47" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="D48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="4:4">
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" s="9" customFormat="1">
+      <c r="B49" s="11"/>
+      <c r="E49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="2:13">
       <c r="D50" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="2:13">
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="2:13">
       <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="2:13">
       <c r="D53" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="2:13">
       <c r="D54" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="2:13">
       <c r="D56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="2:13">
       <c r="D57" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="2:13">
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="2:13">
       <c r="D59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="2:13">
       <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="2:13">
       <c r="D62" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="2:13">
       <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="2:13">
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B988E-0109-47AB-9E99-8C1B2EBC991C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D5554C-7A66-4B4C-AAD0-54D9AAF04676}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Dirt6</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>下坡有问题？速度太大了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +644,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1508,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="9" customFormat="1">
+    <row r="49" spans="1:13" s="9" customFormat="1">
       <c r="B49" s="11"/>
       <c r="E49" s="15" t="s">
         <v>29</v>
@@ -1521,67 +1525,176 @@
       </c>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="1:13">
+      <c r="A50" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="2:13">
+      <c r="E50" s="3">
+        <v>177.23</v>
+      </c>
+      <c r="F50" s="3">
+        <v>97.69</v>
+      </c>
+      <c r="G50" s="3">
+        <v>178.42</v>
+      </c>
+      <c r="H50" s="3">
+        <v>267.26</v>
+      </c>
+      <c r="I50" s="3">
+        <v>185.52</v>
+      </c>
+      <c r="J50" s="7">
+        <v>179.08</v>
+      </c>
+      <c r="K50" s="3">
+        <f>SUM(E50:J50)</f>
+        <v>1085.1999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="2:13">
+      <c r="E51" s="3">
+        <v>171.38</v>
+      </c>
+      <c r="F51" s="3">
+        <v>114.61</v>
+      </c>
+      <c r="G51" s="3">
+        <v>162.74</v>
+      </c>
+      <c r="H51" s="3">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="I51" s="3">
+        <v>135.27000000000001</v>
+      </c>
+      <c r="J51" s="7">
+        <v>146.63999999999999</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" ref="K51:K54" si="5">SUM(E51:J51)</f>
+        <v>888.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="2:13">
+      <c r="E52" s="3">
+        <v>622.65</v>
+      </c>
+      <c r="F52" s="3">
+        <v>441.9</v>
+      </c>
+      <c r="G52" s="3">
+        <v>578.86</v>
+      </c>
+      <c r="H52" s="3">
+        <v>445.31</v>
+      </c>
+      <c r="I52" s="3">
+        <v>435.58</v>
+      </c>
+      <c r="J52" s="7">
+        <v>499.15</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="5"/>
+        <v>3023.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="D53" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="2:13">
+      <c r="E53" s="3">
+        <v>120</v>
+      </c>
+      <c r="F53" s="3">
+        <v>120</v>
+      </c>
+      <c r="G53" s="3">
+        <v>118</v>
+      </c>
+      <c r="H53" s="3">
+        <v>123</v>
+      </c>
+      <c r="I53" s="3">
+        <v>120</v>
+      </c>
+      <c r="J53" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="D54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="2:13">
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="D56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="1:13">
       <c r="D57" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="1:13">
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="1:13">
       <c r="D59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="1:13">
       <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="1:13">
       <c r="D62" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="1:13">
       <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="1:13">
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D5554C-7A66-4B4C-AAD0-54D9AAF04676}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA9082-34D0-4ED9-9616-2B8386062CAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Dirt6</t>
   </si>
@@ -158,6 +158,18 @@
     <t>PIDv1.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PIDv1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晃！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +179,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +210,14 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,9 +668,9 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1660,31 +1683,148 @@
       </c>
     </row>
     <row r="56" spans="1:13">
+      <c r="A56" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="E56" s="3">
+        <v>144.86000000000001</v>
+      </c>
+      <c r="F56" s="3">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="G56" s="3">
+        <v>144.61000000000001</v>
+      </c>
+      <c r="H56" s="3">
+        <v>214.85</v>
+      </c>
+      <c r="I56" s="3">
+        <v>149.6</v>
+      </c>
+      <c r="J56" s="7">
+        <v>144.77000000000001</v>
+      </c>
+      <c r="K56" s="3">
+        <f>SUM(E56:J56)</f>
+        <v>880.26</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="D57" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E57" s="3">
+        <v>170.77</v>
+      </c>
+      <c r="F57" s="17">
+        <v>182.09</v>
+      </c>
+      <c r="G57" s="3">
+        <v>138.69</v>
+      </c>
+      <c r="H57" s="3">
+        <v>152.03</v>
+      </c>
+      <c r="I57" s="3">
+        <v>121.76</v>
+      </c>
+      <c r="J57" s="7">
+        <v>123.67</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" ref="K57:K60" si="6">SUM(E57:J57)</f>
+        <v>889.01</v>
+      </c>
     </row>
     <row r="58" spans="1:13">
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E58" s="3">
+        <v>659.32</v>
+      </c>
+      <c r="F58" s="3">
+        <v>792.34</v>
+      </c>
+      <c r="G58" s="3">
+        <v>502.43</v>
+      </c>
+      <c r="H58" s="3">
+        <v>481.75</v>
+      </c>
+      <c r="I58" s="3">
+        <v>413.37</v>
+      </c>
+      <c r="J58" s="7">
+        <v>428.64</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="6"/>
+        <v>3277.85</v>
+      </c>
     </row>
     <row r="59" spans="1:13">
       <c r="D59" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E59" s="3">
+        <v>147</v>
+      </c>
+      <c r="F59" s="3">
+        <v>148</v>
+      </c>
+      <c r="G59" s="3">
+        <v>147</v>
+      </c>
+      <c r="H59" s="3">
+        <v>153</v>
+      </c>
+      <c r="I59" s="3">
+        <v>148</v>
+      </c>
+      <c r="J59" s="7">
+        <v>149</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
       <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="F61" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="62" spans="1:13">
+      <c r="A62" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>9</v>
       </c>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA9082-34D0-4ED9-9616-2B8386062CAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5AEA4-0C1C-44C2-BB88-1E2F69DC2427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7620" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>Dirt6</t>
   </si>
@@ -168,6 +168,22 @@
   </si>
   <si>
     <t>PIDv1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2-&gt;0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-&gt;22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,12 +681,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1828,25 +1844,250 @@
       <c r="D62" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E62" s="3">
+        <v>147.96</v>
+      </c>
+      <c r="F62" s="3">
+        <v>999</v>
+      </c>
+      <c r="J62" s="7">
+        <v>144.84</v>
+      </c>
     </row>
     <row r="63" spans="1:13">
       <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E63" s="3">
+        <v>240.61</v>
+      </c>
+      <c r="F63" s="3">
+        <v>999</v>
+      </c>
+      <c r="J63" s="7">
+        <v>123.5</v>
+      </c>
     </row>
     <row r="64" spans="1:13">
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="4:4">
+      <c r="E64" s="3">
+        <v>997.74</v>
+      </c>
+      <c r="J64" s="7">
+        <v>427.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="D65" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="4:4">
+      <c r="E65" s="3">
+        <v>146</v>
+      </c>
+      <c r="J65" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="D66" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="E67" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3">
+        <v>144.76</v>
+      </c>
+      <c r="F68" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="G68" s="3">
+        <v>144.6</v>
+      </c>
+      <c r="H68" s="3">
+        <v>214.88</v>
+      </c>
+      <c r="I68" s="3">
+        <v>149.54</v>
+      </c>
+      <c r="J68" s="7">
+        <v>144.72</v>
+      </c>
+      <c r="K68" s="3">
+        <f>SUM(E68:J68)</f>
+        <v>877.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="D69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3">
+        <v>168.73</v>
+      </c>
+      <c r="F69" s="3">
+        <v>105.24</v>
+      </c>
+      <c r="G69" s="3">
+        <v>138.63999999999999</v>
+      </c>
+      <c r="H69" s="3">
+        <v>152.03</v>
+      </c>
+      <c r="I69" s="3">
+        <v>120.64</v>
+      </c>
+      <c r="J69" s="7">
+        <v>122.27</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" ref="K69:K72" si="7">SUM(E69:J69)</f>
+        <v>807.55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="3">
+        <v>649.42999999999995</v>
+      </c>
+      <c r="F70" s="3">
+        <v>419.1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>502.19</v>
+      </c>
+      <c r="H70" s="3">
+        <v>481.71</v>
+      </c>
+      <c r="I70" s="3">
+        <v>407.96</v>
+      </c>
+      <c r="J70" s="7">
+        <v>421.82</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="7"/>
+        <v>2882.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="D71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="3">
+        <v>147</v>
+      </c>
+      <c r="F71" s="3">
+        <v>148</v>
+      </c>
+      <c r="G71" s="3">
+        <v>147</v>
+      </c>
+      <c r="H71" s="3">
+        <v>153</v>
+      </c>
+      <c r="I71" s="3">
+        <v>148</v>
+      </c>
+      <c r="J71" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="D72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="3">
+        <f>SUM(E74:J74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="3">
+        <f t="shared" ref="K75:K78" si="8">SUM(E75:J75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="D77" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="D78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5AEA4-0C1C-44C2-BB88-1E2F69DC2427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D508D2AC-C0B4-4555-8A12-9D71F8B53651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7620" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>Dirt6</t>
   </si>
@@ -179,11 +179,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.2-&gt;0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-&gt;22</t>
+    <t>kd_d: 0.2-&gt;0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expSpd: 20-&gt;22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微有点晃！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个弯道稍微有点晃！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd_d: 0.2-&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expSpd: 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微有点晃！偏离有点多！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步：改进转向函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +379,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,21 +722,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="14.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" style="3"/>
     <col min="9" max="9" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="7"/>
@@ -705,7 +746,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -743,7 +784,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5">
@@ -883,7 +924,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="5">
@@ -1019,7 +1060,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5">
@@ -1154,7 +1195,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5">
@@ -1203,7 +1244,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5">
@@ -1351,7 +1392,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="5">
@@ -1411,7 +1452,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1445,7 +1486,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -1565,7 +1606,7 @@
       <c r="M49" s="15"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -1699,7 +1740,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -1838,7 +1879,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -1907,7 +1948,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -2041,53 +2082,388 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E74" s="3">
+        <v>135.66</v>
+      </c>
+      <c r="F74" s="3">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="G74" s="3">
+        <v>132.25</v>
+      </c>
+      <c r="H74" s="3">
+        <v>196.35</v>
+      </c>
+      <c r="I74" s="3">
+        <v>138.33000000000001</v>
+      </c>
+      <c r="J74" s="7">
+        <v>133.18</v>
+      </c>
       <c r="K74" s="3">
         <f>SUM(E74:J74)</f>
-        <v>0</v>
+        <v>808.01</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E75" s="17">
+        <v>227.04</v>
+      </c>
+      <c r="F75" s="3">
+        <v>103.32</v>
+      </c>
+      <c r="G75" s="3">
+        <v>135.24</v>
+      </c>
+      <c r="H75" s="3">
+        <v>152.88999999999999</v>
+      </c>
+      <c r="I75" s="17">
+        <v>145.34</v>
+      </c>
+      <c r="J75" s="7">
+        <v>125.77</v>
+      </c>
       <c r="K75" s="3">
         <f t="shared" ref="K75:K78" si="8">SUM(E75:J75)</f>
-        <v>0</v>
+        <v>889.6</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E76" s="3">
+        <v>946.32</v>
+      </c>
+      <c r="F76" s="3">
+        <v>417.75</v>
+      </c>
+      <c r="G76" s="3">
+        <v>500.68</v>
+      </c>
+      <c r="H76" s="3">
+        <v>508.62</v>
+      </c>
+      <c r="I76" s="3">
+        <v>542.70000000000005</v>
+      </c>
+      <c r="J76" s="7">
+        <v>453.12</v>
+      </c>
       <c r="K76" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3369.1900000000005</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="D77" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E77" s="3">
+        <v>160</v>
+      </c>
+      <c r="F77" s="3">
+        <v>162</v>
+      </c>
+      <c r="G77" s="3">
+        <v>161</v>
+      </c>
+      <c r="H77" s="3">
+        <v>167</v>
+      </c>
+      <c r="I77" s="3">
+        <v>161</v>
+      </c>
+      <c r="J77" s="7">
+        <v>163</v>
+      </c>
     </row>
     <row r="78" spans="1:11">
       <c r="D78" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
       <c r="K78" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="E79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3">
+        <v>999</v>
+      </c>
+      <c r="F80" s="3">
+        <v>72.73</v>
+      </c>
+      <c r="H80" s="3">
+        <v>999</v>
+      </c>
+      <c r="I80" s="3">
+        <v>999</v>
+      </c>
+      <c r="K80" s="3">
+        <f>SUM(E80:J80)</f>
+        <v>3069.73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>999</v>
+      </c>
+      <c r="F81" s="3">
+        <v>106.4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>999</v>
+      </c>
+      <c r="I81" s="3">
+        <v>999</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" ref="K81:K84" si="9">SUM(E81:J81)</f>
+        <v>3103.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3">
+        <v>432.69</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="9"/>
+        <v>432.69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="D83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3">
+        <v>144.62</v>
+      </c>
+      <c r="F86" s="3">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G86" s="3">
+        <v>144.44</v>
+      </c>
+      <c r="H86" s="3">
+        <v>214.77</v>
+      </c>
+      <c r="I86" s="3">
+        <v>149.51</v>
+      </c>
+      <c r="J86" s="7">
+        <v>144.72</v>
+      </c>
+      <c r="K86" s="3">
+        <f>SUM(E86:J86)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3">
+        <v>166.8</v>
+      </c>
+      <c r="F87" s="3">
+        <v>103.67</v>
+      </c>
+      <c r="G87" s="3">
+        <v>136.87</v>
+      </c>
+      <c r="H87" s="3">
+        <v>149.47999999999999</v>
+      </c>
+      <c r="I87" s="3">
+        <v>119.86</v>
+      </c>
+      <c r="J87" s="18">
+        <v>122.31</v>
+      </c>
+      <c r="K87" s="18">
+        <f t="shared" ref="K87:K90" si="10">SUM(E87:J87)</f>
+        <v>798.99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="3">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F88" s="3">
+        <v>411.56</v>
+      </c>
+      <c r="G88" s="3">
+        <v>493.74</v>
+      </c>
+      <c r="H88" s="3">
+        <v>469.39</v>
+      </c>
+      <c r="I88" s="3">
+        <v>404.18</v>
+      </c>
+      <c r="J88" s="7">
+        <v>422.04</v>
+      </c>
+      <c r="K88" s="3">
+        <f t="shared" si="10"/>
+        <v>2841.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="D89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="3">
+        <v>147</v>
+      </c>
+      <c r="F89" s="3">
+        <v>148</v>
+      </c>
+      <c r="G89" s="3">
+        <v>147</v>
+      </c>
+      <c r="H89" s="3">
+        <v>153</v>
+      </c>
+      <c r="I89" s="3">
+        <v>148</v>
+      </c>
+      <c r="J89" s="7">
+        <v>149</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="10"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="D90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="G91" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="E92" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D508D2AC-C0B4-4555-8A12-9D71F8B53651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3F9DD-8AED-4133-BAB6-75B5C41D9441}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="0" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13644" yWindow="1680" windowWidth="17280" windowHeight="8784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>Dirt6</t>
   </si>
@@ -218,14 +218,22 @@
     <t>下一步：改进转向函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PIDv1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalError</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="182" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -326,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +390,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,12 +733,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -735,12 +746,13 @@
     <col min="1" max="1" width="14.44140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="7"/>
-    <col min="11" max="12" width="8.88671875" style="3"/>
+    <col min="6" max="8" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
     <col min="13" max="13" width="8.88671875" style="13"/>
     <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -2221,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" ht="28.8">
       <c r="E79" s="3" t="s">
         <v>39</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>3069.73</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="9" t="s">
         <v>42</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>3103.4</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" s="9" t="s">
         <v>38</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>432.69</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="D83" s="3" t="s">
         <v>13</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="D84" s="3" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" s="9" t="s">
         <v>44</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>876.77</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="9" t="s">
         <v>37</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>798.99</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="9" t="s">
         <v>43</v>
       </c>
@@ -2402,7 +2414,7 @@
         <v>2841.08</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="D90" s="3" t="s">
         <v>12</v>
       </c>
@@ -2456,15 +2468,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="G91" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="E92" s="9" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="3">
+        <v>640.16803000000004</v>
+      </c>
+      <c r="F93" s="3">
+        <v>411.52600100000001</v>
+      </c>
+      <c r="G93" s="3">
+        <v>493.71798699999999</v>
+      </c>
+      <c r="H93" s="3">
+        <v>469.38000499999998</v>
+      </c>
+      <c r="I93" s="3">
+        <v>404.16400099999998</v>
+      </c>
+      <c r="J93" s="7">
+        <v>404.15701300000001</v>
+      </c>
+      <c r="K93" s="3">
+        <f t="shared" ref="K93:K94" si="11">SUM(E93:J93)</f>
+        <v>2823.1130370000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="D94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" s="3">
+        <v>601.46046200000001</v>
+      </c>
+      <c r="F94" s="3">
+        <v>379.44525700000003</v>
+      </c>
+      <c r="G94" s="3">
+        <v>461.16140100000001</v>
+      </c>
+      <c r="H94" s="3">
+        <v>440.03239400000001</v>
+      </c>
+      <c r="I94" s="3">
+        <v>382.63436400000001</v>
+      </c>
+      <c r="J94" s="7">
+        <v>382.62671599999999</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="11"/>
+        <v>2647.3605939999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="E95" s="19">
+        <f>E94/E93</f>
+        <v>0.93953529981808048</v>
+      </c>
+      <c r="F95" s="19">
+        <f t="shared" ref="F95:L95" si="12">F94/F93</f>
+        <v>0.92204442994599511</v>
+      </c>
+      <c r="G95" s="19">
+        <f t="shared" si="12"/>
+        <v>0.93405833520908366</v>
+      </c>
+      <c r="H95" s="19">
+        <f t="shared" si="12"/>
+        <v>0.93747579639656786</v>
+      </c>
+      <c r="I95" s="19">
+        <f t="shared" si="12"/>
+        <v>0.94673044371411008</v>
+      </c>
+      <c r="J95" s="19">
+        <f t="shared" si="12"/>
+        <v>0.9467278896382777</v>
+      </c>
+      <c r="K95" s="19">
+        <f t="shared" si="12"/>
+        <v>0.93774516262842778</v>
+      </c>
+      <c r="L95" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3F9DD-8AED-4133-BAB6-75B5C41D9441}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96787462-033E-49BA-BE66-7D10ACF2C971}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13644" yWindow="1680" windowWidth="17280" windowHeight="8784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2928" windowWidth="17280" windowHeight="8784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t>Dirt6</t>
   </si>
@@ -225,15 +225,58 @@
   <si>
     <t>totalError</t>
   </si>
+  <si>
+    <t>相对误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalError是自己定义</t>
+  </si>
+  <si>
+    <t>相对误差稳定在6~7%，totalError可以作为评价函数</t>
+  </si>
+  <si>
+    <t>PIDv1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMEND ERROR function * 1.06638779900189;
+  ADD a TIME function;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_T</t>
+  </si>
+  <si>
+    <t>误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_T += 0.0208625612715938;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="182" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -276,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,12 +383,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,9 +397,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -392,7 +435,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,1838 +797,2245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="8.88671875" style="13"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="19">
         <v>43533</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="22">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="20">
         <v>178.1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="20">
         <v>92.39</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="20">
         <v>148.09</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="20">
         <v>260.57</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="20">
         <v>172.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="20">
         <v>169</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="20">
         <f>SUM(E2:J2)</f>
         <v>1020.7500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="20">
         <v>142.85</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="20">
         <v>99.37</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="20">
         <v>125.94</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="20">
         <v>140.49</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="20">
         <v>114.42</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="20">
         <v>123.49</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="20">
         <f t="shared" ref="K3:K6" si="0">SUM(E3:J3)</f>
         <v>746.56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="20">
         <v>481.73</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="20">
         <v>373.74</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="20">
         <v>435.71</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="20">
         <v>369.18</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="20">
         <v>349.23</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="20">
         <v>398.08</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="20">
         <f t="shared" si="0"/>
         <v>2407.67</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="20">
         <v>89</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="20">
         <v>108</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="20">
         <v>111</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="20">
         <v>142</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="20">
         <v>111</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="20">
         <v>126</v>
       </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>43533</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.62708333333333333</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>108.64</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>169.05</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>356.27</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>212.65</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>199.17</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f>SUM(E8:J8)</f>
         <v>2044.7800000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>173.36</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>336.06</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>277.27</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>22866.02</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>470.34</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" ref="K9:K12" si="1">SUM(E9:J9)</f>
         <v>25122.05</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>716.38</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1439.6</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>922.17</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>111783</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>2060.6999999999998</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>116921.84999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
         <v>74</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>77</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>78</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>77</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>72</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>43533</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.95694444444444438</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>102.98</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>161.07</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>342.17</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>193.78</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>188.58</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f>SUM(E14:J14)</f>
         <v>1987.58</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>999</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>278.07</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>617.26</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>456.25</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>535.96</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>550.19000000000005</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" ref="K15:K18" si="2">SUM(E15:J15)</f>
         <v>3436.73</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>1236.4000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>2827.24</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>1816.45</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>2388.8200000000002</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>2464.91</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>10733.82</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>76</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>77</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>78</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>77</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>76</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>43534</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.44236111111111115</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <v>201.6</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>572.02</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>2555.91</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>43534</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>0.47152777777777777</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>164.4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>103.89</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>161.53</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>343.02</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>195.67</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>190.73</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f>SUM(E26:J26)</f>
         <v>1159.24</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>281.14999999999998</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>112.1</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>141.9</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>173.87</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>175.04</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>160.53</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" ref="K27:K30" si="3">SUM(E27:J27)</f>
         <v>1044.5899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1176.27</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>422.04</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>497.44</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>431.77</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>618.02</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <v>552.92999999999995</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="3"/>
         <v>3698.47</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>76</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>76</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>77</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>78</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>77</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>43534</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>0.46458333333333335</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>143.5</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="5">
         <v>239.47</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <v>997.56</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="5">
         <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="5">
         <v>999</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="5">
         <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>999</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>73.69</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>134.9</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>999</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>999</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="5">
         <v>135.63999999999999</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <f>SUM(E44:J44)</f>
         <v>3341.23</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>999</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>105.44</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>138.05000000000001</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>999</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>999</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="5">
         <v>125.4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <f t="shared" ref="K45:K48" si="4">SUM(E45:J45)</f>
         <v>3365.89</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>426.4</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>511.2</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="5">
         <v>448.31</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <f t="shared" si="4"/>
         <v>1385.9099999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>159</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>158</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="5">
         <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1">
-      <c r="B49" s="11"/>
-      <c r="E49" s="15" t="s">
+    <row r="49" spans="1:13" s="7" customFormat="1">
+      <c r="B49" s="9"/>
+      <c r="E49" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="15"/>
+      <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>177.23</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>97.69</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>178.42</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>267.26</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>185.52</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="5">
         <v>179.08</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <f>SUM(E50:J50)</f>
         <v>1085.1999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>171.38</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>114.61</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>162.74</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>157.69999999999999</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>135.27000000000001</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>146.63999999999999</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <f t="shared" ref="K51:K54" si="5">SUM(E51:J51)</f>
         <v>888.34</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>622.65</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>441.9</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>578.86</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>445.31</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>435.58</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="5">
         <v>499.15</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <f t="shared" si="5"/>
         <v>3023.45</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>120</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>120</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>118</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>123</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>120</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>144.86000000000001</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>81.569999999999993</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>144.61000000000001</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>214.85</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>149.6</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="5">
         <v>144.77000000000001</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <f>SUM(E56:J56)</f>
         <v>880.26</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>170.77</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>182.09</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>138.69</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>152.03</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>121.76</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="5">
         <v>123.67</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <f t="shared" ref="K57:K60" si="6">SUM(E57:J57)</f>
         <v>889.01</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>659.32</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>792.34</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>502.43</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>481.75</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>413.37</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <v>428.64</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <f t="shared" si="6"/>
         <v>3277.85</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>147</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>148</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>147</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>153</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="2">
         <v>148</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>147.96</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>999</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <v>144.84</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>240.61</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>999</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>123.5</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>997.74</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="5">
         <v>427.74</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>146</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>144.76</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>78.8</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>144.6</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>214.88</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <v>149.54</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <v>144.72</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <f>SUM(E68:J68)</f>
         <v>877.3</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>168.73</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>105.24</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>138.63999999999999</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>152.03</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="2">
         <v>120.64</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <v>122.27</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <f t="shared" ref="K69:K72" si="7">SUM(E69:J69)</f>
         <v>807.55</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>649.42999999999995</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>419.1</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>502.19</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <v>481.71</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="2">
         <v>407.96</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="5">
         <v>421.82</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <f t="shared" si="7"/>
         <v>2882.21</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>147</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>148</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>147</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <v>153</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="2">
         <v>148</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>135.66</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>72.239999999999995</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>132.25</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>196.35</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="2">
         <v>138.33000000000001</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="5">
         <v>133.18</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <f>SUM(E74:J74)</f>
         <v>808.01</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="15">
         <v>227.04</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>103.32</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>135.24</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <v>152.88999999999999</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="15">
         <v>145.34</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="5">
         <v>125.77</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <f t="shared" ref="K75:K78" si="8">SUM(E75:J75)</f>
         <v>889.6</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>946.32</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>417.75</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>500.68</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <v>508.62</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="2">
         <v>542.70000000000005</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="5">
         <v>453.12</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <f t="shared" si="8"/>
         <v>3369.1900000000005</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>160</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>162</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>161</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>167</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="2">
         <v>161</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="5">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="28.8">
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>999</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>72.73</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="2">
         <v>999</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="2">
         <v>999</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <f>SUM(E80:J80)</f>
         <v>3069.73</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:13">
+      <c r="A81" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>999</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>106.4</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <v>999</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="2">
         <v>999</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <f t="shared" ref="K81:K84" si="9">SUM(E81:J81)</f>
         <v>3103.4</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:13">
+      <c r="A82" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>432.69</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <f t="shared" si="9"/>
         <v>432.69</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="D83" s="3" t="s">
+    <row r="83" spans="1:13">
+      <c r="D83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="D84" s="3" t="s">
+    <row r="84" spans="1:13">
+      <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:13">
+      <c r="A86" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>144.62</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>78.709999999999994</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>144.44</v>
       </c>
-      <c r="H86" s="3">
-        <v>214.77</v>
-      </c>
-      <c r="I86" s="3">
+      <c r="H86" s="2">
+        <v>3</v>
+      </c>
+      <c r="I86" s="2">
         <v>149.51</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="5">
         <v>144.72</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <f>SUM(E86:J86)</f>
-        <v>876.77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>166.8</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>103.67</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>136.87</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="2">
         <v>149.47999999999999</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="2">
         <v>119.86</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="16">
         <v>122.31</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K87" s="16">
         <f t="shared" ref="K87:K90" si="10">SUM(E87:J87)</f>
         <v>798.99</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="9" t="s">
+    <row r="88" spans="1:13">
+      <c r="A88" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>640.16999999999996</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <v>411.56</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="2">
         <v>493.74</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="2">
         <v>469.39</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="2">
         <v>404.18</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="5">
         <v>422.04</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <f t="shared" si="10"/>
         <v>2841.08</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
-      <c r="D89" s="3" t="s">
+    <row r="89" spans="1:13">
+      <c r="D89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>147</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>148</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <v>147</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <v>153</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <v>148</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="5">
         <v>149</v>
       </c>
-      <c r="K89" s="3">
+    </row>
+    <row r="90" spans="1:13">
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
         <f t="shared" si="10"/>
-        <v>892</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="D90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="G91" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="G91" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
-      <c r="E92" s="9" t="s">
+    <row r="92" spans="1:13">
+      <c r="E92" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:13">
+      <c r="A93" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>640.16803000000004</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>411.52600100000001</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="2">
         <v>493.71798699999999</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="2">
         <v>469.38000499999998</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="2">
         <v>404.16400099999998</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="5">
         <v>404.15701300000001</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <f t="shared" ref="K93:K94" si="11">SUM(E93:J93)</f>
         <v>2823.1130370000001</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="D94" s="3" t="s">
+    <row r="94" spans="1:13">
+      <c r="A94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>601.46046200000001</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>379.44525700000003</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="2">
         <v>461.16140100000001</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="2">
         <v>440.03239400000001</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="2">
         <v>382.63436400000001</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="5">
         <v>382.62671599999999</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="2">
         <f t="shared" si="11"/>
         <v>2647.3605939999998</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
-      <c r="E95" s="19">
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="17">
         <f>E94/E93</f>
         <v>0.93953529981808048</v>
       </c>
-      <c r="F95" s="19">
-        <f t="shared" ref="F95:L95" si="12">F94/F93</f>
+      <c r="F95" s="17">
+        <f t="shared" ref="F95:K95" si="12">F94/F93</f>
         <v>0.92204442994599511</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="17">
         <f t="shared" si="12"/>
         <v>0.93405833520908366</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="17">
         <f t="shared" si="12"/>
         <v>0.93747579639656786</v>
       </c>
-      <c r="I95" s="19">
+      <c r="I95" s="17">
         <f t="shared" si="12"/>
         <v>0.94673044371411008</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J95" s="17">
         <f t="shared" si="12"/>
         <v>0.9467278896382777</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="17">
         <f t="shared" si="12"/>
         <v>0.93774516262842778</v>
       </c>
-      <c r="L95" s="19"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="11">
+        <v>1.06638779900189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="17">
+        <f t="shared" ref="E96:K96" si="13">1-E95</f>
+        <v>6.0464700181919517E-2</v>
+      </c>
+      <c r="F96" s="17">
+        <f t="shared" si="13"/>
+        <v>7.7955570054004886E-2</v>
+      </c>
+      <c r="G96" s="17">
+        <f t="shared" si="13"/>
+        <v>6.5941664790916343E-2</v>
+      </c>
+      <c r="H96" s="17">
+        <f t="shared" si="13"/>
+        <v>6.2524203603432138E-2</v>
+      </c>
+      <c r="I96" s="17">
+        <f t="shared" si="13"/>
+        <v>5.3269556285889919E-2</v>
+      </c>
+      <c r="J96" s="17">
+        <f t="shared" si="13"/>
+        <v>5.3272110361722302E-2</v>
+      </c>
+      <c r="K96" s="17">
+        <f t="shared" si="13"/>
+        <v>6.2254837371572225E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="4">
+        <v>43540</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="2">
+        <v>144.62</v>
+      </c>
+      <c r="F98" s="2">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G98" s="2">
+        <v>144.44</v>
+      </c>
+      <c r="H98" s="2">
+        <v>214.77</v>
+      </c>
+      <c r="I98" s="2">
+        <v>149.51</v>
+      </c>
+      <c r="J98" s="5">
+        <v>144.72</v>
+      </c>
+      <c r="K98" s="2">
+        <f>SUM(E98:J98)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="2">
+        <v>166.8</v>
+      </c>
+      <c r="F99" s="2">
+        <v>103.67</v>
+      </c>
+      <c r="G99" s="2">
+        <v>136.87</v>
+      </c>
+      <c r="H99" s="2">
+        <v>149.47999999999999</v>
+      </c>
+      <c r="I99" s="2">
+        <v>119.86</v>
+      </c>
+      <c r="J99" s="5">
+        <v>122.56</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" ref="K99:K104" si="14">SUM(E99:J99)</f>
+        <v>799.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F100" s="2">
+        <v>411.96</v>
+      </c>
+      <c r="G100" s="2">
+        <v>493.74</v>
+      </c>
+      <c r="H100" s="2">
+        <v>469.39</v>
+      </c>
+      <c r="I100" s="2">
+        <v>404.16</v>
+      </c>
+      <c r="J100" s="5">
+        <v>423.24</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="14"/>
+        <v>2842.66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="D101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2">
+        <v>147</v>
+      </c>
+      <c r="F101" s="2">
+        <v>148</v>
+      </c>
+      <c r="G101" s="2">
+        <v>147</v>
+      </c>
+      <c r="H101" s="2">
+        <v>153</v>
+      </c>
+      <c r="I101" s="2">
+        <v>148</v>
+      </c>
+      <c r="J101" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="C103" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="2">
+        <v>641.39000099999998</v>
+      </c>
+      <c r="F103" s="2">
+        <v>404.67472099999998</v>
+      </c>
+      <c r="G103" s="2">
+        <v>491.80260500000003</v>
+      </c>
+      <c r="H103" s="2">
+        <v>469.25172199999997</v>
+      </c>
+      <c r="I103" s="2">
+        <v>408.03661699999998</v>
+      </c>
+      <c r="J103" s="5">
+        <v>424.901972</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="14"/>
+        <v>2840.0576380000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="C104" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="2">
+        <v>137.76</v>
+      </c>
+      <c r="F104" s="2">
+        <v>76.34</v>
+      </c>
+      <c r="G104" s="2">
+        <v>137.72</v>
+      </c>
+      <c r="H104" s="2">
+        <v>207.92</v>
+      </c>
+      <c r="I104" s="2">
+        <v>142.66</v>
+      </c>
+      <c r="J104" s="5">
+        <v>138.12</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="14"/>
+        <v>840.52</v>
+      </c>
+      <c r="L104" s="2">
+        <f>K98/K104*0.02</f>
+        <v>2.0862561271593773E-2</v>
+      </c>
+      <c r="M104" s="11">
+        <v>2.0862561271593801E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="C105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="24">
+        <f>E103/E100-1</f>
+        <v>1.9057453488917631E-3</v>
+      </c>
+      <c r="F105" s="24">
+        <f t="shared" ref="F105:K105" si="15">F103/F100-1</f>
+        <v>-1.7684432954655827E-2</v>
+      </c>
+      <c r="G105" s="24">
+        <f t="shared" si="15"/>
+        <v>-3.9239174464292814E-3</v>
+      </c>
+      <c r="H105" s="24">
+        <f t="shared" si="15"/>
+        <v>-2.9459085195682189E-4</v>
+      </c>
+      <c r="I105" s="24">
+        <f t="shared" si="15"/>
+        <v>9.5917879057798583E-3</v>
+      </c>
+      <c r="J105" s="24">
+        <f t="shared" si="15"/>
+        <v>3.9267838578584957E-3</v>
+      </c>
+      <c r="K105" s="24">
+        <f t="shared" si="15"/>
+        <v>-9.1546720325319519E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="C106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="24">
+        <f t="shared" ref="E106:K106" si="16">E104/E98-1</f>
+        <v>-4.7434656340755166E-2</v>
+      </c>
+      <c r="F106" s="24">
+        <f t="shared" si="16"/>
+        <v>-3.0110532333883722E-2</v>
+      </c>
+      <c r="G106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.6524508446413759E-2</v>
+      </c>
+      <c r="H106" s="24">
+        <f t="shared" si="16"/>
+        <v>-3.189458490478192E-2</v>
+      </c>
+      <c r="I106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.5816333355628402E-2</v>
+      </c>
+      <c r="J106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.5605306799336609E-2</v>
+      </c>
+      <c r="K106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.1344936528393994E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="2">
+        <v>143.74304699999999</v>
+      </c>
+      <c r="F108" s="2">
+        <v>79.632396</v>
+      </c>
+      <c r="G108" s="2">
+        <v>143.59700900000001</v>
+      </c>
+      <c r="H108" s="2">
+        <v>216.928912</v>
+      </c>
+      <c r="I108" s="2">
+        <v>149.06299999999999</v>
+      </c>
+      <c r="J108" s="5">
+        <v>143.805635</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" ref="K108" si="17">SUM(E108:J108)</f>
+        <v>876.76999899999987</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="24">
+        <f>E108/E98-1</f>
+        <v>-6.0638431752179089E-3</v>
+      </c>
+      <c r="F109" s="24">
+        <f t="shared" ref="F109:K109" si="18">F108/F98-1</f>
+        <v>1.1718917545419982E-2</v>
+      </c>
+      <c r="G109" s="24">
+        <f t="shared" si="18"/>
+        <v>-5.8362711160342418E-3</v>
+      </c>
+      <c r="H109" s="24">
+        <f t="shared" si="18"/>
+        <v>1.0052204684080523E-2</v>
+      </c>
+      <c r="I109" s="24">
+        <f t="shared" si="18"/>
+        <v>-2.9897665707979693E-3</v>
+      </c>
+      <c r="J109" s="24">
+        <f t="shared" si="18"/>
+        <v>-6.3181661138751455E-3</v>
+      </c>
+      <c r="K109" s="24">
+        <f t="shared" si="18"/>
+        <v>-1.1405500988104222E-9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96787462-033E-49BA-BE66-7D10ACF2C971}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31EC96-7E3B-43C9-9F9F-E019063A9F60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2928" windowWidth="17280" windowHeight="8784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11172" yWindow="1500" windowWidth="17280" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>Dirt6</t>
   </si>
@@ -265,6 +265,13 @@
   </si>
   <si>
     <t>total_T += 0.0208625612715938;</t>
+  </si>
+  <si>
+    <t>PIDv1.2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD a flag IsTimeStart.</t>
   </si>
 </sst>
 </file>
@@ -797,12 +804,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3035,6 +3042,198 @@
       <c r="K109" s="24">
         <f t="shared" si="18"/>
         <v>-1.1405500988104222E-9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="2">
+        <v>144.62</v>
+      </c>
+      <c r="F111" s="2">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G111" s="2">
+        <v>144.44</v>
+      </c>
+      <c r="H111" s="2">
+        <v>214.77</v>
+      </c>
+      <c r="I111" s="2">
+        <v>149.51</v>
+      </c>
+      <c r="J111" s="5">
+        <v>144.72</v>
+      </c>
+      <c r="K111" s="2">
+        <f>SUM(E111:J111)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F112" s="2">
+        <v>411.96</v>
+      </c>
+      <c r="G112" s="2">
+        <v>493.74</v>
+      </c>
+      <c r="H112" s="2">
+        <v>469.39</v>
+      </c>
+      <c r="I112" s="2">
+        <v>404.16</v>
+      </c>
+      <c r="J112" s="5">
+        <v>423.24</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" ref="K112:K114" si="19">SUM(E112:J112)</f>
+        <v>2842.66</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11">
+      <c r="C113" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="2">
+        <v>481.35565100000002</v>
+      </c>
+      <c r="F113" s="2">
+        <v>259.34051299999999</v>
+      </c>
+      <c r="G113" s="2">
+        <v>330.502115</v>
+      </c>
+      <c r="H113" s="2">
+        <v>317.56969099999998</v>
+      </c>
+      <c r="I113" s="2">
+        <v>278.62517700000001</v>
+      </c>
+      <c r="J113" s="5">
+        <v>283.99739099999999</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="19"/>
+        <v>1951.3905379999997</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11">
+      <c r="C114" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E114" s="2">
+        <v>136.84</v>
+      </c>
+      <c r="F114" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G114" s="2">
+        <v>136.62</v>
+      </c>
+      <c r="H114" s="2">
+        <v>207.04</v>
+      </c>
+      <c r="I114" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="J114" s="5">
+        <v>137.12</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="19"/>
+        <v>834.92</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11">
+      <c r="C115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="24">
+        <f>E113/E100-1</f>
+        <v>-0.24808152365777836</v>
+      </c>
+      <c r="F115" s="24">
+        <f t="shared" ref="F115:K115" si="20">F113/F100-1</f>
+        <v>-0.37047161617632784</v>
+      </c>
+      <c r="G115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.33061507068497586</v>
+      </c>
+      <c r="H115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.32344172010481687</v>
+      </c>
+      <c r="I115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.31060674732779103</v>
+      </c>
+      <c r="J115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.32899208250637935</v>
+      </c>
+      <c r="K115" s="17">
+        <f t="shared" si="20"/>
+        <v>-0.31353361358727394</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" s="24">
+        <f>E114/E98-1</f>
+        <v>-5.3796155441847571E-2</v>
+      </c>
+      <c r="F116" s="24">
+        <f t="shared" ref="F116:K116" si="21">F114/F98-1</f>
+        <v>-4.2053106339727919E-2</v>
+      </c>
+      <c r="G116" s="24">
+        <f t="shared" si="21"/>
+        <v>-5.414012738853502E-2</v>
+      </c>
+      <c r="H116" s="24">
+        <f t="shared" si="21"/>
+        <v>-3.5991991432695492E-2</v>
+      </c>
+      <c r="I116" s="24">
+        <f t="shared" si="21"/>
+        <v>-5.0899605377566659E-2</v>
+      </c>
+      <c r="J116" s="24">
+        <f t="shared" si="21"/>
+        <v>-5.2515201768933095E-2</v>
+      </c>
+      <c r="K116" s="24">
+        <f t="shared" si="21"/>
+        <v>-4.7732016378297604E-2</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31EC96-7E3B-43C9-9F9F-E019063A9F60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4185ED-A75A-4C88-B39D-1C2C2315BBB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11172" yWindow="1500" windowWidth="17280" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3564" windowWidth="17280" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
   <si>
     <t>Dirt6</t>
   </si>
@@ -272,6 +272,35 @@
   </si>
   <si>
     <t>ADD a flag IsTimeStart.</t>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常行驶Error占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！！接下来1、修改speed &lt; 50控制（起步阶段控制）2、改进Dirt6转向函数D_err 3、有时间可以对学长的代码进行测试（startError及其占比，不同半径的curError）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！！接下来1、修改speed &lt; 50控制（起步阶段控制）2、改进Dirt6转向函数D_err 3、有时间可以对学长的代码进行测试（startError及其占比，不同半径的curError）</t>
+  </si>
+  <si>
+    <t>REDUCE those stupid empty lines!</t>
+  </si>
+  <si>
+    <t>DEFINE a startError(t &gt; 0 to speed &lt; 40)</t>
   </si>
 </sst>
 </file>
@@ -390,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,6 +494,12 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,12 +839,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3104,7 +3139,7 @@
         <v>2842.66</v>
       </c>
     </row>
-    <row r="113" spans="3:11">
+    <row r="113" spans="1:13">
       <c r="C113" s="7" t="s">
         <v>55</v>
       </c>
@@ -3133,8 +3168,15 @@
         <f t="shared" si="19"/>
         <v>1951.3905379999997</v>
       </c>
-    </row>
-    <row r="114" spans="3:11">
+      <c r="L113" s="2">
+        <f>K112/K113</f>
+        <v>1.4567355660715007</v>
+      </c>
+      <c r="M113" s="11">
+        <v>1.4567355660715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="C114" s="7" t="s">
         <v>55</v>
       </c>
@@ -3163,8 +3205,15 @@
         <f t="shared" si="19"/>
         <v>834.92</v>
       </c>
-    </row>
-    <row r="115" spans="3:11">
+      <c r="L114" s="2">
+        <f>K111/K114*0.02</f>
+        <v>2.1002491256647344E-2</v>
+      </c>
+      <c r="M114" s="11">
+        <v>2.1002491256647299E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="C115" s="2" t="s">
         <v>57</v>
       </c>
@@ -3200,7 +3249,7 @@
         <v>-0.31353361358727394</v>
       </c>
     </row>
-    <row r="116" spans="3:11">
+    <row r="116" spans="1:13">
       <c r="C116" s="2" t="s">
         <v>57</v>
       </c>
@@ -3234,6 +3283,311 @@
       <c r="K116" s="24">
         <f t="shared" si="21"/>
         <v>-4.7732016378297604E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="4">
+        <v>43541</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2">
+        <v>144.62</v>
+      </c>
+      <c r="F118" s="2">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G118" s="2">
+        <v>144.44</v>
+      </c>
+      <c r="H118" s="2">
+        <v>214.77</v>
+      </c>
+      <c r="I118" s="2">
+        <v>149.51</v>
+      </c>
+      <c r="J118" s="5">
+        <v>144.72</v>
+      </c>
+      <c r="K118" s="2">
+        <f>SUM(E118:J118)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="D119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="2">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F119" s="2">
+        <v>411.96</v>
+      </c>
+      <c r="G119" s="2">
+        <v>493.74</v>
+      </c>
+      <c r="H119" s="2">
+        <v>469.39</v>
+      </c>
+      <c r="I119" s="2">
+        <v>404.16</v>
+      </c>
+      <c r="J119" s="5">
+        <v>423.24</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" ref="K119:K121" si="22">SUM(E119:J119)</f>
+        <v>2842.66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" s="2">
+        <v>701.20840199999998</v>
+      </c>
+      <c r="F120" s="2">
+        <v>378.19507900000002</v>
+      </c>
+      <c r="G120" s="2">
+        <v>481.4855</v>
+      </c>
+      <c r="H120" s="2">
+        <v>462.56964399999998</v>
+      </c>
+      <c r="I120" s="2">
+        <v>405.85133999999999</v>
+      </c>
+      <c r="J120" s="5">
+        <v>412.80246499999998</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="22"/>
+        <v>2842.1124300000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" s="2">
+        <v>143.72004799999999</v>
+      </c>
+      <c r="F121" s="2">
+        <v>79.284403999999995</v>
+      </c>
+      <c r="G121" s="2">
+        <v>143.63603800000001</v>
+      </c>
+      <c r="H121" s="2">
+        <v>217.31277700000001</v>
+      </c>
+      <c r="I121" s="2">
+        <v>148.90766300000001</v>
+      </c>
+      <c r="J121" s="5">
+        <v>143.84606299999999</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="22"/>
+        <v>876.70699300000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="24">
+        <f>E120/E119-1</f>
+        <v>9.5347176531233924E-2</v>
+      </c>
+      <c r="F122" s="24">
+        <f t="shared" ref="F122:K122" si="23">F120/F119-1</f>
+        <v>-8.1961649189241537E-2</v>
+      </c>
+      <c r="G122" s="24">
+        <f t="shared" si="23"/>
+        <v>-2.4819743184672061E-2</v>
+      </c>
+      <c r="H122" s="24">
+        <f t="shared" si="23"/>
+        <v>-1.4530254159654032E-2</v>
+      </c>
+      <c r="I122" s="24">
+        <f t="shared" si="23"/>
+        <v>4.184827790973733E-3</v>
+      </c>
+      <c r="J122" s="24">
+        <f t="shared" si="23"/>
+        <v>-2.4661031566014624E-2</v>
+      </c>
+      <c r="K122" s="24">
+        <f t="shared" si="23"/>
+        <v>-1.9262592079238861E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" s="24">
+        <f>E121/E118-1</f>
+        <v>-6.2228737380722876E-3</v>
+      </c>
+      <c r="F123" s="24">
+        <f t="shared" ref="F123:K123" si="24">F121/F118-1</f>
+        <v>7.2977258289925739E-3</v>
+      </c>
+      <c r="G123" s="24">
+        <f t="shared" si="24"/>
+        <v>-5.5660620326778432E-3</v>
+      </c>
+      <c r="H123" s="24">
+        <f t="shared" si="24"/>
+        <v>1.1839535316850558E-2</v>
+      </c>
+      <c r="I123" s="24">
+        <f t="shared" si="24"/>
+        <v>-4.0287405524712661E-3</v>
+      </c>
+      <c r="J123" s="24">
+        <f t="shared" si="24"/>
+        <v>-6.0388128800442642E-3</v>
+      </c>
+      <c r="K123" s="24">
+        <f t="shared" si="24"/>
+        <v>-7.1862632161190376E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="D124" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E124" s="2">
+        <v>312.705917</v>
+      </c>
+      <c r="F124" s="2">
+        <v>311.34256599999998</v>
+      </c>
+      <c r="G124" s="2">
+        <v>318.54494199999999</v>
+      </c>
+      <c r="H124" s="2">
+        <v>301.00592999999998</v>
+      </c>
+      <c r="I124" s="2">
+        <v>257.07948199999998</v>
+      </c>
+      <c r="J124" s="5">
+        <v>278.19708000000003</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" ref="K124" si="25">SUM(E124:J124)</f>
+        <v>1778.8759169999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="D125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="25">
+        <f>E124/E120</f>
+        <v>0.44595289518507508</v>
+      </c>
+      <c r="F125" s="25">
+        <f>F124/F120</f>
+        <v>0.82323272640995937</v>
+      </c>
+      <c r="G125" s="25">
+        <f t="shared" ref="G125:K125" si="26">G124/G120</f>
+        <v>0.66158781936319988</v>
+      </c>
+      <c r="H125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.65072564510956099</v>
+      </c>
+      <c r="I125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.63343263077559386</v>
+      </c>
+      <c r="J125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.67392301060992943</v>
+      </c>
+      <c r="K125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.62589920730194326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="28.8">
+      <c r="D126" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="25">
+        <f>1-E125</f>
+        <v>0.55404710481492492</v>
+      </c>
+      <c r="F126" s="25">
+        <f t="shared" ref="F126:K126" si="27">1-F125</f>
+        <v>0.17676727359004063</v>
+      </c>
+      <c r="G126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.33841218063680012</v>
+      </c>
+      <c r="H126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.34927435489043901</v>
+      </c>
+      <c r="I126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.36656736922440614</v>
+      </c>
+      <c r="J126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.32607698939007057</v>
+      </c>
+      <c r="K126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.37410079269805674</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="D127" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4185ED-A75A-4C88-B39D-1C2C2315BBB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C6B7D5-87CE-4B4E-BF53-233DD4FF4149}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3564" windowWidth="17280" windowHeight="8796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
   <si>
     <t>Dirt6</t>
   </si>
@@ -291,28 +291,53 @@
   </si>
   <si>
     <t>注意！！接下来1、修改speed &lt; 50控制（起步阶段控制）2、改进Dirt6转向函数D_err 3、有时间可以对学长的代码进行测试（startError及其占比，不同半径的curError）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意！！接下来1、修改speed &lt; 50控制（起步阶段控制）2、改进Dirt6转向函数D_err 3、有时间可以对学长的代码进行测试（startError及其占比，不同半径的curError）</t>
   </si>
   <si>
     <t>REDUCE those stupid empty lines!</t>
   </si>
   <si>
+    <t>ADD a flag IsTimeStart.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DEFINE a startError(t &gt; 0 to speed &lt; 40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！！接下来1、修改speed &lt; 40控制（起步阶段控制）2、改进Dirt6转向函数D_err 3、有时间可以对学长的代码进行测试（startError及其占比，不同半径的curError）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startError</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>正常行驶Error占比</t>
+  </si>
+  <si>
+    <t>自定义</t>
+  </si>
+  <si>
+    <t>误差</t>
+  </si>
+  <si>
+    <t>Length(meter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000_ "/>
     <numFmt numFmtId="180" formatCode="0.0000%"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -419,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +525,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,30 +879,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.8">
+    <row r="1" spans="1:13" ht="19.8" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -900,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="10.8" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -936,7 +976,7 @@
         <v>1020.7500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="10.8" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -962,11 +1002,11 @@
         <v>123.49</v>
       </c>
       <c r="K3" s="20">
-        <f t="shared" ref="K3:K6" si="0">SUM(E3:J3)</f>
+        <f t="shared" ref="K3:K8" si="0">SUM(E3:J3)</f>
         <v>746.56</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="10.8" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
@@ -996,7 +1036,7 @@
         <v>2407.67</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="10.8" customHeight="1">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -1023,7 +1063,7 @@
       </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="10.8" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -1053,2541 +1093,2809 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7" t="s">
+    <row r="7" spans="1:13" ht="10.8" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="29">
+        <v>456.43858899999998</v>
+      </c>
+      <c r="F7" s="29">
+        <v>323.93069200000002</v>
+      </c>
+      <c r="G7" s="29">
+        <v>398.71481899999998</v>
+      </c>
+      <c r="H7" s="29">
+        <v>318.90721000000002</v>
+      </c>
+      <c r="I7" s="29">
+        <v>327.43809499999998</v>
+      </c>
+      <c r="J7" s="29">
+        <v>378.93915700000002</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" si="0"/>
+        <v>2204.3685620000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="10.8" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="29">
+        <v>178.92022299999999</v>
+      </c>
+      <c r="F8" s="29">
+        <v>92.284947000000003</v>
+      </c>
+      <c r="G8" s="29">
+        <v>147.26946899999999</v>
+      </c>
+      <c r="H8" s="29">
+        <v>265.38747999999998</v>
+      </c>
+      <c r="I8" s="29">
+        <v>173.10253299999999</v>
+      </c>
+      <c r="J8" s="29">
+        <v>169.28008</v>
+      </c>
+      <c r="K8" s="29">
+        <f t="shared" si="0"/>
+        <v>1026.2447320000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="10.8" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="27">
+        <f>E7/E4-1</f>
+        <v>-5.250121644904826E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" ref="F9:K9" si="1">F7/F4-1</f>
+        <v>-0.13327261732755391</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>-8.4907807945651892E-2</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="1"/>
+        <v>-0.13617419686873611</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="1"/>
+        <v>-6.2399865418205858E-2</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="1"/>
+        <v>-4.8082905446141355E-2</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="1"/>
+        <v>-8.4439079275814399E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="10.8" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="27">
+        <f>E8/E2-1</f>
+        <v>4.6054070746770481E-3</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" ref="F10:K10" si="2">F8/F2-1</f>
+        <v>-1.1370602879099412E-3</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="2"/>
+        <v>-5.5407589979067362E-3</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="2"/>
+        <v>1.8488237325862578E-2</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="2"/>
+        <v>2.9115469293163887E-3</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="2"/>
+        <v>1.6572781065089526E-3</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="2"/>
+        <v>5.3830340435954138E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="10.8" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="29">
+        <v>332.85599100000002</v>
+      </c>
+      <c r="F11" s="29">
+        <v>278.85013700000002</v>
+      </c>
+      <c r="G11" s="29">
+        <v>281.784988</v>
+      </c>
+      <c r="H11" s="29">
+        <v>260.10791699999999</v>
+      </c>
+      <c r="I11" s="29">
+        <v>223.442904</v>
+      </c>
+      <c r="J11" s="29">
+        <v>245.969483</v>
+      </c>
+      <c r="K11" s="29">
+        <f t="shared" ref="K11" si="3">SUM(E11:J11)</f>
+        <v>1623.01142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="10.8" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="28">
+        <f>E11/E7</f>
+        <v>0.72924594681892685</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12:K12" si="4">F11/F7</f>
+        <v>0.86083271479566992</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="4"/>
+        <v>0.70673317010572412</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="4"/>
+        <v>0.81562256620036899</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>0.68239739789592901</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="4"/>
+        <v>0.64910020106473187</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="4"/>
+        <v>0.73627044405290332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="10.8" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="28">
+        <f>1-E12</f>
+        <v>0.27075405318107315</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" ref="F13:K13" si="5">1-F12</f>
+        <v>0.13916728520433008</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="5"/>
+        <v>0.29326682989427588</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="5"/>
+        <v>0.18437743379963101</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="5"/>
+        <v>0.31760260210407099</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="5"/>
+        <v>0.35089979893526813</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="5"/>
+        <v>0.26372955594709668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3147.46</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2057.56</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3260.43</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7041.68</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3919.31</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3823.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B16" s="4">
         <v>43533</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C16" s="3">
         <v>0.62708333333333333</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E16" s="2">
         <v>999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F16" s="2">
         <v>108.64</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G16" s="2">
         <v>169.05</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H16" s="2">
         <v>356.27</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I16" s="2">
         <v>212.65</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J16" s="5">
         <v>199.17</v>
       </c>
-      <c r="K8" s="2">
-        <f>SUM(E8:J8)</f>
+      <c r="K16" s="2">
+        <f>SUM(E16:J16)</f>
         <v>2044.7800000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="D9" s="2" t="s">
+    <row r="17" spans="1:11">
+      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E17" s="2">
         <v>999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F17" s="2">
         <v>173.36</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G17" s="2">
         <v>336.06</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H17" s="2">
         <v>277.27</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I17" s="2">
         <v>22866.02</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J17" s="5">
         <v>470.34</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9:K12" si="1">SUM(E9:J9)</f>
+      <c r="K17" s="2">
+        <f t="shared" ref="K17:K20" si="6">SUM(E17:J17)</f>
         <v>25122.05</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="D10" s="2" t="s">
+    <row r="18" spans="1:11">
+      <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F18" s="1">
         <v>716.38</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G18" s="2">
         <v>1439.6</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H18" s="2">
         <v>922.17</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I18" s="2">
         <v>111783</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J18" s="5">
         <v>2060.6999999999998</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" si="1"/>
+      <c r="K18" s="2">
+        <f t="shared" si="6"/>
         <v>116921.84999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="D11" s="2" t="s">
+    <row r="19" spans="1:11">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
         <v>74</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G19" s="1">
         <v>77</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H19" s="1">
         <v>78</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I19" s="1">
         <v>77</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J19" s="6">
         <v>72</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="1"/>
+      <c r="K19" s="2">
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="D12" s="2" t="s">
+    <row r="20" spans="1:11">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="7" t="s">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B22" s="4">
         <v>43533</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C22" s="3">
         <v>0.95694444444444438</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E22" s="2">
         <v>999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F22" s="2">
         <v>102.98</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G22" s="2">
         <v>161.07</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H22" s="2">
         <v>342.17</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I22" s="2">
         <v>193.78</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J22" s="5">
         <v>188.58</v>
       </c>
-      <c r="K14" s="2">
-        <f>SUM(E14:J14)</f>
+      <c r="K22" s="2">
+        <f>SUM(E22:J22)</f>
         <v>1987.58</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="D15" s="2" t="s">
+    <row r="23" spans="1:11">
+      <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E23" s="2">
         <v>999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F23" s="2">
         <v>278.07</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G23" s="2">
         <v>617.26</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H23" s="2">
         <v>456.25</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I23" s="2">
         <v>535.96</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J23" s="5">
         <v>550.19000000000005</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" ref="K15:K18" si="2">SUM(E15:J15)</f>
+      <c r="K23" s="2">
+        <f t="shared" ref="K23:K26" si="7">SUM(E23:J23)</f>
         <v>3436.73</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="D16" s="2" t="s">
+    <row r="24" spans="1:11">
+      <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F24" s="2">
         <v>1236.4000000000001</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G24" s="2">
         <v>2827.24</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H24" s="2">
         <v>1816.45</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I24" s="2">
         <v>2388.8200000000002</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J24" s="5">
         <v>2464.91</v>
       </c>
-      <c r="K16" s="2">
-        <f t="shared" si="2"/>
+      <c r="K24" s="2">
+        <f t="shared" si="7"/>
         <v>10733.82</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="D17" s="2" t="s">
+    <row r="25" spans="1:11">
+      <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F25" s="2">
         <v>76</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G25" s="2">
         <v>77</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H25" s="2">
         <v>78</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I25" s="2">
         <v>77</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J25" s="5">
         <v>76</v>
       </c>
-      <c r="K17" s="2">
-        <f t="shared" si="2"/>
+      <c r="K25" s="2">
+        <f t="shared" si="7"/>
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="D18" s="2" t="s">
+    <row r="26" spans="1:11">
+      <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="7" t="s">
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B28" s="4">
         <v>43534</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C28" s="3">
         <v>0.44236111111111115</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J28" s="5">
         <v>201.6</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="D21" s="2" t="s">
+    <row r="29" spans="1:11">
+      <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J29" s="5">
         <v>572.02</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="D22" s="2" t="s">
+    <row r="30" spans="1:11">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J30" s="5">
         <v>2555.91</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="D23" s="2" t="s">
+    <row r="31" spans="1:11">
+      <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J31" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="D24" s="2" t="s">
+    <row r="32" spans="1:11">
+      <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="7" t="s">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B34" s="4">
         <v>43534</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C34" s="3">
         <v>0.47152777777777777</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E34" s="2">
         <v>164.4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F34" s="2">
         <v>103.89</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G34" s="2">
         <v>161.53</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H34" s="2">
         <v>343.02</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I34" s="2">
         <v>195.67</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J34" s="5">
         <v>190.73</v>
       </c>
-      <c r="K26" s="2">
-        <f>SUM(E26:J26)</f>
+      <c r="K34" s="2">
+        <f>SUM(E34:J34)</f>
         <v>1159.24</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="7" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E35" s="2">
         <v>281.14999999999998</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F35" s="2">
         <v>112.1</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G35" s="2">
         <v>141.9</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H35" s="2">
         <v>173.87</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I35" s="2">
         <v>175.04</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J35" s="5">
         <v>160.53</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" ref="K27:K30" si="3">SUM(E27:J27)</f>
+      <c r="K35" s="2">
+        <f t="shared" ref="K35:K38" si="8">SUM(E35:J35)</f>
         <v>1044.5899999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="D28" s="2" t="s">
+    <row r="36" spans="1:13">
+      <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E36" s="2">
         <v>1176.27</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F36" s="2">
         <v>422.04</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G36" s="2">
         <v>497.44</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H36" s="2">
         <v>431.77</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I36" s="2">
         <v>618.02</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J36" s="5">
         <v>552.92999999999995</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="3"/>
+      <c r="K36" s="2">
+        <f t="shared" si="8"/>
         <v>3698.47</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="D29" s="2" t="s">
+    <row r="37" spans="1:13">
+      <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E37" s="2">
         <v>76</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F37" s="2">
         <v>76</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G37" s="2">
         <v>77</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H37" s="2">
         <v>78</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I37" s="2">
         <v>77</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J37" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="D30" s="2" t="s">
+    <row r="38" spans="1:13">
+      <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="J31" s="8" t="s">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="J39" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="7" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B40" s="4">
         <v>43534</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C40" s="3">
         <v>0.46458333333333335</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J40" s="5">
         <v>143.5</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M40" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="9" t="s">
+    <row r="41" spans="1:13">
+      <c r="A41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J41" s="5">
         <v>239.47</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="D34" s="2" t="s">
+    <row r="42" spans="1:13">
+      <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J42" s="5">
         <v>997.56</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="D35" s="2" t="s">
+    <row r="43" spans="1:13">
+      <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J43" s="5">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="D36" s="2" t="s">
+    <row r="44" spans="1:13">
+      <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="J37" s="8" t="s">
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="J45" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="7" t="s">
+    <row r="46" spans="1:13">
+      <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J46" s="5">
         <v>999</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="D39" s="2" t="s">
+    <row r="47" spans="1:13">
+      <c r="D47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J47" s="5">
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="D40" s="2" t="s">
+    <row r="48" spans="1:13">
+      <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="D41" s="2" t="s">
+    <row r="49" spans="1:13">
+      <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="D42" s="2" t="s">
+    <row r="50" spans="1:13">
+      <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="7" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E52" s="2">
         <v>999</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F52" s="2">
         <v>73.69</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G52" s="2">
         <v>134.9</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H52" s="2">
         <v>999</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I52" s="2">
         <v>999</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J52" s="5">
         <v>135.63999999999999</v>
       </c>
-      <c r="K44" s="2">
-        <f>SUM(E44:J44)</f>
+      <c r="K52" s="2">
+        <f>SUM(E52:J52)</f>
         <v>3341.23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2">
-        <v>999</v>
-      </c>
-      <c r="F45" s="2">
-        <v>105.44</v>
-      </c>
-      <c r="G45" s="2">
-        <v>138.05000000000001</v>
-      </c>
-      <c r="H45" s="2">
-        <v>999</v>
-      </c>
-      <c r="I45" s="2">
-        <v>999</v>
-      </c>
-      <c r="J45" s="5">
-        <v>125.4</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" ref="K45:K48" si="4">SUM(E45:J45)</f>
-        <v>3365.89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="D46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="2">
-        <v>426.4</v>
-      </c>
-      <c r="G46" s="2">
-        <v>511.2</v>
-      </c>
-      <c r="J46" s="5">
-        <v>448.31</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="4"/>
-        <v>1385.9099999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="D47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="2">
-        <v>159</v>
-      </c>
-      <c r="G47" s="2">
-        <v>158</v>
-      </c>
-      <c r="J47" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="7" customFormat="1">
-      <c r="B49" s="9"/>
-      <c r="E49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2">
-        <v>177.23</v>
-      </c>
-      <c r="F50" s="2">
-        <v>97.69</v>
-      </c>
-      <c r="G50" s="2">
-        <v>178.42</v>
-      </c>
-      <c r="H50" s="2">
-        <v>267.26</v>
-      </c>
-      <c r="I50" s="2">
-        <v>185.52</v>
-      </c>
-      <c r="J50" s="5">
-        <v>179.08</v>
-      </c>
-      <c r="K50" s="2">
-        <f>SUM(E50:J50)</f>
-        <v>1085.1999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="D51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="2">
-        <v>171.38</v>
-      </c>
-      <c r="F51" s="2">
-        <v>114.61</v>
-      </c>
-      <c r="G51" s="2">
-        <v>162.74</v>
-      </c>
-      <c r="H51" s="2">
-        <v>157.69999999999999</v>
-      </c>
-      <c r="I51" s="2">
-        <v>135.27000000000001</v>
-      </c>
-      <c r="J51" s="5">
-        <v>146.63999999999999</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" ref="K51:K54" si="5">SUM(E51:J51)</f>
-        <v>888.34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2">
-        <v>622.65</v>
-      </c>
-      <c r="F52" s="2">
-        <v>441.9</v>
-      </c>
-      <c r="G52" s="2">
-        <v>578.86</v>
-      </c>
-      <c r="H52" s="2">
-        <v>445.31</v>
-      </c>
-      <c r="I52" s="2">
-        <v>435.58</v>
-      </c>
-      <c r="J52" s="5">
-        <v>499.15</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" si="5"/>
-        <v>3023.45</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="D53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2">
-        <v>120</v>
+        <v>999</v>
       </c>
       <c r="F53" s="2">
-        <v>120</v>
+        <v>105.44</v>
       </c>
       <c r="G53" s="2">
-        <v>118</v>
+        <v>138.05000000000001</v>
       </c>
       <c r="H53" s="2">
-        <v>123</v>
+        <v>999</v>
       </c>
       <c r="I53" s="2">
-        <v>120</v>
+        <v>999</v>
       </c>
       <c r="J53" s="5">
-        <v>120</v>
+        <v>125.4</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" ref="K53:K56" si="9">SUM(E53:J53)</f>
+        <v>3365.89</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2">
+        <v>426.4</v>
+      </c>
+      <c r="G54" s="2">
+        <v>511.2</v>
+      </c>
+      <c r="J54" s="5">
+        <v>448.31</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="9"/>
+        <v>1385.9099999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2">
+        <v>159</v>
+      </c>
+      <c r="G55" s="2">
+        <v>158</v>
+      </c>
+      <c r="J55" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="7" customFormat="1">
+      <c r="B57" s="9"/>
+      <c r="E57" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="2">
-        <v>144.86000000000001</v>
-      </c>
-      <c r="F56" s="2">
-        <v>81.569999999999993</v>
-      </c>
-      <c r="G56" s="2">
-        <v>144.61000000000001</v>
-      </c>
-      <c r="H56" s="2">
-        <v>214.85</v>
-      </c>
-      <c r="I56" s="2">
-        <v>149.6</v>
-      </c>
-      <c r="J56" s="5">
-        <v>144.77000000000001</v>
-      </c>
-      <c r="K56" s="2">
-        <f>SUM(E56:J56)</f>
-        <v>880.26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="D57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2">
-        <v>170.77</v>
-      </c>
-      <c r="F57" s="15">
-        <v>182.09</v>
-      </c>
-      <c r="G57" s="2">
-        <v>138.69</v>
-      </c>
-      <c r="H57" s="2">
-        <v>152.03</v>
-      </c>
-      <c r="I57" s="2">
-        <v>121.76</v>
-      </c>
-      <c r="J57" s="5">
-        <v>123.67</v>
-      </c>
-      <c r="K57" s="2">
-        <f t="shared" ref="K57:K60" si="6">SUM(E57:J57)</f>
-        <v>889.01</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="D58" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E58" s="2">
-        <v>659.32</v>
+        <v>177.23</v>
       </c>
       <c r="F58" s="2">
-        <v>792.34</v>
+        <v>97.69</v>
       </c>
       <c r="G58" s="2">
-        <v>502.43</v>
+        <v>178.42</v>
       </c>
       <c r="H58" s="2">
-        <v>481.75</v>
+        <v>267.26</v>
       </c>
       <c r="I58" s="2">
-        <v>413.37</v>
+        <v>185.52</v>
       </c>
       <c r="J58" s="5">
-        <v>428.64</v>
+        <v>179.08</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="6"/>
-        <v>3277.85</v>
+        <f>SUM(E58:J58)</f>
+        <v>1085.1999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="D59" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2">
-        <v>147</v>
+        <v>171.38</v>
       </c>
       <c r="F59" s="2">
-        <v>148</v>
+        <v>114.61</v>
       </c>
       <c r="G59" s="2">
-        <v>147</v>
+        <v>162.74</v>
       </c>
       <c r="H59" s="2">
-        <v>153</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="I59" s="2">
-        <v>148</v>
+        <v>135.27000000000001</v>
       </c>
       <c r="J59" s="5">
-        <v>149</v>
+        <v>146.63999999999999</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" ref="K59:K62" si="10">SUM(E59:J59)</f>
+        <v>888.34</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="D60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2">
+        <v>622.65</v>
+      </c>
+      <c r="F60" s="2">
+        <v>441.9</v>
+      </c>
+      <c r="G60" s="2">
+        <v>578.86</v>
+      </c>
+      <c r="H60" s="2">
+        <v>445.31</v>
+      </c>
+      <c r="I60" s="2">
+        <v>435.58</v>
+      </c>
+      <c r="J60" s="5">
+        <v>499.15</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="10"/>
+        <v>3023.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2">
+        <v>120</v>
+      </c>
+      <c r="F61" s="2">
+        <v>120</v>
+      </c>
+      <c r="G61" s="2">
+        <v>118</v>
+      </c>
+      <c r="H61" s="2">
+        <v>123</v>
+      </c>
+      <c r="I61" s="2">
+        <v>120</v>
+      </c>
+      <c r="J61" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="F61" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="2">
-        <v>147.96</v>
-      </c>
-      <c r="F62" s="2">
-        <v>999</v>
-      </c>
-      <c r="J62" s="5">
-        <v>144.84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="D63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="2">
-        <v>240.61</v>
-      </c>
-      <c r="F63" s="2">
-        <v>999</v>
-      </c>
-      <c r="J63" s="5">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E64" s="2">
-        <v>997.74</v>
+        <v>144.86000000000001</v>
+      </c>
+      <c r="F64" s="2">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="G64" s="2">
+        <v>144.61000000000001</v>
+      </c>
+      <c r="H64" s="2">
+        <v>214.85</v>
+      </c>
+      <c r="I64" s="2">
+        <v>149.6</v>
       </c>
       <c r="J64" s="5">
-        <v>427.74</v>
+        <v>144.77000000000001</v>
+      </c>
+      <c r="K64" s="2">
+        <f>SUM(E64:J64)</f>
+        <v>880.26</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2">
-        <v>146</v>
+        <v>170.77</v>
+      </c>
+      <c r="F65" s="15">
+        <v>182.09</v>
+      </c>
+      <c r="G65" s="2">
+        <v>138.69</v>
+      </c>
+      <c r="H65" s="2">
+        <v>152.03</v>
+      </c>
+      <c r="I65" s="2">
+        <v>121.76</v>
       </c>
       <c r="J65" s="5">
-        <v>149</v>
+        <v>123.67</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" ref="K65:K68" si="11">SUM(E65:J65)</f>
+        <v>889.01</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2">
+        <v>659.32</v>
+      </c>
+      <c r="F66" s="2">
+        <v>792.34</v>
+      </c>
+      <c r="G66" s="2">
+        <v>502.43</v>
+      </c>
+      <c r="H66" s="2">
+        <v>481.75</v>
+      </c>
+      <c r="I66" s="2">
+        <v>413.37</v>
+      </c>
+      <c r="J66" s="5">
+        <v>428.64</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="11"/>
+        <v>3277.85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="2">
+        <v>147</v>
+      </c>
+      <c r="F67" s="2">
+        <v>148</v>
+      </c>
+      <c r="G67" s="2">
+        <v>147</v>
+      </c>
+      <c r="H67" s="2">
+        <v>153</v>
+      </c>
+      <c r="I67" s="2">
+        <v>148</v>
+      </c>
+      <c r="J67" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="D68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="E67" s="2" t="s">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="F69" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="3" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="2">
-        <v>144.76</v>
-      </c>
-      <c r="F68" s="2">
-        <v>78.8</v>
-      </c>
-      <c r="G68" s="2">
-        <v>144.6</v>
-      </c>
-      <c r="H68" s="2">
-        <v>214.88</v>
-      </c>
-      <c r="I68" s="2">
-        <v>149.54</v>
-      </c>
-      <c r="J68" s="5">
-        <v>144.72</v>
-      </c>
-      <c r="K68" s="2">
-        <f>SUM(E68:J68)</f>
-        <v>877.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="D69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="2">
-        <v>168.73</v>
-      </c>
-      <c r="F69" s="2">
-        <v>105.24</v>
-      </c>
-      <c r="G69" s="2">
-        <v>138.63999999999999</v>
-      </c>
-      <c r="H69" s="2">
-        <v>152.03</v>
-      </c>
-      <c r="I69" s="2">
-        <v>120.64</v>
-      </c>
-      <c r="J69" s="5">
-        <v>122.27</v>
-      </c>
-      <c r="K69" s="2">
-        <f t="shared" ref="K69:K72" si="7">SUM(E69:J69)</f>
-        <v>807.55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="D70" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E70" s="2">
-        <v>649.42999999999995</v>
+        <v>147.96</v>
       </c>
       <c r="F70" s="2">
-        <v>419.1</v>
-      </c>
-      <c r="G70" s="2">
-        <v>502.19</v>
-      </c>
-      <c r="H70" s="2">
-        <v>481.71</v>
-      </c>
-      <c r="I70" s="2">
-        <v>407.96</v>
+        <v>999</v>
       </c>
       <c r="J70" s="5">
-        <v>421.82</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="7"/>
-        <v>2882.21</v>
+        <v>144.84</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="D71" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="2">
-        <v>147</v>
+        <v>240.61</v>
       </c>
       <c r="F71" s="2">
-        <v>148</v>
-      </c>
-      <c r="G71" s="2">
-        <v>147</v>
-      </c>
-      <c r="H71" s="2">
-        <v>153</v>
-      </c>
-      <c r="I71" s="2">
-        <v>148</v>
+        <v>999</v>
       </c>
       <c r="J71" s="5">
-        <v>149</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2">
+        <v>997.74</v>
+      </c>
+      <c r="J72" s="5">
+        <v>427.74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="2">
+        <v>146</v>
+      </c>
+      <c r="J73" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="D74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="2">
-        <v>0</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0</v>
-      </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E74" s="2">
-        <v>135.66</v>
-      </c>
-      <c r="F74" s="2">
-        <v>72.239999999999995</v>
-      </c>
-      <c r="G74" s="2">
-        <v>132.25</v>
-      </c>
-      <c r="H74" s="2">
-        <v>196.35</v>
-      </c>
-      <c r="I74" s="2">
-        <v>138.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="J74" s="5">
-        <v>133.18</v>
-      </c>
-      <c r="K74" s="2">
-        <f>SUM(E74:J74)</f>
-        <v>808.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="15">
-        <v>227.04</v>
-      </c>
-      <c r="F75" s="2">
-        <v>103.32</v>
-      </c>
-      <c r="G75" s="2">
-        <v>135.24</v>
-      </c>
-      <c r="H75" s="2">
-        <v>152.88999999999999</v>
-      </c>
-      <c r="I75" s="15">
-        <v>145.34</v>
-      </c>
-      <c r="J75" s="5">
-        <v>125.77</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" ref="K75:K78" si="8">SUM(E75:J75)</f>
-        <v>889.6</v>
+      <c r="E75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E76" s="2">
-        <v>946.32</v>
+        <v>144.76</v>
       </c>
       <c r="F76" s="2">
-        <v>417.75</v>
+        <v>78.8</v>
       </c>
       <c r="G76" s="2">
-        <v>500.68</v>
+        <v>144.6</v>
       </c>
       <c r="H76" s="2">
-        <v>508.62</v>
+        <v>214.88</v>
       </c>
       <c r="I76" s="2">
-        <v>542.70000000000005</v>
+        <v>149.54</v>
       </c>
       <c r="J76" s="5">
-        <v>453.12</v>
+        <v>144.72</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" si="8"/>
-        <v>3369.1900000000005</v>
+        <f>SUM(E76:J76)</f>
+        <v>877.3</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="D77" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2">
-        <v>160</v>
+        <v>168.73</v>
       </c>
       <c r="F77" s="2">
-        <v>162</v>
+        <v>105.24</v>
       </c>
       <c r="G77" s="2">
-        <v>161</v>
+        <v>138.63999999999999</v>
       </c>
       <c r="H77" s="2">
-        <v>167</v>
+        <v>152.03</v>
       </c>
       <c r="I77" s="2">
-        <v>161</v>
+        <v>120.64</v>
       </c>
       <c r="J77" s="5">
-        <v>163</v>
+        <v>122.27</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" ref="K77:K80" si="12">SUM(E77:J77)</f>
+        <v>807.55</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="D78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2">
+        <v>649.42999999999995</v>
+      </c>
+      <c r="F78" s="2">
+        <v>419.1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>502.19</v>
+      </c>
+      <c r="H78" s="2">
+        <v>481.71</v>
+      </c>
+      <c r="I78" s="2">
+        <v>407.96</v>
+      </c>
+      <c r="J78" s="5">
+        <v>421.82</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="12"/>
+        <v>2882.21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2">
+        <v>147</v>
+      </c>
+      <c r="F79" s="2">
+        <v>148</v>
+      </c>
+      <c r="G79" s="2">
+        <v>147</v>
+      </c>
+      <c r="H79" s="2">
+        <v>153</v>
+      </c>
+      <c r="I79" s="2">
+        <v>148</v>
+      </c>
+      <c r="J79" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="2">
-        <v>0</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0</v>
-      </c>
-      <c r="G78" s="2">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" s="5">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="28.8">
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2">
+        <v>135.66</v>
+      </c>
+      <c r="F82" s="2">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="G82" s="2">
+        <v>132.25</v>
+      </c>
+      <c r="H82" s="2">
+        <v>196.35</v>
+      </c>
+      <c r="I82" s="2">
+        <v>138.33000000000001</v>
+      </c>
+      <c r="J82" s="5">
+        <v>133.18</v>
+      </c>
+      <c r="K82" s="2">
+        <f>SUM(E82:J82)</f>
+        <v>808.01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="15">
+        <v>227.04</v>
+      </c>
+      <c r="F83" s="2">
+        <v>103.32</v>
+      </c>
+      <c r="G83" s="2">
+        <v>135.24</v>
+      </c>
+      <c r="H83" s="2">
+        <v>152.88999999999999</v>
+      </c>
+      <c r="I83" s="15">
+        <v>145.34</v>
+      </c>
+      <c r="J83" s="5">
+        <v>125.77</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" ref="K83:K86" si="13">SUM(E83:J83)</f>
+        <v>889.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="2">
+        <v>946.32</v>
+      </c>
+      <c r="F84" s="2">
+        <v>417.75</v>
+      </c>
+      <c r="G84" s="2">
+        <v>500.68</v>
+      </c>
+      <c r="H84" s="2">
+        <v>508.62</v>
+      </c>
+      <c r="I84" s="2">
+        <v>542.70000000000005</v>
+      </c>
+      <c r="J84" s="5">
+        <v>453.12</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="13"/>
+        <v>3369.1900000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2">
+        <v>160</v>
+      </c>
+      <c r="F85" s="2">
+        <v>162</v>
+      </c>
+      <c r="G85" s="2">
+        <v>161</v>
+      </c>
+      <c r="H85" s="2">
+        <v>167</v>
+      </c>
+      <c r="I85" s="2">
+        <v>161</v>
+      </c>
+      <c r="J85" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="28.8">
+      <c r="E87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="7" t="s">
+    <row r="88" spans="1:11">
+      <c r="A88" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E88" s="2">
         <v>999</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F88" s="2">
         <v>72.73</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H88" s="2">
         <v>999</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I88" s="2">
         <v>999</v>
       </c>
-      <c r="K80" s="2">
-        <f>SUM(E80:J80)</f>
+      <c r="K88" s="2">
+        <f>SUM(E88:J88)</f>
         <v>3069.73</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="7" t="s">
+    <row r="89" spans="1:11">
+      <c r="A89" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E89" s="2">
         <v>999</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F89" s="2">
         <v>106.4</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H89" s="2">
         <v>999</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I89" s="2">
         <v>999</v>
       </c>
-      <c r="K81" s="2">
-        <f t="shared" ref="K81:K84" si="9">SUM(E81:J81)</f>
+      <c r="K89" s="2">
+        <f t="shared" ref="K89:K92" si="14">SUM(E89:J89)</f>
         <v>3103.4</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="7" t="s">
+    <row r="90" spans="1:11">
+      <c r="A90" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F90" s="2">
         <v>432.69</v>
       </c>
-      <c r="K82" s="2">
-        <f t="shared" si="9"/>
+      <c r="K90" s="2">
+        <f t="shared" si="14"/>
         <v>432.69</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
-      <c r="D83" s="2" t="s">
+    <row r="91" spans="1:11">
+      <c r="D91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F91" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
-      <c r="D84" s="2" t="s">
+    <row r="92" spans="1:11">
+      <c r="D92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="2">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="7" t="s">
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E94" s="2">
         <v>144.62</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F94" s="2">
         <v>78.709999999999994</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G94" s="2">
         <v>144.44</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H94" s="2">
         <v>3</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I94" s="2">
         <v>149.51</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J94" s="5">
         <v>144.72</v>
       </c>
-      <c r="K86" s="2">
-        <f>SUM(E86:J86)</f>
+      <c r="K94" s="2">
+        <f>SUM(E94:J94)</f>
         <v>665</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="7" t="s">
+    <row r="95" spans="1:11">
+      <c r="A95" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E95" s="2">
         <v>166.8</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F95" s="2">
         <v>103.67</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G95" s="2">
         <v>136.87</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H95" s="2">
         <v>149.47999999999999</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I95" s="2">
         <v>119.86</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J95" s="16">
         <v>122.31</v>
       </c>
-      <c r="K87" s="16">
-        <f t="shared" ref="K87:K90" si="10">SUM(E87:J87)</f>
+      <c r="K95" s="16">
+        <f t="shared" ref="K95:K98" si="15">SUM(E95:J95)</f>
         <v>798.99</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="7" t="s">
+    <row r="96" spans="1:11">
+      <c r="A96" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E96" s="2">
         <v>640.16999999999996</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F96" s="2">
         <v>411.56</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G96" s="2">
         <v>493.74</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H96" s="2">
         <v>469.39</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I96" s="2">
         <v>404.18</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J96" s="5">
         <v>422.04</v>
       </c>
-      <c r="K88" s="2">
-        <f t="shared" si="10"/>
+      <c r="K96" s="2">
+        <f t="shared" si="15"/>
         <v>2841.08</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
-      <c r="D89" s="2" t="s">
+    <row r="97" spans="1:13">
+      <c r="D97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E97" s="2">
         <v>147</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F97" s="2">
         <v>148</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G97" s="2">
         <v>147</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H97" s="2">
         <v>153</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I97" s="2">
         <v>148</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J97" s="5">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="D90" s="2" t="s">
+    <row r="98" spans="1:13">
+      <c r="D98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2">
-        <v>0</v>
-      </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2">
-        <v>0</v>
-      </c>
-      <c r="J90" s="5">
-        <v>0</v>
-      </c>
-      <c r="K90" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="G91" s="7" t="s">
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="G99" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
-      <c r="E92" s="7" t="s">
+    <row r="100" spans="1:13">
+      <c r="E100" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="7" t="s">
+    <row r="101" spans="1:13">
+      <c r="A101" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E101" s="2">
         <v>640.16803000000004</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F101" s="2">
         <v>411.52600100000001</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G101" s="2">
         <v>493.71798699999999</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H101" s="2">
         <v>469.38000499999998</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I101" s="2">
         <v>404.16400099999998</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J101" s="5">
         <v>404.15701300000001</v>
       </c>
-      <c r="K93" s="2">
-        <f t="shared" ref="K93:K94" si="11">SUM(E93:J93)</f>
+      <c r="K101" s="2">
+        <f t="shared" ref="K101:K102" si="16">SUM(E101:J101)</f>
         <v>2823.1130370000001</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="7" t="s">
+    <row r="102" spans="1:13">
+      <c r="A102" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E102" s="2">
         <v>601.46046200000001</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F102" s="2">
         <v>379.44525700000003</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G102" s="2">
         <v>461.16140100000001</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H102" s="2">
         <v>440.03239400000001</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I102" s="2">
         <v>382.63436400000001</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J102" s="5">
         <v>382.62671599999999</v>
       </c>
-      <c r="K94" s="2">
-        <f t="shared" si="11"/>
+      <c r="K102" s="2">
+        <f t="shared" si="16"/>
         <v>2647.3605939999998</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
-      <c r="A95" t="s">
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
         <v>51</v>
       </c>
-      <c r="E95" s="17">
-        <f>E94/E93</f>
+      <c r="E103" s="17">
+        <f>E102/E101</f>
         <v>0.93953529981808048</v>
       </c>
-      <c r="F95" s="17">
-        <f t="shared" ref="F95:K95" si="12">F94/F93</f>
+      <c r="F103" s="17">
+        <f t="shared" ref="F103:K103" si="17">F102/F101</f>
         <v>0.92204442994599511</v>
       </c>
-      <c r="G95" s="17">
-        <f t="shared" si="12"/>
+      <c r="G103" s="17">
+        <f t="shared" si="17"/>
         <v>0.93405833520908366</v>
       </c>
-      <c r="H95" s="17">
-        <f t="shared" si="12"/>
+      <c r="H103" s="17">
+        <f t="shared" si="17"/>
         <v>0.93747579639656786</v>
       </c>
-      <c r="I95" s="17">
-        <f t="shared" si="12"/>
+      <c r="I103" s="17">
+        <f t="shared" si="17"/>
         <v>0.94673044371411008</v>
       </c>
-      <c r="J95" s="17">
-        <f t="shared" si="12"/>
+      <c r="J103" s="17">
+        <f t="shared" si="17"/>
         <v>0.9467278896382777</v>
       </c>
-      <c r="K95" s="17">
-        <f t="shared" si="12"/>
+      <c r="K103" s="17">
+        <f t="shared" si="17"/>
         <v>0.93774516262842778</v>
       </c>
-      <c r="L95" s="23"/>
-      <c r="M95" s="11">
+      <c r="L103" s="23"/>
+      <c r="M103" s="11">
         <v>1.06638779900189</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
-      <c r="A96" t="s">
+    <row r="104" spans="1:13">
+      <c r="A104" t="s">
         <v>52</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E96" s="17">
-        <f t="shared" ref="E96:K96" si="13">1-E95</f>
+      <c r="E104" s="17">
+        <f t="shared" ref="E104:K104" si="18">1-E103</f>
         <v>6.0464700181919517E-2</v>
       </c>
-      <c r="F96" s="17">
-        <f t="shared" si="13"/>
+      <c r="F104" s="17">
+        <f t="shared" si="18"/>
         <v>7.7955570054004886E-2</v>
       </c>
-      <c r="G96" s="17">
-        <f t="shared" si="13"/>
+      <c r="G104" s="17">
+        <f t="shared" si="18"/>
         <v>6.5941664790916343E-2</v>
       </c>
-      <c r="H96" s="17">
-        <f t="shared" si="13"/>
+      <c r="H104" s="17">
+        <f t="shared" si="18"/>
         <v>6.2524203603432138E-2</v>
       </c>
-      <c r="I96" s="17">
-        <f t="shared" si="13"/>
+      <c r="I104" s="17">
+        <f t="shared" si="18"/>
         <v>5.3269556285889919E-2</v>
       </c>
-      <c r="J96" s="17">
-        <f t="shared" si="13"/>
+      <c r="J104" s="17">
+        <f t="shared" si="18"/>
         <v>5.3272110361722302E-2</v>
       </c>
-      <c r="K96" s="17">
-        <f t="shared" si="13"/>
+      <c r="K104" s="17">
+        <f t="shared" si="18"/>
         <v>6.2254837371572225E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="7" t="s">
+    <row r="106" spans="1:13">
+      <c r="A106" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B106" s="4">
         <v>43540</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C106" s="3">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E106" s="2">
         <v>144.62</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F106" s="2">
         <v>78.709999999999994</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G106" s="2">
         <v>144.44</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H106" s="2">
         <v>214.77</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I106" s="2">
         <v>149.51</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J106" s="5">
         <v>144.72</v>
       </c>
-      <c r="K98" s="2">
-        <f>SUM(E98:J98)</f>
+      <c r="K106" s="2">
+        <f>SUM(E106:J106)</f>
         <v>876.77</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="7" t="s">
+    <row r="107" spans="1:13">
+      <c r="A107" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E107" s="2">
         <v>166.8</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F107" s="2">
         <v>103.67</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G107" s="2">
         <v>136.87</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H107" s="2">
         <v>149.47999999999999</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I107" s="2">
         <v>119.86</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J107" s="5">
         <v>122.56</v>
       </c>
-      <c r="K99" s="2">
-        <f t="shared" ref="K99:K104" si="14">SUM(E99:J99)</f>
+      <c r="K107" s="2">
+        <f t="shared" ref="K107:K112" si="19">SUM(E107:J107)</f>
         <v>799.24</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
-      <c r="D100" s="2" t="s">
+    <row r="108" spans="1:13">
+      <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E108" s="2">
         <v>640.16999999999996</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F108" s="2">
         <v>411.96</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G108" s="2">
         <v>493.74</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H108" s="2">
         <v>469.39</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I108" s="2">
         <v>404.16</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J108" s="5">
         <v>423.24</v>
       </c>
-      <c r="K100" s="2">
-        <f t="shared" si="14"/>
+      <c r="K108" s="2">
+        <f t="shared" si="19"/>
         <v>2842.66</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
-      <c r="D101" s="2" t="s">
+    <row r="109" spans="1:13">
+      <c r="D109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E109" s="2">
         <v>147</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F109" s="2">
         <v>148</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G109" s="2">
         <v>147</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H109" s="2">
         <v>153</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I109" s="2">
         <v>148</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J109" s="5">
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
-      <c r="D102" s="2" t="s">
+    <row r="110" spans="1:13">
+      <c r="D110" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="2">
-        <v>0</v>
-      </c>
-      <c r="F102" s="2">
-        <v>0</v>
-      </c>
-      <c r="G102" s="2">
-        <v>0</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0</v>
-      </c>
-      <c r="J102" s="5">
-        <v>0</v>
-      </c>
-      <c r="K102" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="C103" s="7" t="s">
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="C111" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E111" s="2">
         <v>641.39000099999998</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F111" s="2">
         <v>404.67472099999998</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G111" s="2">
         <v>491.80260500000003</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H111" s="2">
         <v>469.25172199999997</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I111" s="2">
         <v>408.03661699999998</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J111" s="5">
         <v>424.901972</v>
       </c>
-      <c r="K103" s="2">
-        <f t="shared" si="14"/>
+      <c r="K111" s="2">
+        <f t="shared" si="19"/>
         <v>2840.0576380000002</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
-      <c r="C104" s="7" t="s">
+    <row r="112" spans="1:13">
+      <c r="C112" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E112" s="2">
         <v>137.76</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F112" s="2">
         <v>76.34</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G112" s="2">
         <v>137.72</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H112" s="2">
         <v>207.92</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I112" s="2">
         <v>142.66</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J112" s="5">
         <v>138.12</v>
       </c>
-      <c r="K104" s="2">
-        <f t="shared" si="14"/>
+      <c r="K112" s="2">
+        <f t="shared" si="19"/>
         <v>840.52</v>
       </c>
-      <c r="L104" s="2">
-        <f>K98/K104*0.02</f>
+      <c r="L112" s="2">
+        <f>K106/K112*0.02</f>
         <v>2.0862561271593773E-2</v>
       </c>
-      <c r="M104" s="11">
+      <c r="M112" s="11">
         <v>2.0862561271593801E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
-      <c r="C105" s="2" t="s">
+    <row r="113" spans="1:13">
+      <c r="C113" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E105" s="24">
-        <f>E103/E100-1</f>
-        <v>1.9057453488917631E-3</v>
-      </c>
-      <c r="F105" s="24">
-        <f t="shared" ref="F105:K105" si="15">F103/F100-1</f>
-        <v>-1.7684432954655827E-2</v>
-      </c>
-      <c r="G105" s="24">
-        <f t="shared" si="15"/>
-        <v>-3.9239174464292814E-3</v>
-      </c>
-      <c r="H105" s="24">
-        <f t="shared" si="15"/>
-        <v>-2.9459085195682189E-4</v>
-      </c>
-      <c r="I105" s="24">
-        <f t="shared" si="15"/>
-        <v>9.5917879057798583E-3</v>
-      </c>
-      <c r="J105" s="24">
-        <f t="shared" si="15"/>
-        <v>3.9267838578584957E-3</v>
-      </c>
-      <c r="K105" s="24">
-        <f t="shared" si="15"/>
-        <v>-9.1546720325319519E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="C106" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="24">
-        <f t="shared" ref="E106:K106" si="16">E104/E98-1</f>
-        <v>-4.7434656340755166E-2</v>
-      </c>
-      <c r="F106" s="24">
-        <f t="shared" si="16"/>
-        <v>-3.0110532333883722E-2</v>
-      </c>
-      <c r="G106" s="24">
-        <f t="shared" si="16"/>
-        <v>-4.6524508446413759E-2</v>
-      </c>
-      <c r="H106" s="24">
-        <f t="shared" si="16"/>
-        <v>-3.189458490478192E-2</v>
-      </c>
-      <c r="I106" s="24">
-        <f t="shared" si="16"/>
-        <v>-4.5816333355628402E-2</v>
-      </c>
-      <c r="J106" s="24">
-        <f t="shared" si="16"/>
-        <v>-4.5605306799336609E-2</v>
-      </c>
-      <c r="K106" s="24">
-        <f t="shared" si="16"/>
-        <v>-4.1344936528393994E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E108" s="2">
-        <v>143.74304699999999</v>
-      </c>
-      <c r="F108" s="2">
-        <v>79.632396</v>
-      </c>
-      <c r="G108" s="2">
-        <v>143.59700900000001</v>
-      </c>
-      <c r="H108" s="2">
-        <v>216.928912</v>
-      </c>
-      <c r="I108" s="2">
-        <v>149.06299999999999</v>
-      </c>
-      <c r="J108" s="5">
-        <v>143.805635</v>
-      </c>
-      <c r="K108" s="2">
-        <f t="shared" ref="K108" si="17">SUM(E108:J108)</f>
-        <v>876.76999899999987</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E109" s="24">
-        <f>E108/E98-1</f>
-        <v>-6.0638431752179089E-3</v>
-      </c>
-      <c r="F109" s="24">
-        <f t="shared" ref="F109:K109" si="18">F108/F98-1</f>
-        <v>1.1718917545419982E-2</v>
-      </c>
-      <c r="G109" s="24">
-        <f t="shared" si="18"/>
-        <v>-5.8362711160342418E-3</v>
-      </c>
-      <c r="H109" s="24">
-        <f t="shared" si="18"/>
-        <v>1.0052204684080523E-2</v>
-      </c>
-      <c r="I109" s="24">
-        <f t="shared" si="18"/>
-        <v>-2.9897665707979693E-3</v>
-      </c>
-      <c r="J109" s="24">
-        <f t="shared" si="18"/>
-        <v>-6.3181661138751455E-3</v>
-      </c>
-      <c r="K109" s="24">
-        <f t="shared" si="18"/>
-        <v>-1.1405500988104222E-9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="2">
-        <v>144.62</v>
-      </c>
-      <c r="F111" s="2">
-        <v>78.709999999999994</v>
-      </c>
-      <c r="G111" s="2">
-        <v>144.44</v>
-      </c>
-      <c r="H111" s="2">
-        <v>214.77</v>
-      </c>
-      <c r="I111" s="2">
-        <v>149.51</v>
-      </c>
-      <c r="J111" s="5">
-        <v>144.72</v>
-      </c>
-      <c r="K111" s="2">
-        <f>SUM(E111:J111)</f>
-        <v>876.77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="2">
-        <v>640.16999999999996</v>
-      </c>
-      <c r="F112" s="2">
-        <v>411.96</v>
-      </c>
-      <c r="G112" s="2">
-        <v>493.74</v>
-      </c>
-      <c r="H112" s="2">
-        <v>469.39</v>
-      </c>
-      <c r="I112" s="2">
-        <v>404.16</v>
-      </c>
-      <c r="J112" s="5">
-        <v>423.24</v>
-      </c>
-      <c r="K112" s="2">
-        <f t="shared" ref="K112:K114" si="19">SUM(E112:J112)</f>
-        <v>2842.66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="C113" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="2">
-        <v>481.35565100000002</v>
-      </c>
-      <c r="F113" s="2">
-        <v>259.34051299999999</v>
-      </c>
-      <c r="G113" s="2">
-        <v>330.502115</v>
-      </c>
-      <c r="H113" s="2">
-        <v>317.56969099999998</v>
-      </c>
-      <c r="I113" s="2">
-        <v>278.62517700000001</v>
-      </c>
-      <c r="J113" s="5">
-        <v>283.99739099999999</v>
-      </c>
-      <c r="K113" s="2">
-        <f t="shared" si="19"/>
-        <v>1951.3905379999997</v>
-      </c>
-      <c r="L113" s="2">
-        <f>K112/K113</f>
-        <v>1.4567355660715007</v>
-      </c>
-      <c r="M113" s="11">
-        <v>1.4567355660715</v>
+      <c r="E113" s="24">
+        <f>E111/E108-1</f>
+        <v>1.9057453488917631E-3</v>
+      </c>
+      <c r="F113" s="24">
+        <f t="shared" ref="F113:K113" si="20">F111/F108-1</f>
+        <v>-1.7684432954655827E-2</v>
+      </c>
+      <c r="G113" s="24">
+        <f t="shared" si="20"/>
+        <v>-3.9239174464292814E-3</v>
+      </c>
+      <c r="H113" s="24">
+        <f t="shared" si="20"/>
+        <v>-2.9459085195682189E-4</v>
+      </c>
+      <c r="I113" s="24">
+        <f t="shared" si="20"/>
+        <v>9.5917879057798583E-3</v>
+      </c>
+      <c r="J113" s="24">
+        <f t="shared" si="20"/>
+        <v>3.9267838578584957E-3</v>
+      </c>
+      <c r="K113" s="24">
+        <f t="shared" si="20"/>
+        <v>-9.1546720325319519E-4</v>
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="C114" s="7" t="s">
-        <v>55</v>
+      <c r="C114" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E114" s="2">
-        <v>136.84</v>
-      </c>
-      <c r="F114" s="2">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="G114" s="2">
-        <v>136.62</v>
-      </c>
-      <c r="H114" s="2">
-        <v>207.04</v>
-      </c>
-      <c r="I114" s="2">
-        <v>141.9</v>
-      </c>
-      <c r="J114" s="5">
-        <v>137.12</v>
-      </c>
-      <c r="K114" s="2">
-        <f t="shared" si="19"/>
-        <v>834.92</v>
-      </c>
-      <c r="L114" s="2">
-        <f>K111/K114*0.02</f>
-        <v>2.1002491256647344E-2</v>
-      </c>
-      <c r="M114" s="11">
-        <v>2.1002491256647299E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="C115" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E115" s="24">
-        <f>E113/E100-1</f>
-        <v>-0.24808152365777836</v>
-      </c>
-      <c r="F115" s="24">
-        <f t="shared" ref="F115:K115" si="20">F113/F100-1</f>
-        <v>-0.37047161617632784</v>
-      </c>
-      <c r="G115" s="24">
-        <f t="shared" si="20"/>
-        <v>-0.33061507068497586</v>
-      </c>
-      <c r="H115" s="24">
-        <f t="shared" si="20"/>
-        <v>-0.32344172010481687</v>
-      </c>
-      <c r="I115" s="24">
-        <f t="shared" si="20"/>
-        <v>-0.31060674732779103</v>
-      </c>
-      <c r="J115" s="24">
-        <f t="shared" si="20"/>
-        <v>-0.32899208250637935</v>
-      </c>
-      <c r="K115" s="17">
-        <f t="shared" si="20"/>
-        <v>-0.31353361358727394</v>
+      <c r="E114" s="24">
+        <f t="shared" ref="E114:K114" si="21">E112/E106-1</f>
+        <v>-4.7434656340755166E-2</v>
+      </c>
+      <c r="F114" s="24">
+        <f t="shared" si="21"/>
+        <v>-3.0110532333883722E-2</v>
+      </c>
+      <c r="G114" s="24">
+        <f t="shared" si="21"/>
+        <v>-4.6524508446413759E-2</v>
+      </c>
+      <c r="H114" s="24">
+        <f t="shared" si="21"/>
+        <v>-3.189458490478192E-2</v>
+      </c>
+      <c r="I114" s="24">
+        <f t="shared" si="21"/>
+        <v>-4.5816333355628402E-2</v>
+      </c>
+      <c r="J114" s="24">
+        <f t="shared" si="21"/>
+        <v>-4.5605306799336609E-2</v>
+      </c>
+      <c r="K114" s="24">
+        <f t="shared" si="21"/>
+        <v>-4.1344936528393994E-2</v>
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="C116" s="2" t="s">
-        <v>57</v>
+      <c r="A116" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E116" s="24">
-        <f>E114/E98-1</f>
-        <v>-5.3796155441847571E-2</v>
-      </c>
-      <c r="F116" s="24">
-        <f t="shared" ref="F116:K116" si="21">F114/F98-1</f>
-        <v>-4.2053106339727919E-2</v>
-      </c>
-      <c r="G116" s="24">
-        <f t="shared" si="21"/>
-        <v>-5.414012738853502E-2</v>
-      </c>
-      <c r="H116" s="24">
-        <f t="shared" si="21"/>
-        <v>-3.5991991432695492E-2</v>
-      </c>
-      <c r="I116" s="24">
-        <f t="shared" si="21"/>
-        <v>-5.0899605377566659E-2</v>
-      </c>
-      <c r="J116" s="24">
-        <f t="shared" si="21"/>
-        <v>-5.2515201768933095E-2</v>
-      </c>
-      <c r="K116" s="24">
-        <f t="shared" si="21"/>
-        <v>-4.7732016378297604E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B118" s="4">
-        <v>43541</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1.3194444444444444E-2</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="E116" s="2">
+        <v>143.74304699999999</v>
+      </c>
+      <c r="F116" s="2">
+        <v>79.632396</v>
+      </c>
+      <c r="G116" s="2">
+        <v>143.59700900000001</v>
+      </c>
+      <c r="H116" s="2">
+        <v>216.928912</v>
+      </c>
+      <c r="I116" s="2">
+        <v>149.06299999999999</v>
+      </c>
+      <c r="J116" s="5">
+        <v>143.805635</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" ref="K116" si="22">SUM(E116:J116)</f>
+        <v>876.76999899999987</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" s="24">
+        <f>E116/E106-1</f>
+        <v>-6.0638431752179089E-3</v>
+      </c>
+      <c r="F117" s="24">
+        <f t="shared" ref="F117:K117" si="23">F116/F106-1</f>
+        <v>1.1718917545419982E-2</v>
+      </c>
+      <c r="G117" s="24">
+        <f t="shared" si="23"/>
+        <v>-5.8362711160342418E-3</v>
+      </c>
+      <c r="H117" s="24">
+        <f t="shared" si="23"/>
+        <v>1.0052204684080523E-2</v>
+      </c>
+      <c r="I117" s="24">
+        <f t="shared" si="23"/>
+        <v>-2.9897665707979693E-3</v>
+      </c>
+      <c r="J117" s="24">
+        <f t="shared" si="23"/>
+        <v>-6.3181661138751455E-3</v>
+      </c>
+      <c r="K117" s="24">
+        <f t="shared" si="23"/>
+        <v>-1.1405500988104222E-9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E119" s="2">
         <v>144.62</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F119" s="2">
         <v>78.709999999999994</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G119" s="2">
         <v>144.44</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H119" s="2">
         <v>214.77</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I119" s="2">
         <v>149.51</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J119" s="5">
         <v>144.72</v>
       </c>
-      <c r="K118" s="2">
-        <f>SUM(E118:J118)</f>
+      <c r="K119" s="2">
+        <f>SUM(E119:J119)</f>
         <v>876.77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="D119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="2">
-        <v>640.16999999999996</v>
-      </c>
-      <c r="F119" s="2">
-        <v>411.96</v>
-      </c>
-      <c r="G119" s="2">
-        <v>493.74</v>
-      </c>
-      <c r="H119" s="2">
-        <v>469.39</v>
-      </c>
-      <c r="I119" s="2">
-        <v>404.16</v>
-      </c>
-      <c r="J119" s="5">
-        <v>423.24</v>
-      </c>
-      <c r="K119" s="2">
-        <f t="shared" ref="K119:K121" si="22">SUM(E119:J119)</f>
-        <v>2842.66</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D120" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E120" s="2">
-        <v>701.20840199999998</v>
+        <v>640.16999999999996</v>
       </c>
       <c r="F120" s="2">
-        <v>378.19507900000002</v>
+        <v>411.96</v>
       </c>
       <c r="G120" s="2">
-        <v>481.4855</v>
+        <v>493.74</v>
       </c>
       <c r="H120" s="2">
-        <v>462.56964399999998</v>
+        <v>469.39</v>
       </c>
       <c r="I120" s="2">
-        <v>405.85133999999999</v>
+        <v>404.16</v>
       </c>
       <c r="J120" s="5">
-        <v>412.80246499999998</v>
+        <v>423.24</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="22"/>
-        <v>2842.1124300000001</v>
+        <f t="shared" ref="K120:K122" si="24">SUM(E120:J120)</f>
+        <v>2842.66</v>
       </c>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="C121" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" s="2">
+        <v>481.35565100000002</v>
+      </c>
+      <c r="F121" s="2">
+        <v>259.34051299999999</v>
+      </c>
+      <c r="G121" s="2">
+        <v>330.502115</v>
+      </c>
+      <c r="H121" s="2">
+        <v>317.56969099999998</v>
+      </c>
+      <c r="I121" s="2">
+        <v>278.62517700000001</v>
+      </c>
+      <c r="J121" s="5">
+        <v>283.99739099999999</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="24"/>
+        <v>1951.3905379999997</v>
+      </c>
+      <c r="L121" s="2">
+        <f>K120/K121</f>
+        <v>1.4567355660715007</v>
+      </c>
+      <c r="M121" s="11">
+        <v>1.4567355660715</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="C122" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E121" s="2">
-        <v>143.72004799999999</v>
-      </c>
-      <c r="F121" s="2">
-        <v>79.284403999999995</v>
-      </c>
-      <c r="G121" s="2">
-        <v>143.63603800000001</v>
-      </c>
-      <c r="H121" s="2">
-        <v>217.31277700000001</v>
-      </c>
-      <c r="I121" s="2">
-        <v>148.90766300000001</v>
-      </c>
-      <c r="J121" s="5">
-        <v>143.84606299999999</v>
-      </c>
-      <c r="K121" s="2">
-        <f t="shared" si="22"/>
-        <v>876.70699300000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E122" s="24">
-        <f>E120/E119-1</f>
-        <v>9.5347176531233924E-2</v>
-      </c>
-      <c r="F122" s="24">
-        <f t="shared" ref="F122:K122" si="23">F120/F119-1</f>
-        <v>-8.1961649189241537E-2</v>
-      </c>
-      <c r="G122" s="24">
-        <f t="shared" si="23"/>
-        <v>-2.4819743184672061E-2</v>
-      </c>
-      <c r="H122" s="24">
-        <f t="shared" si="23"/>
-        <v>-1.4530254159654032E-2</v>
-      </c>
-      <c r="I122" s="24">
-        <f t="shared" si="23"/>
-        <v>4.184827790973733E-3</v>
-      </c>
-      <c r="J122" s="24">
-        <f t="shared" si="23"/>
-        <v>-2.4661031566014624E-2</v>
-      </c>
-      <c r="K122" s="24">
-        <f t="shared" si="23"/>
-        <v>-1.9262592079238861E-4</v>
+      <c r="E122" s="2">
+        <v>136.84</v>
+      </c>
+      <c r="F122" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G122" s="2">
+        <v>136.62</v>
+      </c>
+      <c r="H122" s="2">
+        <v>207.04</v>
+      </c>
+      <c r="I122" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="J122" s="5">
+        <v>137.12</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" si="24"/>
+        <v>834.92</v>
+      </c>
+      <c r="L122" s="2">
+        <f>K119/K122*0.02</f>
+        <v>2.1002491256647344E-2</v>
+      </c>
+      <c r="M122" s="11">
+        <v>2.1002491256647299E-2</v>
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="C123" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="24">
+        <f>E121/E108-1</f>
+        <v>-0.24808152365777836</v>
+      </c>
+      <c r="F123" s="24">
+        <f t="shared" ref="F123:K123" si="25">F121/F108-1</f>
+        <v>-0.37047161617632784</v>
+      </c>
+      <c r="G123" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.33061507068497586</v>
+      </c>
+      <c r="H123" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.32344172010481687</v>
+      </c>
+      <c r="I123" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.31060674732779103</v>
+      </c>
+      <c r="J123" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.32899208250637935</v>
+      </c>
+      <c r="K123" s="17">
+        <f t="shared" si="25"/>
+        <v>-0.31353361358727394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="C124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E123" s="24">
-        <f>E121/E118-1</f>
+      <c r="E124" s="24">
+        <f>E122/E106-1</f>
+        <v>-5.3796155441847571E-2</v>
+      </c>
+      <c r="F124" s="24">
+        <f t="shared" ref="F124:K124" si="26">F122/F106-1</f>
+        <v>-4.2053106339727919E-2</v>
+      </c>
+      <c r="G124" s="24">
+        <f t="shared" si="26"/>
+        <v>-5.414012738853502E-2</v>
+      </c>
+      <c r="H124" s="24">
+        <f t="shared" si="26"/>
+        <v>-3.5991991432695492E-2</v>
+      </c>
+      <c r="I124" s="24">
+        <f t="shared" si="26"/>
+        <v>-5.0899605377566659E-2</v>
+      </c>
+      <c r="J124" s="24">
+        <f t="shared" si="26"/>
+        <v>-5.2515201768933095E-2</v>
+      </c>
+      <c r="K124" s="24">
+        <f t="shared" si="26"/>
+        <v>-4.7732016378297604E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126" s="4">
+        <v>43541</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="2">
+        <v>144.62</v>
+      </c>
+      <c r="F126" s="2">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G126" s="2">
+        <v>144.44</v>
+      </c>
+      <c r="H126" s="2">
+        <v>214.77</v>
+      </c>
+      <c r="I126" s="2">
+        <v>149.51</v>
+      </c>
+      <c r="J126" s="5">
+        <v>144.72</v>
+      </c>
+      <c r="K126" s="2">
+        <f>SUM(E126:J126)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="D127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="2">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F127" s="2">
+        <v>411.96</v>
+      </c>
+      <c r="G127" s="2">
+        <v>493.74</v>
+      </c>
+      <c r="H127" s="2">
+        <v>469.39</v>
+      </c>
+      <c r="I127" s="2">
+        <v>404.16</v>
+      </c>
+      <c r="J127" s="5">
+        <v>423.24</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" ref="K127:K129" si="27">SUM(E127:J127)</f>
+        <v>2842.66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="2">
+        <v>701.20840199999998</v>
+      </c>
+      <c r="F128" s="2">
+        <v>378.19507900000002</v>
+      </c>
+      <c r="G128" s="2">
+        <v>481.4855</v>
+      </c>
+      <c r="H128" s="2">
+        <v>462.56964399999998</v>
+      </c>
+      <c r="I128" s="2">
+        <v>405.85133999999999</v>
+      </c>
+      <c r="J128" s="5">
+        <v>412.80246499999998</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="27"/>
+        <v>2842.1124300000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" s="2">
+        <v>143.72004799999999</v>
+      </c>
+      <c r="F129" s="2">
+        <v>79.284403999999995</v>
+      </c>
+      <c r="G129" s="2">
+        <v>143.63603800000001</v>
+      </c>
+      <c r="H129" s="2">
+        <v>217.31277700000001</v>
+      </c>
+      <c r="I129" s="2">
+        <v>148.90766300000001</v>
+      </c>
+      <c r="J129" s="5">
+        <v>143.84606299999999</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="27"/>
+        <v>876.70699300000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" s="24">
+        <f>E128/E127-1</f>
+        <v>9.5347176531233924E-2</v>
+      </c>
+      <c r="F130" s="24">
+        <f t="shared" ref="F130:K130" si="28">F128/F127-1</f>
+        <v>-8.1961649189241537E-2</v>
+      </c>
+      <c r="G130" s="24">
+        <f t="shared" si="28"/>
+        <v>-2.4819743184672061E-2</v>
+      </c>
+      <c r="H130" s="24">
+        <f t="shared" si="28"/>
+        <v>-1.4530254159654032E-2</v>
+      </c>
+      <c r="I130" s="24">
+        <f t="shared" si="28"/>
+        <v>4.184827790973733E-3</v>
+      </c>
+      <c r="J130" s="24">
+        <f t="shared" si="28"/>
+        <v>-2.4661031566014624E-2</v>
+      </c>
+      <c r="K130" s="24">
+        <f t="shared" si="28"/>
+        <v>-1.9262592079238861E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E131" s="24">
+        <f>E129/E126-1</f>
         <v>-6.2228737380722876E-3</v>
       </c>
-      <c r="F123" s="24">
-        <f t="shared" ref="F123:K123" si="24">F121/F118-1</f>
+      <c r="F131" s="24">
+        <f t="shared" ref="F131:K131" si="29">F129/F126-1</f>
         <v>7.2977258289925739E-3</v>
       </c>
-      <c r="G123" s="24">
-        <f t="shared" si="24"/>
+      <c r="G131" s="24">
+        <f t="shared" si="29"/>
         <v>-5.5660620326778432E-3</v>
       </c>
-      <c r="H123" s="24">
-        <f t="shared" si="24"/>
+      <c r="H131" s="24">
+        <f t="shared" si="29"/>
         <v>1.1839535316850558E-2</v>
       </c>
-      <c r="I123" s="24">
-        <f t="shared" si="24"/>
+      <c r="I131" s="24">
+        <f t="shared" si="29"/>
         <v>-4.0287405524712661E-3</v>
       </c>
-      <c r="J123" s="24">
-        <f t="shared" si="24"/>
+      <c r="J131" s="24">
+        <f t="shared" si="29"/>
         <v>-6.0388128800442642E-3</v>
       </c>
-      <c r="K123" s="24">
-        <f t="shared" si="24"/>
+      <c r="K131" s="24">
+        <f t="shared" si="29"/>
         <v>-7.1862632161190376E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
-      <c r="D124" s="2" t="s">
+    <row r="132" spans="1:11">
+      <c r="D132" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E132" s="2">
         <v>312.705917</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F132" s="2">
         <v>311.34256599999998</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G132" s="2">
         <v>318.54494199999999</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H132" s="2">
         <v>301.00592999999998</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I132" s="2">
         <v>257.07948199999998</v>
       </c>
-      <c r="J124" s="5">
+      <c r="J132" s="5">
         <v>278.19708000000003</v>
       </c>
-      <c r="K124" s="2">
-        <f t="shared" ref="K124" si="25">SUM(E124:J124)</f>
+      <c r="K132" s="2">
+        <f t="shared" ref="K132" si="30">SUM(E132:J132)</f>
         <v>1778.8759169999998</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="D125" s="2" t="s">
+    <row r="133" spans="1:11">
+      <c r="D133" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="25">
-        <f>E124/E120</f>
+      <c r="E133" s="25">
+        <f>E132/E128</f>
         <v>0.44595289518507508</v>
       </c>
-      <c r="F125" s="25">
-        <f>F124/F120</f>
+      <c r="F133" s="25">
+        <f>F132/F128</f>
         <v>0.82323272640995937</v>
       </c>
-      <c r="G125" s="25">
-        <f t="shared" ref="G125:K125" si="26">G124/G120</f>
+      <c r="G133" s="25">
+        <f t="shared" ref="G133:K133" si="31">G132/G128</f>
         <v>0.66158781936319988</v>
       </c>
-      <c r="H125" s="25">
-        <f t="shared" si="26"/>
+      <c r="H133" s="25">
+        <f t="shared" si="31"/>
         <v>0.65072564510956099</v>
       </c>
-      <c r="I125" s="25">
-        <f t="shared" si="26"/>
+      <c r="I133" s="25">
+        <f t="shared" si="31"/>
         <v>0.63343263077559386</v>
       </c>
-      <c r="J125" s="25">
-        <f t="shared" si="26"/>
+      <c r="J133" s="25">
+        <f t="shared" si="31"/>
         <v>0.67392301060992943</v>
       </c>
-      <c r="K125" s="25">
-        <f t="shared" si="26"/>
+      <c r="K133" s="25">
+        <f t="shared" si="31"/>
         <v>0.62589920730194326</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="28.8">
-      <c r="D126" s="2" t="s">
+    <row r="134" spans="1:11">
+      <c r="D134" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E126" s="25">
-        <f>1-E125</f>
+      <c r="E134" s="25">
+        <f>1-E133</f>
         <v>0.55404710481492492</v>
       </c>
-      <c r="F126" s="25">
-        <f t="shared" ref="F126:K126" si="27">1-F125</f>
+      <c r="F134" s="25">
+        <f t="shared" ref="F134:K134" si="32">1-F133</f>
         <v>0.17676727359004063</v>
       </c>
-      <c r="G126" s="25">
-        <f t="shared" si="27"/>
+      <c r="G134" s="25">
+        <f t="shared" si="32"/>
         <v>0.33841218063680012</v>
       </c>
-      <c r="H126" s="25">
-        <f t="shared" si="27"/>
+      <c r="H134" s="25">
+        <f t="shared" si="32"/>
         <v>0.34927435489043901</v>
       </c>
-      <c r="I126" s="25">
-        <f t="shared" si="27"/>
+      <c r="I134" s="25">
+        <f t="shared" si="32"/>
         <v>0.36656736922440614</v>
       </c>
-      <c r="J126" s="25">
-        <f t="shared" si="27"/>
+      <c r="J134" s="25">
+        <f t="shared" si="32"/>
         <v>0.32607698939007057</v>
       </c>
-      <c r="K126" s="25">
-        <f t="shared" si="27"/>
+      <c r="K134" s="25">
+        <f t="shared" si="32"/>
         <v>0.37410079269805674</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="D127" s="26" t="s">
-        <v>66</v>
+    <row r="135" spans="1:11">
+      <c r="D135" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20341"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A58464-BB1B-406D-8BE5-949151049DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50261824-7815-426F-91FF-A08BA4448EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
   <si>
     <t>Dirt6</t>
   </si>
@@ -219,23 +219,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PIDv1.1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kd_d: 0.5-&gt;0.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki_d: 0-&gt;0.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑直线会好一点点，但是弯道会差一点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步：改变转弯程序和速度控制</t>
+    <t>PIDv1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalError</t>
+  </si>
+  <si>
+    <t>相对误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalError是自己定义</t>
+  </si>
+  <si>
+    <t>相对误差稳定在6~7%，totalError可以作为评价函数</t>
+  </si>
+  <si>
+    <t>PIDv1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMEND ERROR function * 1.06638779900189;
+  ADD a TIME function;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_T</t>
+  </si>
+  <si>
+    <t>误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_T += 0.0208625612715938;</t>
+  </si>
+  <si>
+    <t>PIDv1.2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD a flag IsTimeStart.</t>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常行驶Error占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDv1.2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！！接下来1、修改speed &lt; 50控制（起步阶段控制）2、改进Dirt6转向函数D_err 3、有时间可以对学长的代码进行测试（startError及其占比，不同半径的curError）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！！接下来1、修改speed &lt; 50控制（起步阶段控制）2、改进Dirt6转向函数D_err 3、有时间可以对学长的代码进行测试（startError及其占比，不同半径的curError）</t>
+  </si>
+  <si>
+    <t>REDUCE those stupid empty lines!</t>
+  </si>
+  <si>
+    <t>DEFINE a startError(t &gt; 0 to speed &lt; 40)</t>
+  </si>
+  <si>
+    <t>kp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total t &amp; e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,9 +339,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -288,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,12 +451,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -363,9 +465,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -404,8 +503,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,1919 +871,2758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.53125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="8.86328125" style="3"/>
-    <col min="9" max="9" width="9.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.86328125" style="7"/>
-    <col min="11" max="12" width="8.86328125" style="3"/>
-    <col min="13" max="13" width="8.86328125" style="13"/>
-    <col min="14" max="16384" width="8.86328125" style="3"/>
+    <col min="1" max="1" width="14.46484375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.53125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="19">
         <v>43533</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="22">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="20">
         <v>178.1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="20">
         <v>92.39</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="20">
         <v>148.09</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="20">
         <v>260.57</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="20">
         <v>172.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="20">
         <v>169</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="20">
         <f>SUM(E2:J2)</f>
         <v>1020.7500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="20">
         <v>142.85</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="20">
         <v>99.37</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="20">
         <v>125.94</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="20">
         <v>140.49</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="20">
         <v>114.42</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="20">
         <v>123.49</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="20">
         <f t="shared" ref="K3:K6" si="0">SUM(E3:J3)</f>
         <v>746.56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="20">
         <v>481.73</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="20">
         <v>373.74</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="20">
         <v>435.71</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="20">
         <v>369.18</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="20">
         <v>349.23</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="20">
         <v>398.08</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="20">
         <f t="shared" si="0"/>
         <v>2407.67</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="20">
         <v>89</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="20">
         <v>108</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="20">
         <v>111</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="20">
         <v>142</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="20">
         <v>111</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="20">
         <v>126</v>
       </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>43533</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.62708333333333333</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>108.64</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>169.05</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>356.27</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>212.65</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>199.17</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f>SUM(E8:J8)</f>
         <v>2044.7800000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>173.36</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>336.06</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>277.27</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>22866.02</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>470.34</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" ref="K9:K12" si="1">SUM(E9:J9)</f>
         <v>25122.05</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>716.38</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1439.6</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>922.17</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>111783</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>2060.6999999999998</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>116921.84999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
         <v>74</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>77</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>78</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>77</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>72</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>43533</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.95694444444444438</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>102.98</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>161.07</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>342.17</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>193.78</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>188.58</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f>SUM(E14:J14)</f>
         <v>1987.58</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>999</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>278.07</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>617.26</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>456.25</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>535.96</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>550.19000000000005</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" ref="K15:K18" si="2">SUM(E15:J15)</f>
         <v>3436.73</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>1236.4000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>2827.24</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>1816.45</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>2388.8200000000002</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>2464.91</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>10733.82</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>76</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>77</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>78</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>77</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>76</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>43534</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.44236111111111115</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <v>201.6</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>572.02</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>2555.91</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>43534</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>0.47152777777777777</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>164.4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>103.89</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>161.53</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>343.02</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>195.67</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>190.73</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f>SUM(E26:J26)</f>
         <v>1159.24</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>281.14999999999998</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>112.1</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>141.9</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>173.87</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>175.04</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>160.53</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" ref="K27:K30" si="3">SUM(E27:J27)</f>
         <v>1044.5899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1176.27</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>422.04</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>497.44</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>431.77</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>618.02</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <v>552.92999999999995</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="3"/>
         <v>3698.47</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>76</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>76</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>77</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>78</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>77</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>43534</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>0.46458333333333335</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>143.5</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="5">
         <v>239.47</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <v>997.56</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="5">
         <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="5">
         <v>999</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="5">
         <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>999</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>73.69</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>134.9</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>999</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>999</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="5">
         <v>135.63999999999999</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <f>SUM(E44:J44)</f>
         <v>3341.23</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>999</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>105.44</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>138.05000000000001</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>999</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>999</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="5">
         <v>125.4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <f t="shared" ref="K45:K48" si="4">SUM(E45:J45)</f>
         <v>3365.89</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>426.4</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>511.2</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="5">
         <v>448.31</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <f t="shared" si="4"/>
         <v>1385.9099999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>159</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>158</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="5">
         <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1">
-      <c r="B49" s="11"/>
-      <c r="E49" s="15" t="s">
+    <row r="49" spans="1:13" s="7" customFormat="1">
+      <c r="B49" s="9"/>
+      <c r="E49" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="15"/>
+      <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>177.23</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>97.69</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>178.42</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>267.26</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>185.52</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="5">
         <v>179.08</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <f>SUM(E50:J50)</f>
         <v>1085.1999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>171.38</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>114.61</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>162.74</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>157.69999999999999</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>135.27000000000001</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>146.63999999999999</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <f t="shared" ref="K51:K54" si="5">SUM(E51:J51)</f>
         <v>888.34</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>622.65</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>441.9</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>578.86</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>445.31</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>435.58</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="5">
         <v>499.15</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <f t="shared" si="5"/>
         <v>3023.45</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>120</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>120</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>118</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>123</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>120</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>144.86000000000001</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>81.569999999999993</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>144.61000000000001</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>214.85</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>149.6</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="5">
         <v>144.77000000000001</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <f>SUM(E56:J56)</f>
         <v>880.26</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>170.77</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>182.09</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>138.69</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>152.03</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>121.76</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="5">
         <v>123.67</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <f t="shared" ref="K57:K60" si="6">SUM(E57:J57)</f>
         <v>889.01</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>659.32</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>792.34</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>502.43</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>481.75</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>413.37</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <v>428.64</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <f t="shared" si="6"/>
         <v>3277.85</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>147</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>148</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>147</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>153</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="2">
         <v>148</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>147.96</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>999</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <v>144.84</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>240.61</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>999</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>123.5</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>997.74</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="5">
         <v>427.74</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>146</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>144.76</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>78.8</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>144.6</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>214.88</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <v>149.54</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <v>144.72</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <f>SUM(E68:J68)</f>
         <v>877.3</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>168.73</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>105.24</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>138.63999999999999</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>152.03</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="2">
         <v>120.64</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <v>122.27</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <f t="shared" ref="K69:K72" si="7">SUM(E69:J69)</f>
         <v>807.55</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>649.42999999999995</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>419.1</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>502.19</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <v>481.71</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="2">
         <v>407.96</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="5">
         <v>421.82</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <f t="shared" si="7"/>
         <v>2882.21</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>147</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>148</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>147</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <v>153</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="2">
         <v>148</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="5">
         <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>135.66</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>72.239999999999995</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>132.25</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>196.35</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="2">
         <v>138.33000000000001</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="5">
         <v>133.18</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <f>SUM(E74:J74)</f>
         <v>808.01</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="15">
         <v>227.04</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>103.32</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>135.24</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <v>152.88999999999999</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="15">
         <v>145.34</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="5">
         <v>125.77</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <f t="shared" ref="K75:K78" si="8">SUM(E75:J75)</f>
         <v>889.6</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>946.32</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>417.75</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>500.68</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <v>508.62</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="2">
         <v>542.70000000000005</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="5">
         <v>453.12</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <f t="shared" si="8"/>
         <v>3369.1900000000005</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>160</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>162</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>161</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>167</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="2">
         <v>161</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="5">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="27">
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>999</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>72.73</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="2">
         <v>999</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="2">
         <v>999</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <f>SUM(E80:J80)</f>
         <v>3069.73</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:13">
+      <c r="A81" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>999</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>106.4</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <v>999</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="2">
         <v>999</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <f t="shared" ref="K81:K84" si="9">SUM(E81:J81)</f>
         <v>3103.4</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:13">
+      <c r="A82" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>432.69</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <f t="shared" si="9"/>
         <v>432.69</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="D83" s="3" t="s">
+    <row r="83" spans="1:13">
+      <c r="D83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="D84" s="3" t="s">
+    <row r="84" spans="1:13">
+      <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:13">
+      <c r="A86" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>144.62</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>78.709999999999994</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>144.44</v>
       </c>
-      <c r="H86" s="3">
-        <v>214.77</v>
-      </c>
-      <c r="I86" s="3">
+      <c r="H86" s="2">
+        <v>3</v>
+      </c>
+      <c r="I86" s="2">
         <v>149.51</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="5">
         <v>144.72</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <f>SUM(E86:J86)</f>
-        <v>876.77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>166.8</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>103.67</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>136.87</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="2">
         <v>149.47999999999999</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="2">
         <v>119.86</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="16">
         <v>122.31</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K87" s="16">
         <f t="shared" ref="K87:K90" si="10">SUM(E87:J87)</f>
         <v>798.99</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="9" t="s">
+    <row r="88" spans="1:13">
+      <c r="A88" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>640.16999999999996</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <v>411.56</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="2">
         <v>493.74</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="2">
         <v>469.39</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="2">
         <v>404.18</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="5">
         <v>422.04</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <f t="shared" si="10"/>
         <v>2841.08</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="D89" s="3" t="s">
+    <row r="89" spans="1:13">
+      <c r="D89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>147</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>148</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <v>147</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <v>153</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <v>148</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="5">
         <v>149</v>
       </c>
-      <c r="K89" s="3">
+    </row>
+    <row r="90" spans="1:13">
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
         <f t="shared" si="10"/>
-        <v>892</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="D90" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="G91" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="E92" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2">
+        <v>640.16803000000004</v>
+      </c>
+      <c r="F93" s="2">
+        <v>411.52600100000001</v>
+      </c>
+      <c r="G93" s="2">
+        <v>493.71798699999999</v>
+      </c>
+      <c r="H93" s="2">
+        <v>469.38000499999998</v>
+      </c>
+      <c r="I93" s="2">
+        <v>404.16400099999998</v>
+      </c>
+      <c r="J93" s="5">
+        <v>404.15701300000001</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" ref="K93:K94" si="11">SUM(E93:J93)</f>
+        <v>2823.1130370000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" s="2">
+        <v>601.46046200000001</v>
+      </c>
+      <c r="F94" s="2">
+        <v>379.44525700000003</v>
+      </c>
+      <c r="G94" s="2">
+        <v>461.16140100000001</v>
+      </c>
+      <c r="H94" s="2">
+        <v>440.03239400000001</v>
+      </c>
+      <c r="I94" s="2">
+        <v>382.63436400000001</v>
+      </c>
+      <c r="J94" s="5">
+        <v>382.62671599999999</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="11"/>
+        <v>2647.3605939999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="17">
+        <f>E94/E93</f>
+        <v>0.93953529981808048</v>
+      </c>
+      <c r="F95" s="17">
+        <f t="shared" ref="F95:K95" si="12">F94/F93</f>
+        <v>0.92204442994599511</v>
+      </c>
+      <c r="G95" s="17">
+        <f t="shared" si="12"/>
+        <v>0.93405833520908366</v>
+      </c>
+      <c r="H95" s="17">
+        <f t="shared" si="12"/>
+        <v>0.93747579639656786</v>
+      </c>
+      <c r="I95" s="17">
+        <f t="shared" si="12"/>
+        <v>0.94673044371411008</v>
+      </c>
+      <c r="J95" s="17">
+        <f t="shared" si="12"/>
+        <v>0.9467278896382777</v>
+      </c>
+      <c r="K95" s="17">
+        <f t="shared" si="12"/>
+        <v>0.93774516262842778</v>
+      </c>
+      <c r="L95" s="23"/>
+      <c r="M95" s="11">
+        <v>1.06638779900189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="17">
+        <f t="shared" ref="E96:K96" si="13">1-E95</f>
+        <v>6.0464700181919517E-2</v>
+      </c>
+      <c r="F96" s="17">
+        <f t="shared" si="13"/>
+        <v>7.7955570054004886E-2</v>
+      </c>
+      <c r="G96" s="17">
+        <f t="shared" si="13"/>
+        <v>6.5941664790916343E-2</v>
+      </c>
+      <c r="H96" s="17">
+        <f t="shared" si="13"/>
+        <v>6.2524203603432138E-2</v>
+      </c>
+      <c r="I96" s="17">
+        <f t="shared" si="13"/>
+        <v>5.3269556285889919E-2</v>
+      </c>
+      <c r="J96" s="17">
+        <f t="shared" si="13"/>
+        <v>5.3272110361722302E-2</v>
+      </c>
+      <c r="K96" s="17">
+        <f t="shared" si="13"/>
+        <v>6.2254837371572225E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="4">
+        <v>43540</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="2">
+        <v>144.62</v>
+      </c>
+      <c r="F98" s="2">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G98" s="2">
+        <v>144.44</v>
+      </c>
+      <c r="H98" s="2">
+        <v>214.77</v>
+      </c>
+      <c r="I98" s="2">
+        <v>149.51</v>
+      </c>
+      <c r="J98" s="5">
+        <v>144.72</v>
+      </c>
+      <c r="K98" s="2">
+        <f>SUM(E98:J98)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="2">
+        <v>166.8</v>
+      </c>
+      <c r="F99" s="2">
+        <v>103.67</v>
+      </c>
+      <c r="G99" s="2">
+        <v>136.87</v>
+      </c>
+      <c r="H99" s="2">
+        <v>149.47999999999999</v>
+      </c>
+      <c r="I99" s="2">
+        <v>119.86</v>
+      </c>
+      <c r="J99" s="5">
+        <v>122.56</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" ref="K99:K104" si="14">SUM(E99:J99)</f>
+        <v>799.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F100" s="2">
+        <v>411.96</v>
+      </c>
+      <c r="G100" s="2">
+        <v>493.74</v>
+      </c>
+      <c r="H100" s="2">
+        <v>469.39</v>
+      </c>
+      <c r="I100" s="2">
+        <v>404.16</v>
+      </c>
+      <c r="J100" s="5">
+        <v>423.24</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="14"/>
+        <v>2842.66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="D101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2">
+        <v>147</v>
+      </c>
+      <c r="F101" s="2">
+        <v>148</v>
+      </c>
+      <c r="G101" s="2">
+        <v>147</v>
+      </c>
+      <c r="H101" s="2">
+        <v>153</v>
+      </c>
+      <c r="I101" s="2">
+        <v>148</v>
+      </c>
+      <c r="J101" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="D102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="G91" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="E92" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="C103" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="2">
+        <v>641.39000099999998</v>
+      </c>
+      <c r="F103" s="2">
+        <v>404.67472099999998</v>
+      </c>
+      <c r="G103" s="2">
+        <v>491.80260500000003</v>
+      </c>
+      <c r="H103" s="2">
+        <v>469.25172199999997</v>
+      </c>
+      <c r="I103" s="2">
+        <v>408.03661699999998</v>
+      </c>
+      <c r="J103" s="5">
+        <v>424.901972</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="14"/>
+        <v>2840.0576380000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="C104" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="2">
+        <v>137.76</v>
+      </c>
+      <c r="F104" s="2">
+        <v>76.34</v>
+      </c>
+      <c r="G104" s="2">
+        <v>137.72</v>
+      </c>
+      <c r="H104" s="2">
+        <v>207.92</v>
+      </c>
+      <c r="I104" s="2">
+        <v>142.66</v>
+      </c>
+      <c r="J104" s="5">
+        <v>138.12</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="14"/>
+        <v>840.52</v>
+      </c>
+      <c r="L104" s="2">
+        <f>K98/K104*0.02</f>
+        <v>2.0862561271593773E-2</v>
+      </c>
+      <c r="M104" s="11">
+        <v>2.0862561271593801E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="C105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="24">
+        <f>E103/E100-1</f>
+        <v>1.9057453488917631E-3</v>
+      </c>
+      <c r="F105" s="24">
+        <f t="shared" ref="F105:K105" si="15">F103/F100-1</f>
+        <v>-1.7684432954655827E-2</v>
+      </c>
+      <c r="G105" s="24">
+        <f t="shared" si="15"/>
+        <v>-3.9239174464292814E-3</v>
+      </c>
+      <c r="H105" s="24">
+        <f t="shared" si="15"/>
+        <v>-2.9459085195682189E-4</v>
+      </c>
+      <c r="I105" s="24">
+        <f t="shared" si="15"/>
+        <v>9.5917879057798583E-3</v>
+      </c>
+      <c r="J105" s="24">
+        <f t="shared" si="15"/>
+        <v>3.9267838578584957E-3</v>
+      </c>
+      <c r="K105" s="24">
+        <f t="shared" si="15"/>
+        <v>-9.1546720325319519E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="C106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="24">
+        <f t="shared" ref="E106:K106" si="16">E104/E98-1</f>
+        <v>-4.7434656340755166E-2</v>
+      </c>
+      <c r="F106" s="24">
+        <f t="shared" si="16"/>
+        <v>-3.0110532333883722E-2</v>
+      </c>
+      <c r="G106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.6524508446413759E-2</v>
+      </c>
+      <c r="H106" s="24">
+        <f t="shared" si="16"/>
+        <v>-3.189458490478192E-2</v>
+      </c>
+      <c r="I106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.5816333355628402E-2</v>
+      </c>
+      <c r="J106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.5605306799336609E-2</v>
+      </c>
+      <c r="K106" s="24">
+        <f t="shared" si="16"/>
+        <v>-4.1344936528393994E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="2">
+        <v>143.74304699999999</v>
+      </c>
+      <c r="F108" s="2">
+        <v>79.632396</v>
+      </c>
+      <c r="G108" s="2">
+        <v>143.59700900000001</v>
+      </c>
+      <c r="H108" s="2">
+        <v>216.928912</v>
+      </c>
+      <c r="I108" s="2">
+        <v>149.06299999999999</v>
+      </c>
+      <c r="J108" s="5">
+        <v>143.805635</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" ref="K108" si="17">SUM(E108:J108)</f>
+        <v>876.76999899999987</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="24">
+        <f>E108/E98-1</f>
+        <v>-6.0638431752179089E-3</v>
+      </c>
+      <c r="F109" s="24">
+        <f t="shared" ref="F109:K109" si="18">F108/F98-1</f>
+        <v>1.1718917545419982E-2</v>
+      </c>
+      <c r="G109" s="24">
+        <f t="shared" si="18"/>
+        <v>-5.8362711160342418E-3</v>
+      </c>
+      <c r="H109" s="24">
+        <f t="shared" si="18"/>
+        <v>1.0052204684080523E-2</v>
+      </c>
+      <c r="I109" s="24">
+        <f t="shared" si="18"/>
+        <v>-2.9897665707979693E-3</v>
+      </c>
+      <c r="J109" s="24">
+        <f t="shared" si="18"/>
+        <v>-6.3181661138751455E-3</v>
+      </c>
+      <c r="K109" s="24">
+        <f t="shared" si="18"/>
+        <v>-1.1405500988104222E-9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="3">
-        <v>144.57</v>
-      </c>
-      <c r="F94" s="3">
-        <v>78.790000000000006</v>
-      </c>
-      <c r="G94" s="3">
-        <v>144.51</v>
-      </c>
-      <c r="H94" s="3">
-        <v>214.72</v>
-      </c>
-      <c r="I94" s="3">
-        <v>149.47</v>
-      </c>
-      <c r="J94" s="7">
-        <v>144.65</v>
-      </c>
-      <c r="K94" s="3">
-        <f>SUM(E94:J94)</f>
-        <v>876.71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="9" t="s">
+      <c r="E111" s="2">
+        <v>144.62</v>
+      </c>
+      <c r="F111" s="2">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G111" s="2">
+        <v>144.44</v>
+      </c>
+      <c r="H111" s="2">
+        <v>214.77</v>
+      </c>
+      <c r="I111" s="2">
+        <v>149.51</v>
+      </c>
+      <c r="J111" s="5">
+        <v>144.72</v>
+      </c>
+      <c r="K111" s="2">
+        <f>SUM(E111:J111)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F112" s="2">
+        <v>411.96</v>
+      </c>
+      <c r="G112" s="2">
+        <v>493.74</v>
+      </c>
+      <c r="H112" s="2">
+        <v>469.39</v>
+      </c>
+      <c r="I112" s="2">
+        <v>404.16</v>
+      </c>
+      <c r="J112" s="5">
+        <v>423.24</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" ref="K112:K114" si="19">SUM(E112:J112)</f>
+        <v>2842.66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="C113" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="3">
-        <v>166</v>
-      </c>
-      <c r="F95" s="3">
-        <v>104.14</v>
-      </c>
-      <c r="G95" s="3">
-        <v>137.16</v>
-      </c>
-      <c r="H95" s="3">
-        <v>149.05000000000001</v>
-      </c>
-      <c r="I95" s="3">
-        <v>119.53</v>
-      </c>
-      <c r="J95" s="7">
-        <v>121.42</v>
-      </c>
-      <c r="K95" s="3">
-        <f t="shared" ref="K95:K98" si="11">SUM(E95:J95)</f>
-        <v>797.29999999999984</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="E113" s="2">
+        <v>481.35565100000002</v>
+      </c>
+      <c r="F113" s="2">
+        <v>259.34051299999999</v>
+      </c>
+      <c r="G113" s="2">
+        <v>330.502115</v>
+      </c>
+      <c r="H113" s="2">
+        <v>317.56969099999998</v>
+      </c>
+      <c r="I113" s="2">
+        <v>278.62517700000001</v>
+      </c>
+      <c r="J113" s="5">
+        <v>283.99739099999999</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="19"/>
+        <v>1951.3905379999997</v>
+      </c>
+      <c r="L113" s="2">
+        <f>K112/K113</f>
+        <v>1.4567355660715007</v>
+      </c>
+      <c r="M113" s="11">
+        <v>1.4567355660715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="C114" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E114" s="2">
+        <v>136.84</v>
+      </c>
+      <c r="F114" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G114" s="2">
+        <v>136.62</v>
+      </c>
+      <c r="H114" s="2">
+        <v>207.04</v>
+      </c>
+      <c r="I114" s="2">
+        <v>141.9</v>
+      </c>
+      <c r="J114" s="5">
+        <v>137.12</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="19"/>
+        <v>834.92</v>
+      </c>
+      <c r="L114" s="2">
+        <f>K111/K114*0.02</f>
+        <v>2.1002491256647344E-2</v>
+      </c>
+      <c r="M114" s="11">
+        <v>2.1002491256647299E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="C115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="24">
+        <f>E113/E100-1</f>
+        <v>-0.24808152365777836</v>
+      </c>
+      <c r="F115" s="24">
+        <f t="shared" ref="F115:K115" si="20">F113/F100-1</f>
+        <v>-0.37047161617632784</v>
+      </c>
+      <c r="G115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.33061507068497586</v>
+      </c>
+      <c r="H115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.32344172010481687</v>
+      </c>
+      <c r="I115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.31060674732779103</v>
+      </c>
+      <c r="J115" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.32899208250637935</v>
+      </c>
+      <c r="K115" s="17">
+        <f t="shared" si="20"/>
+        <v>-0.31353361358727394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="C116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" s="24">
+        <f>E114/E98-1</f>
+        <v>-5.3796155441847571E-2</v>
+      </c>
+      <c r="F116" s="24">
+        <f t="shared" ref="F116:K116" si="21">F114/F98-1</f>
+        <v>-4.2053106339727919E-2</v>
+      </c>
+      <c r="G116" s="24">
+        <f t="shared" si="21"/>
+        <v>-5.414012738853502E-2</v>
+      </c>
+      <c r="H116" s="24">
+        <f t="shared" si="21"/>
+        <v>-3.5991991432695492E-2</v>
+      </c>
+      <c r="I116" s="24">
+        <f t="shared" si="21"/>
+        <v>-5.0899605377566659E-2</v>
+      </c>
+      <c r="J116" s="24">
+        <f t="shared" si="21"/>
+        <v>-5.2515201768933095E-2</v>
+      </c>
+      <c r="K116" s="24">
+        <f t="shared" si="21"/>
+        <v>-4.7732016378297604E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="4">
+        <v>43541</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2">
+        <v>144.62</v>
+      </c>
+      <c r="F118" s="2">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="G118" s="2">
+        <v>144.44</v>
+      </c>
+      <c r="H118" s="2">
+        <v>214.77</v>
+      </c>
+      <c r="I118" s="2">
+        <v>149.51</v>
+      </c>
+      <c r="J118" s="5">
+        <v>144.72</v>
+      </c>
+      <c r="K118" s="2">
+        <f>SUM(E118:J118)</f>
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="D119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="3">
-        <v>636.29999999999995</v>
-      </c>
-      <c r="F96" s="3">
-        <v>413.75</v>
-      </c>
-      <c r="G96" s="3">
-        <v>495.08</v>
-      </c>
-      <c r="H96" s="3">
-        <v>467.31</v>
-      </c>
-      <c r="I96" s="3">
-        <v>402.61</v>
-      </c>
-      <c r="J96" s="7">
-        <v>417.74</v>
-      </c>
-      <c r="K96" s="3">
-        <f t="shared" si="11"/>
-        <v>2832.79</v>
-      </c>
-    </row>
-    <row r="97" spans="4:11">
-      <c r="D97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="3">
-        <v>147</v>
-      </c>
-      <c r="F97" s="3">
-        <v>148</v>
-      </c>
-      <c r="G97" s="3">
-        <v>147</v>
-      </c>
-      <c r="H97" s="3">
-        <v>153</v>
-      </c>
-      <c r="I97" s="3">
-        <v>148</v>
-      </c>
-      <c r="J97" s="7">
-        <v>149</v>
-      </c>
-      <c r="K97" s="3">
-        <f t="shared" si="11"/>
-        <v>892</v>
-      </c>
-    </row>
-    <row r="98" spans="4:11">
-      <c r="D98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <v>0</v>
-      </c>
-      <c r="I98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98" s="7">
-        <v>0</v>
-      </c>
-      <c r="K98" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:11" ht="13.5" customHeight="1">
-      <c r="D99" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="4:11">
-      <c r="D100" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
+      <c r="E119" s="2">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="F119" s="2">
+        <v>411.96</v>
+      </c>
+      <c r="G119" s="2">
+        <v>493.74</v>
+      </c>
+      <c r="H119" s="2">
+        <v>469.39</v>
+      </c>
+      <c r="I119" s="2">
+        <v>404.16</v>
+      </c>
+      <c r="J119" s="5">
+        <v>423.24</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" ref="K119:K121" si="22">SUM(E119:J119)</f>
+        <v>2842.66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" s="2">
+        <v>701.20840199999998</v>
+      </c>
+      <c r="F120" s="2">
+        <v>378.19507900000002</v>
+      </c>
+      <c r="G120" s="2">
+        <v>481.4855</v>
+      </c>
+      <c r="H120" s="2">
+        <v>462.56964399999998</v>
+      </c>
+      <c r="I120" s="2">
+        <v>405.85133999999999</v>
+      </c>
+      <c r="J120" s="5">
+        <v>412.80246499999998</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="22"/>
+        <v>2842.1124300000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" s="2">
+        <v>143.72004799999999</v>
+      </c>
+      <c r="F121" s="2">
+        <v>79.284403999999995</v>
+      </c>
+      <c r="G121" s="2">
+        <v>143.63603800000001</v>
+      </c>
+      <c r="H121" s="2">
+        <v>217.31277700000001</v>
+      </c>
+      <c r="I121" s="2">
+        <v>148.90766300000001</v>
+      </c>
+      <c r="J121" s="5">
+        <v>143.84606299999999</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="22"/>
+        <v>876.70699300000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="24">
+        <f>E120/E119-1</f>
+        <v>9.5347176531233924E-2</v>
+      </c>
+      <c r="F122" s="24">
+        <f t="shared" ref="F122:K122" si="23">F120/F119-1</f>
+        <v>-8.1961649189241537E-2</v>
+      </c>
+      <c r="G122" s="24">
+        <f t="shared" si="23"/>
+        <v>-2.4819743184672061E-2</v>
+      </c>
+      <c r="H122" s="24">
+        <f t="shared" si="23"/>
+        <v>-1.4530254159654032E-2</v>
+      </c>
+      <c r="I122" s="24">
+        <f t="shared" si="23"/>
+        <v>4.184827790973733E-3</v>
+      </c>
+      <c r="J122" s="24">
+        <f t="shared" si="23"/>
+        <v>-2.4661031566014624E-2</v>
+      </c>
+      <c r="K122" s="24">
+        <f t="shared" si="23"/>
+        <v>-1.9262592079238861E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" s="24">
+        <f>E121/E118-1</f>
+        <v>-6.2228737380722876E-3</v>
+      </c>
+      <c r="F123" s="24">
+        <f t="shared" ref="F123:K123" si="24">F121/F118-1</f>
+        <v>7.2977258289925739E-3</v>
+      </c>
+      <c r="G123" s="24">
+        <f t="shared" si="24"/>
+        <v>-5.5660620326778432E-3</v>
+      </c>
+      <c r="H123" s="24">
+        <f t="shared" si="24"/>
+        <v>1.1839535316850558E-2</v>
+      </c>
+      <c r="I123" s="24">
+        <f t="shared" si="24"/>
+        <v>-4.0287405524712661E-3</v>
+      </c>
+      <c r="J123" s="24">
+        <f t="shared" si="24"/>
+        <v>-6.0388128800442642E-3</v>
+      </c>
+      <c r="K123" s="24">
+        <f t="shared" si="24"/>
+        <v>-7.1862632161190376E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="D124" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E124" s="2">
+        <v>312.705917</v>
+      </c>
+      <c r="F124" s="2">
+        <v>311.34256599999998</v>
+      </c>
+      <c r="G124" s="2">
+        <v>318.54494199999999</v>
+      </c>
+      <c r="H124" s="2">
+        <v>301.00592999999998</v>
+      </c>
+      <c r="I124" s="2">
+        <v>257.07948199999998</v>
+      </c>
+      <c r="J124" s="5">
+        <v>278.19708000000003</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" ref="K124" si="25">SUM(E124:J124)</f>
+        <v>1778.8759169999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="D125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="25">
+        <f>E124/E120</f>
+        <v>0.44595289518507508</v>
+      </c>
+      <c r="F125" s="25">
+        <f>F124/F120</f>
+        <v>0.82323272640995937</v>
+      </c>
+      <c r="G125" s="25">
+        <f t="shared" ref="G125:K125" si="26">G124/G120</f>
+        <v>0.66158781936319988</v>
+      </c>
+      <c r="H125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.65072564510956099</v>
+      </c>
+      <c r="I125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.63343263077559386</v>
+      </c>
+      <c r="J125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.67392301060992943</v>
+      </c>
+      <c r="K125" s="25">
+        <f t="shared" si="26"/>
+        <v>0.62589920730194326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="27">
+      <c r="D126" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="25">
+        <f>1-E125</f>
+        <v>0.55404710481492492</v>
+      </c>
+      <c r="F126" s="25">
+        <f t="shared" ref="F126:K126" si="27">1-F125</f>
+        <v>0.17676727359004063</v>
+      </c>
+      <c r="G126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.33841218063680012</v>
+      </c>
+      <c r="H126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.34927435489043901</v>
+      </c>
+      <c r="I126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.36656736922440614</v>
+      </c>
+      <c r="J126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.32607698939007057</v>
+      </c>
+      <c r="K126" s="25">
+        <f t="shared" si="27"/>
+        <v>0.37410079269805674</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="D127" s="26" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D100:I100"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2666,12 +3631,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>584.89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>584.85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>465.82</v>
+      </c>
+      <c r="H15">
+        <v>138.81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>467.52</v>
+      </c>
+      <c r="H16">
+        <v>137.06</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>485.58</v>
+      </c>
+      <c r="H17">
+        <v>139.24</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>480.57</v>
+      </c>
+      <c r="H18">
+        <v>144.78</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20341"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50261824-7815-426F-91FF-A08BA4448EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CAEF75-265E-4C3A-9BD2-B924C4138CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>Dirt6</t>
   </si>
@@ -333,6 +333,47 @@
   <si>
     <t>total t &amp; e</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starterror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error(ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG track 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*cmdAcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total_T</t>
+  </si>
+  <si>
+    <t>Total_T&amp;E</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Top Spd</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>CG-speed number1</t>
+  </si>
+  <si>
+    <t>E-road</t>
   </si>
 </sst>
 </file>
@@ -871,12 +912,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5"/>
@@ -3622,6 +3663,173 @@
         <v>66</v>
       </c>
     </row>
+    <row r="130" spans="1:11" ht="27">
+      <c r="A130" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" s="4">
+        <v>43541</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="D131" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E131" s="2">
+        <v>166.3</v>
+      </c>
+      <c r="F131" s="2">
+        <v>78.31</v>
+      </c>
+      <c r="G131" s="2">
+        <v>144.07</v>
+      </c>
+      <c r="H131" s="2">
+        <v>215.03</v>
+      </c>
+      <c r="I131" s="2">
+        <v>184.55</v>
+      </c>
+      <c r="J131" s="5">
+        <v>145.28</v>
+      </c>
+      <c r="K131" s="2">
+        <f>SUM(E131:J131)</f>
+        <v>933.54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="D132" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E132" s="2">
+        <v>133.38</v>
+      </c>
+      <c r="F132" s="2">
+        <v>94.52</v>
+      </c>
+      <c r="G132" s="2">
+        <v>129.16999999999999</v>
+      </c>
+      <c r="H132" s="2">
+        <v>141.15</v>
+      </c>
+      <c r="I132" s="2">
+        <v>118.65</v>
+      </c>
+      <c r="J132" s="5">
+        <v>121.25</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" ref="K132:K135" si="28">SUM(E132:J132)</f>
+        <v>738.11999999999989</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="D133" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E133" s="2">
+        <v>449.84</v>
+      </c>
+      <c r="F133" s="2">
+        <v>367.21</v>
+      </c>
+      <c r="G133" s="2">
+        <v>456.43</v>
+      </c>
+      <c r="H133" s="2">
+        <v>428.2</v>
+      </c>
+      <c r="I133" s="2">
+        <v>355.29</v>
+      </c>
+      <c r="J133" s="5">
+        <v>416.13</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" si="28"/>
+        <v>2473.1000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="D134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E134" s="2">
+        <v>85</v>
+      </c>
+      <c r="F134" s="2">
+        <v>148</v>
+      </c>
+      <c r="G134" s="2">
+        <v>147</v>
+      </c>
+      <c r="H134" s="2">
+        <v>151</v>
+      </c>
+      <c r="I134" s="2">
+        <v>86</v>
+      </c>
+      <c r="J134" s="5">
+        <v>146</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="28"/>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="D135" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3634,7 +3842,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3915,12 +4123,337 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>0.5</v>
+      </c>
+      <c r="H1">
+        <v>0.5</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>20</v>
+      </c>
+      <c r="N1">
+        <v>25</v>
+      </c>
+      <c r="O1">
+        <v>25</v>
+      </c>
+      <c r="P1">
+        <v>30</v>
+      </c>
+      <c r="Q1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>153</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>153</v>
+      </c>
+      <c r="E5">
+        <v>153</v>
+      </c>
+      <c r="F5">
+        <v>232.5</v>
+      </c>
+      <c r="G5">
+        <v>154</v>
+      </c>
+      <c r="H5">
+        <v>154</v>
+      </c>
+      <c r="I5">
+        <v>153</v>
+      </c>
+      <c r="J5">
+        <v>151</v>
+      </c>
+      <c r="K5">
+        <v>148</v>
+      </c>
+      <c r="L5">
+        <v>146</v>
+      </c>
+      <c r="M5">
+        <v>145</v>
+      </c>
+      <c r="N5">
+        <v>147</v>
+      </c>
+      <c r="O5">
+        <v>148</v>
+      </c>
+      <c r="P5">
+        <v>148</v>
+      </c>
+      <c r="Q5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>317</v>
+      </c>
+      <c r="C6">
+        <v>330</v>
+      </c>
+      <c r="D6">
+        <v>327</v>
+      </c>
+      <c r="I6">
+        <v>335</v>
+      </c>
+      <c r="J6">
+        <v>308</v>
+      </c>
+      <c r="K6">
+        <v>274</v>
+      </c>
+      <c r="L6">
+        <v>266</v>
+      </c>
+      <c r="M6">
+        <v>264</v>
+      </c>
+      <c r="N6">
+        <v>263</v>
+      </c>
+      <c r="O6">
+        <v>260</v>
+      </c>
+      <c r="P6">
+        <v>260</v>
+      </c>
+      <c r="Q6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>308</v>
+      </c>
+      <c r="C7">
+        <v>318</v>
+      </c>
+      <c r="D7">
+        <v>315</v>
+      </c>
+      <c r="E7">
+        <v>311</v>
+      </c>
+      <c r="F7">
+        <v>341.6</v>
+      </c>
+      <c r="G7">
+        <v>327</v>
+      </c>
+      <c r="I7">
+        <v>321</v>
+      </c>
+      <c r="J7">
+        <v>301</v>
+      </c>
+      <c r="K7">
+        <v>276</v>
+      </c>
+      <c r="L7">
+        <v>270</v>
+      </c>
+      <c r="M7">
+        <v>269</v>
+      </c>
+      <c r="N7">
+        <v>268</v>
+      </c>
+      <c r="O7">
+        <v>267</v>
+      </c>
+      <c r="P7">
+        <v>267</v>
+      </c>
+      <c r="Q7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20341"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CAEF75-265E-4C3A-9BD2-B924C4138CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A6296-A92B-4155-A590-BE4A21DA26EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -914,10 +914,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K132" sqref="K132"/>
+      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5"/>
@@ -3712,14 +3712,14 @@
         <v>215.03</v>
       </c>
       <c r="I131" s="2">
-        <v>184.55</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="J131" s="5">
         <v>145.28</v>
       </c>
       <c r="K131" s="2">
         <f>SUM(E131:J131)</f>
-        <v>933.54</v>
+        <v>898.29</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -3739,14 +3739,14 @@
         <v>141.15</v>
       </c>
       <c r="I132" s="2">
-        <v>118.65</v>
+        <v>112.96</v>
       </c>
       <c r="J132" s="5">
         <v>121.25</v>
       </c>
       <c r="K132" s="2">
         <f t="shared" ref="K132:K135" si="28">SUM(E132:J132)</f>
-        <v>738.11999999999989</v>
+        <v>732.43</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -3766,14 +3766,14 @@
         <v>428.2</v>
       </c>
       <c r="I133" s="2">
-        <v>355.29</v>
+        <v>370.6</v>
       </c>
       <c r="J133" s="5">
         <v>416.13</v>
       </c>
       <c r="K133" s="2">
         <f t="shared" si="28"/>
-        <v>2473.1000000000004</v>
+        <v>2488.4100000000003</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -3793,14 +3793,14 @@
         <v>151</v>
       </c>
       <c r="I134" s="2">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="J134" s="5">
         <v>146</v>
       </c>
       <c r="K134" s="2">
         <f t="shared" si="28"/>
-        <v>763</v>
+        <v>825</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -3841,7 +3841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C6B7D5-87CE-4B4E-BF53-233DD4FF4149}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE5185-D22B-42A6-9B82-722FC8867283}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8304" yWindow="3756" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="95">
   <si>
     <t>Dirt6</t>
   </si>
@@ -326,6 +326,72 @@
     <t>Length(meter)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PIDv1.2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE starting control (change D_err if !isStart)</t>
+  </si>
+  <si>
+    <t>修改speed &lt; 40控制（起步阶段控制）</t>
+  </si>
+  <si>
+    <t>D_err = -atan2(_midline[20][0], _midline[20][1]);</t>
+  </si>
+  <si>
+    <t>定义starterror有问题，此时未减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_err = 2 * (_yaw - 3 * atan2(_midline[5][0], _midline[5][1]));</t>
+  </si>
+  <si>
+    <t>起步极其慢！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_err = -atan2(_midline[5][0], _midline[5][1]);//original[5]
+   *cmdAcc = 0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能起步，估计0.5油门太大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_err = -atan2(_midline[5][0], _midline[5][1]);//original[5]
+   *cmdAcc = constrain(0, 1, total_T);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，_speed &lt; ?(20)</t>
+  </si>
+  <si>
+    <t>调起步PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, midline[?](5)</t>
+  </si>
+  <si>
+    <t>CG-speed number1</t>
+  </si>
+  <si>
+    <t>E-road</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_speed &lt; ?(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midline[?](5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +403,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000_ "/>
     <numFmt numFmtId="180" formatCode="0.0000%"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -395,13 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,25 +559,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -526,20 +589,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,12 +957,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -903,37 +981,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.8" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -941,402 +1019,402 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>43533</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>178.1</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>92.39</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>148.09</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>260.57</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>172.6</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>169</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <f>SUM(E2:J2)</f>
         <v>1020.7500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>142.85</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>99.37</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>125.94</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>140.49</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>114.42</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>123.49</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <f t="shared" ref="K3:K8" si="0">SUM(E3:J3)</f>
         <v>746.56</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>481.73</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>373.74</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>435.71</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>369.18</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>349.23</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>398.08</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <f t="shared" si="0"/>
         <v>2407.67</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>89</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>108</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>111</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>142</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>111</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>126</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>456.43858899999998</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>323.93069200000002</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>398.71481899999998</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <v>318.90721000000002</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>327.43809499999998</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>378.93915700000002</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <f t="shared" si="0"/>
         <v>2204.3685620000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>178.92022299999999</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>92.284947000000003</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>147.26946899999999</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>265.38747999999998</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>173.10253299999999</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>169.28008</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <f t="shared" si="0"/>
         <v>1026.2447320000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f>E7/E4-1</f>
         <v>-5.250121644904826E-2</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <f t="shared" ref="F9:K9" si="1">F7/F4-1</f>
         <v>-0.13327261732755391</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <f t="shared" si="1"/>
         <v>-8.4907807945651892E-2</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f t="shared" si="1"/>
         <v>-0.13617419686873611</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <f t="shared" si="1"/>
         <v>-6.2399865418205858E-2</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <f t="shared" si="1"/>
         <v>-4.8082905446141355E-2</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <f t="shared" si="1"/>
         <v>-8.4439079275814399E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f>E8/E2-1</f>
         <v>4.6054070746770481E-3</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <f t="shared" ref="F10:K10" si="2">F8/F2-1</f>
         <v>-1.1370602879099412E-3</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <f t="shared" si="2"/>
         <v>-5.5407589979067362E-3</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <f t="shared" si="2"/>
         <v>1.8488237325862578E-2</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <f t="shared" si="2"/>
         <v>2.9115469293163887E-3</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <f t="shared" si="2"/>
         <v>1.6572781065089526E-3</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <f t="shared" si="2"/>
         <v>5.3830340435954138E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>332.85599100000002</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>278.85013700000002</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>281.784988</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>260.10791699999999</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>223.442904</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>245.969483</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <f t="shared" ref="K11" si="3">SUM(E11:J11)</f>
         <v>1623.01142</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <f>E11/E7</f>
         <v>0.72924594681892685</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <f t="shared" ref="F12:K12" si="4">F11/F7</f>
         <v>0.86083271479566992</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <f t="shared" si="4"/>
         <v>0.70673317010572412</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <f t="shared" si="4"/>
         <v>0.81562256620036899</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <f t="shared" si="4"/>
         <v>0.68239739789592901</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <f t="shared" si="4"/>
         <v>0.64910020106473187</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <f t="shared" si="4"/>
         <v>0.73627044405290332</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="10.8" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="30" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f>1-E12</f>
         <v>0.27075405318107315</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <f t="shared" ref="F13:K13" si="5">1-F12</f>
         <v>0.13916728520433008</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <f t="shared" si="5"/>
         <v>0.29326682989427588</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <f t="shared" si="5"/>
         <v>0.18437743379963101</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f t="shared" si="5"/>
         <v>0.31760260210407099</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
         <f t="shared" si="5"/>
         <v>0.35089979893526813</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="27">
         <f t="shared" si="5"/>
         <v>0.26372955594709668</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="2">
@@ -1359,7 +1437,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="31"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
@@ -2519,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:13">
       <c r="A82" s="7" t="s">
         <v>36</v>
       </c>
@@ -2549,7 +2627,7 @@
         <v>808.01</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:13">
       <c r="A83" s="7" t="s">
         <v>37</v>
       </c>
@@ -2579,7 +2657,7 @@
         <v>889.6</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:13">
       <c r="A84" s="7" t="s">
         <v>38</v>
       </c>
@@ -2609,7 +2687,7 @@
         <v>3369.1900000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:13">
       <c r="D85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2632,7 +2710,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:13">
       <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
@@ -2659,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8">
+    <row r="87" spans="1:13" ht="28.8">
       <c r="E87" s="2" t="s">
         <v>39</v>
       </c>
@@ -2667,7 +2745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:13">
       <c r="A88" s="7" t="s">
         <v>41</v>
       </c>
@@ -2691,7 +2769,7 @@
         <v>3069.73</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:13">
       <c r="A89" s="7" t="s">
         <v>42</v>
       </c>
@@ -2715,7 +2793,7 @@
         <v>3103.4</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:13">
       <c r="A90" s="7" t="s">
         <v>38</v>
       </c>
@@ -2730,7 +2808,7 @@
         <v>432.69</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:13">
       <c r="D91" s="2" t="s">
         <v>13</v>
       </c>
@@ -2738,7 +2816,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:13">
       <c r="D92" s="2" t="s">
         <v>12</v>
       </c>
@@ -2750,157 +2828,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:13" s="33" customFormat="1">
+      <c r="A94" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="B94" s="32"/>
+      <c r="D94" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="33">
         <v>144.62</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="33">
         <v>78.709999999999994</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="33">
         <v>144.44</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="33">
         <v>3</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="33">
         <v>149.51</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="33">
         <v>144.72</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="33">
         <f>SUM(E94:J94)</f>
         <v>665</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="7" t="s">
+      <c r="M94" s="35"/>
+    </row>
+    <row r="95" spans="1:13" s="33" customFormat="1">
+      <c r="A95" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="B95" s="32"/>
+      <c r="D95" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="33">
         <v>166.8</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="33">
         <v>103.67</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="33">
         <v>136.87</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="33">
         <v>149.47999999999999</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="33">
         <v>119.86</v>
       </c>
-      <c r="J95" s="16">
+      <c r="J95" s="33">
         <v>122.31</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="33">
         <f t="shared" ref="K95:K98" si="15">SUM(E95:J95)</f>
         <v>798.99</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="7" t="s">
+      <c r="M95" s="35"/>
+    </row>
+    <row r="96" spans="1:13" s="33" customFormat="1">
+      <c r="A96" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="B96" s="32"/>
+      <c r="D96" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="33">
         <v>640.16999999999996</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="33">
         <v>411.56</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="33">
         <v>493.74</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="33">
         <v>469.39</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="33">
         <v>404.18</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="33">
         <v>422.04</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="33">
         <f t="shared" si="15"/>
         <v>2841.08</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="D97" s="2" t="s">
+      <c r="M96" s="35"/>
+    </row>
+    <row r="97" spans="1:13" s="33" customFormat="1">
+      <c r="A97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="D97" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="33">
         <v>147</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="33">
         <v>148</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="33">
         <v>147</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="33">
         <v>153</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="33">
         <v>148</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="33">
         <v>149</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="D98" s="2" t="s">
+      <c r="M97" s="35"/>
+    </row>
+    <row r="98" spans="1:13" s="33" customFormat="1">
+      <c r="A98" s="31"/>
+      <c r="B98" s="32"/>
+      <c r="D98" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="2">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2">
-        <v>0</v>
-      </c>
-      <c r="G98" s="2">
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="5">
-        <v>0</v>
-      </c>
-      <c r="K98" s="2">
+      <c r="E98" s="33">
+        <v>0</v>
+      </c>
+      <c r="F98" s="33">
+        <v>0</v>
+      </c>
+      <c r="G98" s="33">
+        <v>0</v>
+      </c>
+      <c r="H98" s="33">
+        <v>0</v>
+      </c>
+      <c r="I98" s="33">
+        <v>0</v>
+      </c>
+      <c r="J98" s="33">
+        <v>0</v>
+      </c>
+      <c r="K98" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="M98" s="35"/>
+    </row>
+    <row r="99" spans="1:13" hidden="1">
       <c r="G99" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="E100" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="7" t="s">
         <v>47</v>
       </c>
@@ -2930,7 +3020,7 @@
         <v>2823.1130370000001</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="7" t="s">
         <v>50</v>
       </c>
@@ -2960,80 +3050,81 @@
         <v>2647.3605939999998</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="16">
         <f>E102/E101</f>
         <v>0.93953529981808048</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="16">
         <f t="shared" ref="F103:K103" si="17">F102/F101</f>
         <v>0.92204442994599511</v>
       </c>
-      <c r="G103" s="17">
+      <c r="G103" s="16">
         <f t="shared" si="17"/>
         <v>0.93405833520908366</v>
       </c>
-      <c r="H103" s="17">
+      <c r="H103" s="16">
         <f t="shared" si="17"/>
         <v>0.93747579639656786</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I103" s="16">
         <f t="shared" si="17"/>
         <v>0.94673044371411008</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J103" s="16">
         <f t="shared" si="17"/>
         <v>0.9467278896382777</v>
       </c>
-      <c r="K103" s="17">
+      <c r="K103" s="16">
         <f t="shared" si="17"/>
         <v>0.93774516262842778</v>
       </c>
-      <c r="L103" s="23"/>
+      <c r="L103" s="22"/>
       <c r="M103" s="11">
         <v>1.06638779900189</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" t="s">
         <v>52</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E104" s="16">
         <f t="shared" ref="E104:K104" si="18">1-E103</f>
         <v>6.0464700181919517E-2</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="16">
         <f t="shared" si="18"/>
         <v>7.7955570054004886E-2</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="16">
         <f t="shared" si="18"/>
         <v>6.5941664790916343E-2</v>
       </c>
-      <c r="H104" s="17">
+      <c r="H104" s="16">
         <f t="shared" si="18"/>
         <v>6.2524203603432138E-2</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I104" s="16">
         <f t="shared" si="18"/>
         <v>5.3269556285889919E-2</v>
       </c>
-      <c r="J104" s="17">
+      <c r="J104" s="16">
         <f t="shared" si="18"/>
         <v>5.3272110361722302E-2</v>
       </c>
-      <c r="K104" s="17">
+      <c r="K104" s="16">
         <f t="shared" si="18"/>
         <v>6.2254837371572225E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="105" spans="1:13" hidden="1"/>
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" s="7" t="s">
         <v>53</v>
       </c>
@@ -3069,7 +3160,7 @@
         <v>876.77</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="7" t="s">
         <v>54</v>
       </c>
@@ -3099,7 +3190,7 @@
         <v>799.24</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
@@ -3126,7 +3217,7 @@
         <v>2842.66</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" hidden="1">
       <c r="D109" s="2" t="s">
         <v>13</v>
       </c>
@@ -3149,7 +3240,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1">
       <c r="D110" s="2" t="s">
         <v>12</v>
       </c>
@@ -3176,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="C111" s="7" t="s">
         <v>55</v>
       </c>
@@ -3206,7 +3297,7 @@
         <v>2840.0576380000002</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="C112" s="7" t="s">
         <v>55</v>
       </c>
@@ -3243,79 +3334,80 @@
         <v>2.0862561271593801E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="C113" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="24">
+      <c r="E113" s="23">
         <f>E111/E108-1</f>
         <v>1.9057453488917631E-3</v>
       </c>
-      <c r="F113" s="24">
+      <c r="F113" s="23">
         <f t="shared" ref="F113:K113" si="20">F111/F108-1</f>
         <v>-1.7684432954655827E-2</v>
       </c>
-      <c r="G113" s="24">
+      <c r="G113" s="23">
         <f t="shared" si="20"/>
         <v>-3.9239174464292814E-3</v>
       </c>
-      <c r="H113" s="24">
+      <c r="H113" s="23">
         <f t="shared" si="20"/>
         <v>-2.9459085195682189E-4</v>
       </c>
-      <c r="I113" s="24">
+      <c r="I113" s="23">
         <f t="shared" si="20"/>
         <v>9.5917879057798583E-3</v>
       </c>
-      <c r="J113" s="24">
+      <c r="J113" s="23">
         <f t="shared" si="20"/>
         <v>3.9267838578584957E-3</v>
       </c>
-      <c r="K113" s="24">
+      <c r="K113" s="23">
         <f t="shared" si="20"/>
         <v>-9.1546720325319519E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="C114" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E114" s="24">
+      <c r="E114" s="23">
         <f t="shared" ref="E114:K114" si="21">E112/E106-1</f>
         <v>-4.7434656340755166E-2</v>
       </c>
-      <c r="F114" s="24">
+      <c r="F114" s="23">
         <f t="shared" si="21"/>
         <v>-3.0110532333883722E-2</v>
       </c>
-      <c r="G114" s="24">
+      <c r="G114" s="23">
         <f t="shared" si="21"/>
         <v>-4.6524508446413759E-2</v>
       </c>
-      <c r="H114" s="24">
+      <c r="H114" s="23">
         <f t="shared" si="21"/>
         <v>-3.189458490478192E-2</v>
       </c>
-      <c r="I114" s="24">
+      <c r="I114" s="23">
         <f t="shared" si="21"/>
         <v>-4.5816333355628402E-2</v>
       </c>
-      <c r="J114" s="24">
+      <c r="J114" s="23">
         <f t="shared" si="21"/>
         <v>-4.5605306799336609E-2</v>
       </c>
-      <c r="K114" s="24">
+      <c r="K114" s="23">
         <f t="shared" si="21"/>
         <v>-4.1344936528393994E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="115" spans="1:13" hidden="1"/>
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="7" t="s">
         <v>58</v>
       </c>
@@ -3348,7 +3440,7 @@
         <v>876.76999899999987</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="7" t="s">
         <v>59</v>
       </c>
@@ -3358,36 +3450,37 @@
       <c r="D117" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E117" s="24">
+      <c r="E117" s="23">
         <f>E116/E106-1</f>
         <v>-6.0638431752179089E-3</v>
       </c>
-      <c r="F117" s="24">
+      <c r="F117" s="23">
         <f t="shared" ref="F117:K117" si="23">F116/F106-1</f>
         <v>1.1718917545419982E-2</v>
       </c>
-      <c r="G117" s="24">
+      <c r="G117" s="23">
         <f t="shared" si="23"/>
         <v>-5.8362711160342418E-3</v>
       </c>
-      <c r="H117" s="24">
+      <c r="H117" s="23">
         <f t="shared" si="23"/>
         <v>1.0052204684080523E-2</v>
       </c>
-      <c r="I117" s="24">
+      <c r="I117" s="23">
         <f t="shared" si="23"/>
         <v>-2.9897665707979693E-3</v>
       </c>
-      <c r="J117" s="24">
+      <c r="J117" s="23">
         <f t="shared" si="23"/>
         <v>-6.3181661138751455E-3</v>
       </c>
-      <c r="K117" s="24">
+      <c r="K117" s="23">
         <f t="shared" si="23"/>
         <v>-1.1405500988104222E-9</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="118" spans="1:13" hidden="1"/>
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="7" t="s">
         <v>60</v>
       </c>
@@ -3417,7 +3510,7 @@
         <v>876.77</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="7" t="s">
         <v>61</v>
       </c>
@@ -3447,7 +3540,7 @@
         <v>2842.66</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="C121" s="7" t="s">
         <v>55</v>
       </c>
@@ -3484,7 +3577,7 @@
         <v>1.4567355660715</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="C122" s="7" t="s">
         <v>55</v>
       </c>
@@ -3521,79 +3614,80 @@
         <v>2.1002491256647299E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="C123" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="24">
+      <c r="E123" s="23">
         <f>E121/E108-1</f>
         <v>-0.24808152365777836</v>
       </c>
-      <c r="F123" s="24">
+      <c r="F123" s="23">
         <f t="shared" ref="F123:K123" si="25">F121/F108-1</f>
         <v>-0.37047161617632784</v>
       </c>
-      <c r="G123" s="24">
+      <c r="G123" s="23">
         <f t="shared" si="25"/>
         <v>-0.33061507068497586</v>
       </c>
-      <c r="H123" s="24">
+      <c r="H123" s="23">
         <f t="shared" si="25"/>
         <v>-0.32344172010481687</v>
       </c>
-      <c r="I123" s="24">
+      <c r="I123" s="23">
         <f t="shared" si="25"/>
         <v>-0.31060674732779103</v>
       </c>
-      <c r="J123" s="24">
+      <c r="J123" s="23">
         <f t="shared" si="25"/>
         <v>-0.32899208250637935</v>
       </c>
-      <c r="K123" s="17">
+      <c r="K123" s="16">
         <f t="shared" si="25"/>
         <v>-0.31353361358727394</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="C124" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E124" s="24">
+      <c r="E124" s="23">
         <f>E122/E106-1</f>
         <v>-5.3796155441847571E-2</v>
       </c>
-      <c r="F124" s="24">
+      <c r="F124" s="23">
         <f t="shared" ref="F124:K124" si="26">F122/F106-1</f>
         <v>-4.2053106339727919E-2</v>
       </c>
-      <c r="G124" s="24">
+      <c r="G124" s="23">
         <f t="shared" si="26"/>
         <v>-5.414012738853502E-2</v>
       </c>
-      <c r="H124" s="24">
+      <c r="H124" s="23">
         <f t="shared" si="26"/>
         <v>-3.5991991432695492E-2</v>
       </c>
-      <c r="I124" s="24">
+      <c r="I124" s="23">
         <f t="shared" si="26"/>
         <v>-5.0899605377566659E-2</v>
       </c>
-      <c r="J124" s="24">
+      <c r="J124" s="23">
         <f t="shared" si="26"/>
         <v>-5.2515201768933095E-2</v>
       </c>
-      <c r="K124" s="24">
+      <c r="K124" s="23">
         <f t="shared" si="26"/>
         <v>-4.7732016378297604E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="125" spans="1:13" hidden="1"/>
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="7" t="s">
         <v>64</v>
       </c>
@@ -3629,7 +3723,7 @@
         <v>876.77</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
@@ -3732,31 +3826,31 @@
       <c r="D130" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E130" s="24">
+      <c r="E130" s="23">
         <f>E128/E127-1</f>
         <v>9.5347176531233924E-2</v>
       </c>
-      <c r="F130" s="24">
+      <c r="F130" s="23">
         <f t="shared" ref="F130:K130" si="28">F128/F127-1</f>
         <v>-8.1961649189241537E-2</v>
       </c>
-      <c r="G130" s="24">
+      <c r="G130" s="23">
         <f t="shared" si="28"/>
         <v>-2.4819743184672061E-2</v>
       </c>
-      <c r="H130" s="24">
+      <c r="H130" s="23">
         <f t="shared" si="28"/>
         <v>-1.4530254159654032E-2</v>
       </c>
-      <c r="I130" s="24">
+      <c r="I130" s="23">
         <f t="shared" si="28"/>
         <v>4.184827790973733E-3</v>
       </c>
-      <c r="J130" s="24">
+      <c r="J130" s="23">
         <f t="shared" si="28"/>
         <v>-2.4661031566014624E-2</v>
       </c>
-      <c r="K130" s="24">
+      <c r="K130" s="23">
         <f t="shared" si="28"/>
         <v>-1.9262592079238861E-4</v>
       </c>
@@ -3771,31 +3865,31 @@
       <c r="D131" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E131" s="24">
+      <c r="E131" s="23">
         <f>E129/E126-1</f>
         <v>-6.2228737380722876E-3</v>
       </c>
-      <c r="F131" s="24">
+      <c r="F131" s="23">
         <f t="shared" ref="F131:K131" si="29">F129/F126-1</f>
         <v>7.2977258289925739E-3</v>
       </c>
-      <c r="G131" s="24">
+      <c r="G131" s="23">
         <f t="shared" si="29"/>
         <v>-5.5660620326778432E-3</v>
       </c>
-      <c r="H131" s="24">
+      <c r="H131" s="23">
         <f t="shared" si="29"/>
         <v>1.1839535316850558E-2</v>
       </c>
-      <c r="I131" s="24">
+      <c r="I131" s="23">
         <f t="shared" si="29"/>
         <v>-4.0287405524712661E-3</v>
       </c>
-      <c r="J131" s="24">
+      <c r="J131" s="23">
         <f t="shared" si="29"/>
         <v>-6.0388128800442642E-3</v>
       </c>
-      <c r="K131" s="24">
+      <c r="K131" s="23">
         <f t="shared" si="29"/>
         <v>-7.1862632161190376E-5</v>
       </c>
@@ -3831,71 +3925,206 @@
       <c r="D133" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E133" s="25">
+      <c r="E133" s="24">
         <f>E132/E128</f>
         <v>0.44595289518507508</v>
       </c>
-      <c r="F133" s="25">
+      <c r="F133" s="24">
         <f>F132/F128</f>
         <v>0.82323272640995937</v>
       </c>
-      <c r="G133" s="25">
+      <c r="G133" s="24">
         <f t="shared" ref="G133:K133" si="31">G132/G128</f>
         <v>0.66158781936319988</v>
       </c>
-      <c r="H133" s="25">
+      <c r="H133" s="24">
         <f t="shared" si="31"/>
         <v>0.65072564510956099</v>
       </c>
-      <c r="I133" s="25">
+      <c r="I133" s="24">
         <f t="shared" si="31"/>
         <v>0.63343263077559386</v>
       </c>
-      <c r="J133" s="25">
+      <c r="J133" s="24">
         <f t="shared" si="31"/>
         <v>0.67392301060992943</v>
       </c>
-      <c r="K133" s="25">
+      <c r="K133" s="24">
         <f t="shared" si="31"/>
         <v>0.62589920730194326</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E134" s="25">
+      <c r="E134" s="24">
         <f>1-E133</f>
         <v>0.55404710481492492</v>
       </c>
-      <c r="F134" s="25">
+      <c r="F134" s="24">
         <f t="shared" ref="F134:K134" si="32">1-F133</f>
         <v>0.17676727359004063</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="24">
         <f t="shared" si="32"/>
         <v>0.33841218063680012</v>
       </c>
-      <c r="H134" s="25">
+      <c r="H134" s="24">
         <f t="shared" si="32"/>
         <v>0.34927435489043901</v>
       </c>
-      <c r="I134" s="25">
+      <c r="I134" s="24">
         <f t="shared" si="32"/>
         <v>0.36656736922440614</v>
       </c>
-      <c r="J134" s="25">
+      <c r="J134" s="24">
         <f t="shared" si="32"/>
         <v>0.32607698939007057</v>
       </c>
-      <c r="K134" s="25">
+      <c r="K134" s="24">
         <f t="shared" si="32"/>
         <v>0.37410079269805674</v>
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="25" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1">
+      <c r="A137" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2">
+        <v>145.22</v>
+      </c>
+      <c r="J137" s="5">
+        <v>146.71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1">
+      <c r="A138" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="2">
+        <v>180.94</v>
+      </c>
+      <c r="J138" s="5">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1">
+      <c r="A139" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="2">
+        <v>708.69</v>
+      </c>
+      <c r="J139" s="5">
+        <v>505.79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1">
+      <c r="A140" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="2">
+        <v>146</v>
+      </c>
+      <c r="J140" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1">
+      <c r="D141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1">
+      <c r="D142" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1"/>
+    <row r="144" spans="1:11" hidden="1">
+      <c r="A144" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1">
+      <c r="E145" s="11"/>
+    </row>
+    <row r="146" spans="1:6" hidden="1">
+      <c r="A146" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1"/>
+    <row r="148" spans="1:6" hidden="1">
+      <c r="A148" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="D151" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3907,12 +4136,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="28.8">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>614.37</v>
+      </c>
+      <c r="D3" s="7">
+        <v>413.46</v>
+      </c>
+      <c r="E3" s="7">
+        <v>496.01</v>
+      </c>
+      <c r="F3" s="7">
+        <v>473.17</v>
+      </c>
+      <c r="G3" s="7">
+        <v>406.19</v>
+      </c>
+      <c r="H3" s="7">
+        <v>421.72</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I11" si="0">SUM(C3:H3)</f>
+        <v>2824.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>616.22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>419.04</v>
+      </c>
+      <c r="E4" s="7">
+        <v>500.82</v>
+      </c>
+      <c r="F4" s="7">
+        <v>473.74</v>
+      </c>
+      <c r="G4" s="7">
+        <v>409.67</v>
+      </c>
+      <c r="H4" s="7">
+        <v>426.87</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2846.3599999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>640.16999999999996</v>
+      </c>
+      <c r="D7" s="7">
+        <v>411.56</v>
+      </c>
+      <c r="E7" s="7">
+        <v>493.74</v>
+      </c>
+      <c r="F7" s="7">
+        <v>469.39</v>
+      </c>
+      <c r="G7" s="7">
+        <v>404.18</v>
+      </c>
+      <c r="H7" s="7">
+        <v>422.04</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>2841.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15" s="7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="H16" s="7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="7">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A6296-A92B-4155-A590-BE4A21DA26EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C50FF-BB03-47B9-B69D-1E2873C1C6F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -915,27 +915,27 @@
   <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51:K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.53125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
     <col min="6" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.86328125" style="2"/>
+    <col min="11" max="11" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25">
+    <row r="1" spans="1:13" ht="22.8">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="27">
+    <row r="79" spans="1:11" ht="28.8">
       <c r="E79" s="2" t="s">
         <v>39</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0.62589920730194326</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="27">
+    <row r="126" spans="1:13" ht="28.8">
       <c r="D126" s="2" t="s">
         <v>63</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="27">
+    <row r="130" spans="1:11" ht="28.8">
       <c r="A130" s="7" t="s">
         <v>82</v>
       </c>
@@ -3797,10 +3797,6 @@
       </c>
       <c r="J134" s="5">
         <v>146</v>
-      </c>
-      <c r="K134" s="2">
-        <f t="shared" si="28"/>
-        <v>825</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -3845,7 +3841,7 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
@@ -4129,9 +4125,9 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C50FF-BB03-47B9-B69D-1E2873C1C6F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4940633D-EE61-4E5B-A1CA-6C011422CD1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>Dirt6</t>
   </si>
@@ -374,6 +374,14 @@
   </si>
   <si>
     <t>E-road</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -912,12 +920,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51:K51"/>
+      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3824,6 +3832,184 @@
       <c r="K135" s="2">
         <f t="shared" si="28"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B137" s="4">
+        <v>43543</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E137" s="2">
+        <v>165.71</v>
+      </c>
+      <c r="F137" s="2">
+        <v>77.67</v>
+      </c>
+      <c r="G137" s="2">
+        <v>143.51</v>
+      </c>
+      <c r="H137" s="2">
+        <v>213.7</v>
+      </c>
+      <c r="I137" s="2">
+        <v>148.54</v>
+      </c>
+      <c r="J137" s="5">
+        <v>143.75</v>
+      </c>
+      <c r="K137" s="2">
+        <f>SUM(E137:J137)</f>
+        <v>892.87999999999988</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="D138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="2">
+        <v>130.69</v>
+      </c>
+      <c r="F138" s="2">
+        <v>92.08</v>
+      </c>
+      <c r="G138" s="2">
+        <v>127.1</v>
+      </c>
+      <c r="H138" s="2">
+        <v>140.58000000000001</v>
+      </c>
+      <c r="I138" s="2">
+        <v>112.75</v>
+      </c>
+      <c r="J138" s="5">
+        <v>113.44</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" ref="K138:K141" si="29">SUM(E138:J138)</f>
+        <v>716.6400000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="D139" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E139" s="2">
+        <v>437.38</v>
+      </c>
+      <c r="F139" s="2">
+        <v>356.05</v>
+      </c>
+      <c r="G139" s="2">
+        <v>447.02</v>
+      </c>
+      <c r="H139" s="2">
+        <v>427.05</v>
+      </c>
+      <c r="I139" s="2">
+        <v>370.53</v>
+      </c>
+      <c r="J139" s="5">
+        <v>379.76</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="29"/>
+        <v>2417.79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="D140" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E140" s="2">
+        <v>85</v>
+      </c>
+      <c r="F140" s="2">
+        <v>148</v>
+      </c>
+      <c r="G140" s="2">
+        <v>147</v>
+      </c>
+      <c r="H140" s="2">
+        <v>153</v>
+      </c>
+      <c r="I140" s="2">
+        <v>148</v>
+      </c>
+      <c r="J140" s="5">
+        <v>149</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="29"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="D141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B143" s="4">
+        <v>43543</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="D144" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4940633D-EE61-4E5B-A1CA-6C011422CD1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5F728-279E-4229-91E1-EC93FA74FE5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>Dirt6</t>
   </si>
@@ -381,6 +381,14 @@
   </si>
   <si>
     <t>1.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirt6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectedSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +595,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,12 +937,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
+      <selection pane="bottomLeft" activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3671,7 +3688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="28.8">
+    <row r="130" spans="1:14" ht="28.8">
       <c r="A130" s="7" t="s">
         <v>82</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:14">
       <c r="D131" s="2" t="s">
         <v>83</v>
       </c>
@@ -3730,7 +3747,7 @@
         <v>898.29</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:14">
       <c r="D132" s="2" t="s">
         <v>84</v>
       </c>
@@ -3757,7 +3774,7 @@
         <v>732.43</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:14">
       <c r="D133" s="2" t="s">
         <v>85</v>
       </c>
@@ -3784,7 +3801,7 @@
         <v>2488.4100000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:14">
       <c r="D134" s="2" t="s">
         <v>86</v>
       </c>
@@ -3807,7 +3824,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:14">
       <c r="D135" s="2" t="s">
         <v>87</v>
       </c>
@@ -3834,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:14">
       <c r="A137" s="7" t="s">
         <v>90</v>
       </c>
@@ -3870,7 +3887,7 @@
         <v>892.87999999999988</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:14">
       <c r="D138" s="2" t="s">
         <v>84</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>716.6400000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:14">
       <c r="D139" s="2" t="s">
         <v>85</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>2417.79</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:14">
       <c r="D140" s="2" t="s">
         <v>86</v>
       </c>
@@ -3951,7 +3968,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:14">
       <c r="D141" s="2" t="s">
         <v>87</v>
       </c>
@@ -3978,38 +3995,198 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="7" t="s">
+    <row r="143" spans="1:14">
+      <c r="D143" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B144" s="4">
         <v>43543</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C144" s="3">
         <v>0.82916666666666661</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="D144" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="2" t="s">
+      <c r="D144" s="2">
+        <v>95</v>
+      </c>
+      <c r="E144" s="2">
+        <v>22</v>
+      </c>
+      <c r="F144" s="2">
+        <v>126.48</v>
+      </c>
+      <c r="I144" s="2">
+        <v>18</v>
+      </c>
+      <c r="J144" s="5">
+        <v>19</v>
+      </c>
+      <c r="K144" s="2">
+        <v>20</v>
+      </c>
+      <c r="L144" s="2">
+        <v>21</v>
+      </c>
+      <c r="M144" s="2">
+        <v>22</v>
+      </c>
+      <c r="N144" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14">
+      <c r="D145" s="2">
+        <v>90</v>
+      </c>
+      <c r="E145" s="2">
+        <v>20</v>
+      </c>
+      <c r="F145" s="2">
+        <v>130</v>
+      </c>
+      <c r="H145" s="2">
+        <v>95</v>
+      </c>
+      <c r="M145" s="2">
+        <v>126.48</v>
+      </c>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" spans="4:14">
+      <c r="D146" s="2">
+        <v>90</v>
+      </c>
+      <c r="E146" s="2">
+        <v>22</v>
+      </c>
+      <c r="F146" s="2">
+        <v>125.19</v>
+      </c>
+      <c r="H146" s="2">
+        <v>90</v>
+      </c>
+      <c r="I146" s="2">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="J146" s="2">
+        <v>139.11000000000001</v>
+      </c>
+      <c r="K146" s="2">
+        <v>130</v>
+      </c>
+      <c r="M146" s="2">
+        <v>125.19</v>
+      </c>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" spans="4:14">
+      <c r="D147" s="2">
+        <v>90</v>
+      </c>
+      <c r="E147" s="2">
+        <v>18</v>
+      </c>
+      <c r="F147" s="2">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="H147" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="147" spans="4:4">
-      <c r="D147" s="2" t="s">
-        <v>87</v>
+      <c r="I147" s="2">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="M147" s="27">
+        <v>124.33</v>
+      </c>
+      <c r="N147" s="2">
+        <v>131.75</v>
+      </c>
+    </row>
+    <row r="148" spans="4:14">
+      <c r="D148" s="2">
+        <v>90</v>
+      </c>
+      <c r="E148" s="2">
+        <v>19</v>
+      </c>
+      <c r="F148" s="2">
+        <v>139.11000000000001</v>
+      </c>
+      <c r="H148" s="2">
+        <v>80</v>
+      </c>
+      <c r="M148" s="2">
+        <v>123.94</v>
+      </c>
+      <c r="N148" s="11"/>
+    </row>
+    <row r="149" spans="4:14">
+      <c r="D149" s="2">
+        <v>85</v>
+      </c>
+      <c r="E149" s="2">
+        <v>18</v>
+      </c>
+      <c r="F149" s="2">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="H149" s="2">
+        <v>75</v>
+      </c>
+      <c r="M149" s="2">
+        <v>124.44</v>
+      </c>
+      <c r="N149" s="11"/>
+    </row>
+    <row r="150" spans="4:14">
+      <c r="D150" s="2">
+        <v>85</v>
+      </c>
+      <c r="E150" s="2">
+        <v>23</v>
+      </c>
+      <c r="F150" s="2">
+        <v>131.75</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14">
+      <c r="D151" s="27">
+        <v>85</v>
+      </c>
+      <c r="E151" s="27">
+        <v>22</v>
+      </c>
+      <c r="F151" s="27">
+        <v>124.33</v>
+      </c>
+    </row>
+    <row r="152" spans="4:14">
+      <c r="D152" s="2">
+        <v>80</v>
+      </c>
+      <c r="E152" s="2">
+        <v>22</v>
+      </c>
+      <c r="F152" s="2">
+        <v>123.94</v>
+      </c>
+    </row>
+    <row r="153" spans="4:14">
+      <c r="D153" s="2">
+        <v>75</v>
+      </c>
+      <c r="E153" s="2">
+        <v>22</v>
+      </c>
+      <c r="F153" s="2">
+        <v>124.44</v>
       </c>
     </row>
   </sheetData>

--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5F728-279E-4229-91E1-EC93FA74FE5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431412D7-0184-4681-8DF6-47F751CA493B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,13 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
   <si>
     <t>Dirt6</t>
   </si>
@@ -389,6 +390,10 @@
   </si>
   <si>
     <t>expectedSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,19 +942,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J148" sqref="J148"/>
+      <selection pane="bottomLeft" activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
     <col min="6" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -3688,7 +3693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="28.8">
+    <row r="130" spans="1:11" ht="28.8">
       <c r="A130" s="7" t="s">
         <v>82</v>
       </c>
@@ -3720,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:11">
       <c r="D131" s="2" t="s">
         <v>83</v>
       </c>
@@ -3747,7 +3752,7 @@
         <v>898.29</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:11">
       <c r="D132" s="2" t="s">
         <v>84</v>
       </c>
@@ -3774,7 +3779,7 @@
         <v>732.43</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:11">
       <c r="D133" s="2" t="s">
         <v>85</v>
       </c>
@@ -3801,7 +3806,7 @@
         <v>2488.4100000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:11">
       <c r="D134" s="2" t="s">
         <v>86</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:11">
       <c r="D135" s="2" t="s">
         <v>87</v>
       </c>
@@ -3851,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:11">
       <c r="A137" s="7" t="s">
         <v>90</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>892.87999999999988</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:11">
       <c r="D138" s="2" t="s">
         <v>84</v>
       </c>
@@ -3914,7 +3919,7 @@
         <v>716.6400000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:11">
       <c r="D139" s="2" t="s">
         <v>85</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>2417.79</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:11">
       <c r="D140" s="2" t="s">
         <v>86</v>
       </c>
@@ -3963,12 +3968,8 @@
       <c r="J140" s="5">
         <v>149</v>
       </c>
-      <c r="K140" s="2">
-        <f t="shared" si="29"/>
-        <v>830</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+    </row>
+    <row r="141" spans="1:11">
       <c r="D141" s="2" t="s">
         <v>87</v>
       </c>
@@ -3995,198 +3996,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
-      <c r="D143" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B144" s="4">
+    <row r="143" spans="1:11">
+      <c r="A143" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="4">
         <v>43543</v>
       </c>
-      <c r="C144" s="3">
-        <v>0.82916666666666661</v>
-      </c>
-      <c r="D144" s="2">
-        <v>95</v>
+      <c r="C143" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143" s="2">
+        <v>169.04</v>
+      </c>
+      <c r="F143" s="2">
+        <v>77.67</v>
+      </c>
+      <c r="G143" s="2">
+        <v>143.51</v>
+      </c>
+      <c r="H143" s="2">
+        <v>213.7</v>
+      </c>
+      <c r="I143" s="2">
+        <v>148.54</v>
+      </c>
+      <c r="J143" s="5">
+        <v>143.75</v>
+      </c>
+      <c r="K143" s="2">
+        <f>SUM(E143:J143)</f>
+        <v>896.20999999999992</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="D144" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E144" s="2">
-        <v>22</v>
+        <v>123.73</v>
       </c>
       <c r="F144" s="2">
-        <v>126.48</v>
+        <v>92.08</v>
+      </c>
+      <c r="G144" s="2">
+        <v>127.11</v>
+      </c>
+      <c r="H144" s="2">
+        <v>140.58000000000001</v>
       </c>
       <c r="I144" s="2">
-        <v>18</v>
+        <v>112.75</v>
       </c>
       <c r="J144" s="5">
-        <v>19</v>
+        <v>113.35</v>
       </c>
       <c r="K144" s="2">
-        <v>20</v>
-      </c>
-      <c r="L144" s="2">
-        <v>21</v>
-      </c>
-      <c r="M144" s="2">
-        <v>22</v>
-      </c>
-      <c r="N144" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="4:14">
-      <c r="D145" s="2">
-        <v>90</v>
+        <f>SUM(E144:J144)</f>
+        <v>709.6</v>
+      </c>
+    </row>
+    <row r="145" spans="4:11">
+      <c r="D145" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E145" s="2">
-        <v>20</v>
+        <v>399.21</v>
       </c>
       <c r="F145" s="2">
-        <v>130</v>
+        <v>356.05</v>
+      </c>
+      <c r="G145" s="2">
+        <v>477.04</v>
       </c>
       <c r="H145" s="2">
-        <v>95</v>
-      </c>
-      <c r="M145" s="2">
-        <v>126.48</v>
-      </c>
-      <c r="N145" s="11"/>
-    </row>
-    <row r="146" spans="4:14">
-      <c r="D146" s="2">
-        <v>90</v>
+        <v>427.04</v>
+      </c>
+      <c r="I145" s="2">
+        <v>370.54</v>
+      </c>
+      <c r="J145" s="5">
+        <v>379.31</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" ref="K144:K147" si="30">SUM(E145:J145)</f>
+        <v>2409.19</v>
+      </c>
+    </row>
+    <row r="146" spans="4:11">
+      <c r="D146" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E146" s="2">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2">
-        <v>125.19</v>
+        <v>148</v>
+      </c>
+      <c r="G146" s="2">
+        <v>147</v>
       </c>
       <c r="H146" s="2">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="I146" s="2">
-        <v>148.33000000000001</v>
-      </c>
-      <c r="J146" s="2">
-        <v>139.11000000000001</v>
+        <v>148</v>
+      </c>
+      <c r="J146" s="5">
+        <v>149</v>
       </c>
       <c r="K146" s="2">
-        <v>130</v>
-      </c>
-      <c r="M146" s="2">
-        <v>125.19</v>
-      </c>
-      <c r="N146" s="11"/>
-    </row>
-    <row r="147" spans="4:14">
-      <c r="D147" s="2">
-        <v>90</v>
+        <f t="shared" si="30"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="147" spans="4:11">
+      <c r="D147" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E147" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2">
-        <v>148.33000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
       </c>
       <c r="H147" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I147" s="2">
-        <v>149.41999999999999</v>
-      </c>
-      <c r="M147" s="27">
-        <v>124.33</v>
-      </c>
-      <c r="N147" s="2">
-        <v>131.75</v>
-      </c>
-    </row>
-    <row r="148" spans="4:14">
-      <c r="D148" s="2">
-        <v>90</v>
-      </c>
-      <c r="E148" s="2">
-        <v>19</v>
-      </c>
-      <c r="F148" s="2">
-        <v>139.11000000000001</v>
-      </c>
-      <c r="H148" s="2">
-        <v>80</v>
-      </c>
-      <c r="M148" s="2">
-        <v>123.94</v>
-      </c>
-      <c r="N148" s="11"/>
-    </row>
-    <row r="149" spans="4:14">
-      <c r="D149" s="2">
-        <v>85</v>
-      </c>
-      <c r="E149" s="2">
-        <v>18</v>
-      </c>
-      <c r="F149" s="2">
-        <v>149.41999999999999</v>
-      </c>
-      <c r="H149" s="2">
-        <v>75</v>
-      </c>
-      <c r="M149" s="2">
-        <v>124.44</v>
-      </c>
-      <c r="N149" s="11"/>
-    </row>
-    <row r="150" spans="4:14">
-      <c r="D150" s="2">
-        <v>85</v>
-      </c>
-      <c r="E150" s="2">
-        <v>23</v>
-      </c>
-      <c r="F150" s="2">
-        <v>131.75</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14">
-      <c r="D151" s="27">
-        <v>85</v>
-      </c>
-      <c r="E151" s="27">
-        <v>22</v>
-      </c>
-      <c r="F151" s="27">
-        <v>124.33</v>
-      </c>
-    </row>
-    <row r="152" spans="4:14">
-      <c r="D152" s="2">
-        <v>80</v>
-      </c>
-      <c r="E152" s="2">
-        <v>22</v>
-      </c>
-      <c r="F152" s="2">
-        <v>123.94</v>
-      </c>
-    </row>
-    <row r="153" spans="4:14">
-      <c r="D153" s="2">
-        <v>75</v>
-      </c>
-      <c r="E153" s="2">
-        <v>22</v>
-      </c>
-      <c r="F153" s="2">
-        <v>124.44</v>
+        <v>0</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4817,4 +4768,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0973C06-EE54-4D2C-BA91-7F39CF558855}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43543</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="D2" s="2">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>126.48</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>21.95</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>130</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>95</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <v>126.48</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>125.19</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>139.11000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>130</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>125.19</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>125.47</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="27">
+        <v>124.33</v>
+      </c>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="2">
+        <v>131.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>90</v>
+      </c>
+      <c r="E6" s="2">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>139.11000000000001</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>124.07</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="27">
+        <v>124.12</v>
+      </c>
+      <c r="P6" s="27">
+        <v>126.09</v>
+      </c>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>126</v>
+      </c>
+      <c r="M7" s="2">
+        <v>124.19</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="27">
+        <v>123.94</v>
+      </c>
+      <c r="P7" s="2">
+        <v>125.43</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>129.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>131.75</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>124.43</v>
+      </c>
+      <c r="N8" s="16">
+        <v>123.73</v>
+      </c>
+      <c r="O8" s="27">
+        <v>123.77</v>
+      </c>
+      <c r="P8" s="2">
+        <v>125.13</v>
+      </c>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="27">
+        <v>85</v>
+      </c>
+      <c r="E9" s="27">
+        <v>22</v>
+      </c>
+      <c r="F9" s="27">
+        <v>124.33</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>127.71</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>124.44</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="11">
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431412D7-0184-4681-8DF6-47F751CA493B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B716A0D-0B49-4764-90B8-64D46711D52C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5724" yWindow="3048" windowWidth="13788" windowHeight="8424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="97">
   <si>
     <t>Dirt6</t>
   </si>
@@ -394,6 +395,13 @@
   </si>
   <si>
     <t>1.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_err = 2 * (_yaw - 3.2 * atan2(_midline[1][0], _midline[1][1]));</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,12 +950,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L150" sqref="L150"/>
+      <selection pane="bottomLeft" activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4059,7 +4067,7 @@
         <v>709.6</v>
       </c>
     </row>
-    <row r="145" spans="4:11">
+    <row r="145" spans="1:11">
       <c r="D145" s="2" t="s">
         <v>85</v>
       </c>
@@ -4082,11 +4090,11 @@
         <v>379.31</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" ref="K144:K147" si="30">SUM(E145:J145)</f>
+        <f t="shared" ref="K145:K147" si="30">SUM(E145:J145)</f>
         <v>2409.19</v>
       </c>
     </row>
-    <row r="146" spans="4:11">
+    <row r="146" spans="1:11">
       <c r="D146" s="2" t="s">
         <v>86</v>
       </c>
@@ -4113,7 +4121,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="147" spans="4:11">
+    <row r="147" spans="1:11">
       <c r="D147" s="2" t="s">
         <v>87</v>
       </c>
@@ -4138,6 +4146,20 @@
       <c r="K147" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E149">
+        <v>123.07</v>
+      </c>
+      <c r="K149" s="2">
+        <v>708.94</v>
       </c>
     </row>
   </sheetData>
@@ -5092,5 +5114,165 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A74C66C-C75A-4A04-8309-E6ACDCE3A3D7}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>132.02000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>124.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>123.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C6">
+        <v>123.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4.05</v>
+      </c>
+      <c r="C7">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C8">
+        <v>123.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>123.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>3.99</v>
+      </c>
+      <c r="C11">
+        <v>123.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>3.98</v>
+      </c>
+      <c r="C12">
+        <v>123.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3.95</v>
+      </c>
+      <c r="C13">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>3.9</v>
+      </c>
+      <c r="C14">
+        <v>123.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>3.8</v>
+      </c>
+      <c r="C15">
+        <v>123.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>3.6</v>
+      </c>
+      <c r="C16">
+        <v>123.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>3.4</v>
+      </c>
+      <c r="C17">
+        <v>123.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3.2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>123.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B716A0D-0B49-4764-90B8-64D46711D52C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D461CCE-4F6C-4DD8-8A93-0294A0729F9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="3048" windowWidth="13788" windowHeight="8424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="104">
   <si>
     <t>Dirt6</t>
   </si>
@@ -402,6 +403,34 @@
   </si>
   <si>
     <t>1.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120-250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>let120to250 = 7.700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250to490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,6 +640,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,12 +991,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J154" sqref="J154"/>
+      <selection pane="bottomLeft" activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4116,10 +4157,6 @@
       <c r="J146" s="5">
         <v>149</v>
       </c>
-      <c r="K146" s="2">
-        <f t="shared" si="30"/>
-        <v>819</v>
-      </c>
     </row>
     <row r="147" spans="1:11">
       <c r="D147" s="2" t="s">
@@ -4160,6 +4197,167 @@
       </c>
       <c r="K149" s="2">
         <v>708.94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E151" s="2">
+        <v>169.04</v>
+      </c>
+      <c r="F151" s="2">
+        <v>77.55</v>
+      </c>
+      <c r="G151" s="2">
+        <v>143.51</v>
+      </c>
+      <c r="H151" s="2">
+        <v>213.7</v>
+      </c>
+      <c r="I151" s="2">
+        <v>148.51</v>
+      </c>
+      <c r="J151" s="5">
+        <v>143.66999999999999</v>
+      </c>
+      <c r="K151" s="2">
+        <f>SUM(E151:J151)</f>
+        <v>895.9799999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="D152" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E152" s="2">
+        <v>124.23</v>
+      </c>
+      <c r="F152" s="2">
+        <v>92.1</v>
+      </c>
+      <c r="G152" s="2">
+        <v>127.1</v>
+      </c>
+      <c r="H152" s="2">
+        <v>140.62</v>
+      </c>
+      <c r="I152" s="2">
+        <v>112.74</v>
+      </c>
+      <c r="J152" s="5">
+        <v>113.26</v>
+      </c>
+      <c r="K152" s="2">
+        <f>SUM(E152:J152)</f>
+        <v>710.05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="D153" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E153" s="2">
+        <v>401.67</v>
+      </c>
+      <c r="F153" s="2">
+        <v>356.32</v>
+      </c>
+      <c r="G153" s="2">
+        <v>447.02</v>
+      </c>
+      <c r="H153" s="2">
+        <v>427.25</v>
+      </c>
+      <c r="I153" s="2">
+        <v>370.52</v>
+      </c>
+      <c r="J153" s="5">
+        <v>378.99</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" ref="K153:K155" si="31">SUM(E153:J153)</f>
+        <v>2381.77</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="D154" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E154" s="2">
+        <v>74</v>
+      </c>
+      <c r="F154" s="2">
+        <v>148</v>
+      </c>
+      <c r="G154" s="2">
+        <v>147</v>
+      </c>
+      <c r="H154" s="2">
+        <v>153</v>
+      </c>
+      <c r="I154" s="2">
+        <v>148</v>
+      </c>
+      <c r="J154" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="D155" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="5">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E157" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="F157" s="7">
+        <v>91.56</v>
+      </c>
+      <c r="G157" s="7">
+        <v>125.42</v>
+      </c>
+      <c r="H157" s="7">
+        <v>138.01</v>
+      </c>
+      <c r="I157" s="7">
+        <v>111.34</v>
+      </c>
+      <c r="J157" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="K157" s="29">
+        <f>SUM(E157:J157)</f>
+        <v>702.15</v>
       </c>
     </row>
   </sheetData>
@@ -5274,5 +5472,2232 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487912E4-100A-496D-B5CB-BE780A5844C4}">
+  <dimension ref="A1:H122"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109:H109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="7" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="8.88671875" style="29"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
+      <c r="A3" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>124.23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>127.11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>140.62</v>
+      </c>
+      <c r="F3" s="2">
+        <v>112.75</v>
+      </c>
+      <c r="G3" s="5">
+        <v>113.33</v>
+      </c>
+      <c r="H3" s="29">
+        <f>SUM(B3:G3)</f>
+        <v>710.16000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
+      <c r="A4" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>124.23</v>
+      </c>
+      <c r="C4" s="7">
+        <v>92.09</v>
+      </c>
+      <c r="D4" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>140.62</v>
+      </c>
+      <c r="F4" s="7">
+        <v>112.74</v>
+      </c>
+      <c r="G4" s="7">
+        <v>113.31</v>
+      </c>
+      <c r="H4" s="29">
+        <f t="shared" ref="H4" si="0">SUM(B4:G4)</f>
+        <v>710.09999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1">
+      <c r="A5" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>124.23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>92.09</v>
+      </c>
+      <c r="D5" s="2">
+        <v>127.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>140.62</v>
+      </c>
+      <c r="F5" s="2">
+        <v>112.74</v>
+      </c>
+      <c r="G5" s="5">
+        <v>113.29</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5:H6" si="1">SUM(B5:G5)</f>
+        <v>710.06999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
+      <c r="A6" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>124.23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>92.12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>127.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>140.62</v>
+      </c>
+      <c r="F6" s="2">
+        <v>112.75</v>
+      </c>
+      <c r="G6" s="5">
+        <v>113.28</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="1"/>
+        <v>710.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C7" s="7">
+        <v>92.1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>127.1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>140.63</v>
+      </c>
+      <c r="F7" s="7">
+        <v>112.76</v>
+      </c>
+      <c r="G7" s="7">
+        <v>113.26</v>
+      </c>
+      <c r="H7" s="29">
+        <f>SUM(B7:G7)</f>
+        <v>710.07999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
+      <c r="A8" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C8" s="7">
+        <v>92.13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>140.62</v>
+      </c>
+      <c r="F8" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="G8" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" ref="H8:H15" si="2">SUM(B8:G8)</f>
+        <v>710.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
+      <c r="A9" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
+      <c r="A10" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C10" s="7">
+        <v>92.16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E10" s="7">
+        <v>140.62</v>
+      </c>
+      <c r="F10" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="G10" s="7">
+        <v>113.37</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="2"/>
+        <v>710.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
+      <c r="B11" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="2"/>
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C12" s="7">
+        <v>92.09</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E12" s="7">
+        <v>140.63</v>
+      </c>
+      <c r="F12" s="7">
+        <v>112.74</v>
+      </c>
+      <c r="G12" s="7">
+        <v>113.28</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="2"/>
+        <v>710.07999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
+      <c r="B13" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="2"/>
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="2"/>
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="B15" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C15" s="7">
+        <v>92.16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127.31</v>
+      </c>
+      <c r="E15" s="7">
+        <v>140.93</v>
+      </c>
+      <c r="F15" s="7">
+        <v>112.9</v>
+      </c>
+      <c r="G15" s="7">
+        <v>113.51</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="2"/>
+        <v>709.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C16" s="7">
+        <v>92.09</v>
+      </c>
+      <c r="D16" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E16" s="7">
+        <v>140.62</v>
+      </c>
+      <c r="F16" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="G16" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" ref="H16" si="3">SUM(B16:G16)</f>
+        <v>709.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="29">
+        <f t="shared" ref="H17:H47" si="4">SUM(B17:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C19" s="7">
+        <v>92.01</v>
+      </c>
+      <c r="D19" s="7">
+        <v>126.85</v>
+      </c>
+      <c r="E19" s="7">
+        <v>140.21</v>
+      </c>
+      <c r="F19" s="7">
+        <v>112.51</v>
+      </c>
+      <c r="G19" s="7">
+        <v>113.31</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="4"/>
+        <v>707.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C22" s="7">
+        <v>91.94</v>
+      </c>
+      <c r="D22" s="7">
+        <v>126.64</v>
+      </c>
+      <c r="E22" s="7">
+        <v>139.93</v>
+      </c>
+      <c r="F22" s="7">
+        <v>112.39</v>
+      </c>
+      <c r="G22" s="7">
+        <v>113.31</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="4"/>
+        <v>707.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="H23" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="H24" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C26" s="7">
+        <v>91.93</v>
+      </c>
+      <c r="D26" s="7">
+        <v>126.42</v>
+      </c>
+      <c r="E26" s="7">
+        <v>139.56</v>
+      </c>
+      <c r="F26" s="7">
+        <v>112.24</v>
+      </c>
+      <c r="G26" s="7">
+        <v>113.13</v>
+      </c>
+      <c r="H26" s="29">
+        <f t="shared" si="4"/>
+        <v>706.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C27" s="7">
+        <v>91.72</v>
+      </c>
+      <c r="D27" s="7">
+        <v>126.01</v>
+      </c>
+      <c r="E27" s="7">
+        <v>138.91999999999999</v>
+      </c>
+      <c r="F27" s="7">
+        <v>111.87</v>
+      </c>
+      <c r="G27" s="7">
+        <v>112.97</v>
+      </c>
+      <c r="H27" s="29">
+        <f>SUM(B27:G27)</f>
+        <v>704.56000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C28" s="7">
+        <v>91.56</v>
+      </c>
+      <c r="D28" s="7">
+        <v>125.59</v>
+      </c>
+      <c r="E28" s="7">
+        <v>138.31</v>
+      </c>
+      <c r="F28" s="7">
+        <v>111.67</v>
+      </c>
+      <c r="G28" s="7">
+        <v>112.98</v>
+      </c>
+      <c r="H28" s="29">
+        <f t="shared" si="4"/>
+        <v>703.18000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C29" s="7">
+        <v>91.55</v>
+      </c>
+      <c r="D29" s="7">
+        <v>125.56</v>
+      </c>
+      <c r="E29" s="7">
+        <v>138.16</v>
+      </c>
+      <c r="F29" s="7">
+        <v>111.5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>113.04</v>
+      </c>
+      <c r="H29" s="29">
+        <f t="shared" si="4"/>
+        <v>702.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="B30" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C30" s="7">
+        <v>91.54</v>
+      </c>
+      <c r="D30" s="7">
+        <v>125.53</v>
+      </c>
+      <c r="E30" s="7">
+        <v>138.25</v>
+      </c>
+      <c r="F30" s="7">
+        <v>111.59</v>
+      </c>
+      <c r="G30" s="7">
+        <v>112.83</v>
+      </c>
+      <c r="H30" s="29">
+        <f t="shared" si="4"/>
+        <v>702.81000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="B31" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C31" s="7">
+        <v>91.6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E31" s="7">
+        <v>138.13</v>
+      </c>
+      <c r="F31" s="7">
+        <v>111.59</v>
+      </c>
+      <c r="G31" s="7">
+        <v>112.79</v>
+      </c>
+      <c r="H31" s="29">
+        <f t="shared" si="4"/>
+        <v>702.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>7.65</v>
+      </c>
+      <c r="B32" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C32" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>125.51</v>
+      </c>
+      <c r="E32" s="7">
+        <v>138.16999999999999</v>
+      </c>
+      <c r="F32" s="7">
+        <v>111.43</v>
+      </c>
+      <c r="G32" s="7">
+        <v>112.84</v>
+      </c>
+      <c r="H32" s="29">
+        <f t="shared" si="4"/>
+        <v>702.5200000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
+        <v>7.68</v>
+      </c>
+      <c r="B33" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C33" s="7">
+        <v>91.61</v>
+      </c>
+      <c r="D33" s="7">
+        <v>125.47</v>
+      </c>
+      <c r="E33" s="7">
+        <v>138.16999999999999</v>
+      </c>
+      <c r="F33" s="7">
+        <v>111.44</v>
+      </c>
+      <c r="G33" s="7">
+        <v>112.74</v>
+      </c>
+      <c r="H33" s="29">
+        <f t="shared" si="4"/>
+        <v>702.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7">
+        <v>7.69</v>
+      </c>
+      <c r="B34" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C34" s="7">
+        <v>91.51</v>
+      </c>
+      <c r="D34" s="7">
+        <v>125.47</v>
+      </c>
+      <c r="E34" s="7">
+        <v>138.18</v>
+      </c>
+      <c r="F34" s="7">
+        <v>111.43</v>
+      </c>
+      <c r="G34" s="7">
+        <v>112.81</v>
+      </c>
+      <c r="H34" s="29">
+        <f t="shared" si="4"/>
+        <v>702.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7">
+        <v>7.6980000000000004</v>
+      </c>
+      <c r="B35" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C35" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="D35" s="7">
+        <v>125.46</v>
+      </c>
+      <c r="E35" s="7">
+        <v>138.13999999999999</v>
+      </c>
+      <c r="H35" s="29">
+        <f t="shared" si="4"/>
+        <v>478.16999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="28">
+        <v>7.7</v>
+      </c>
+      <c r="B36" s="28">
+        <v>123.07</v>
+      </c>
+      <c r="C36" s="28">
+        <v>91.49</v>
+      </c>
+      <c r="D36" s="28">
+        <v>125.44</v>
+      </c>
+      <c r="E36" s="28">
+        <v>138.09</v>
+      </c>
+      <c r="F36" s="28">
+        <v>111.4</v>
+      </c>
+      <c r="G36" s="28">
+        <v>112.74</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" si="4"/>
+        <v>702.23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7">
+        <v>7.7009999999999996</v>
+      </c>
+      <c r="B37" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C37" s="7">
+        <v>91.55</v>
+      </c>
+      <c r="D37" s="7">
+        <v>125.5</v>
+      </c>
+      <c r="E37" s="7">
+        <v>138.13</v>
+      </c>
+      <c r="F37" s="7">
+        <v>111.54</v>
+      </c>
+      <c r="G37" s="7">
+        <v>112.91</v>
+      </c>
+      <c r="H37" s="29">
+        <f>SUM(B37:G37)</f>
+        <v>702.69999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
+        <v>7.702</v>
+      </c>
+      <c r="B38" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C38" s="7">
+        <v>91.52</v>
+      </c>
+      <c r="D38" s="7">
+        <v>125.59</v>
+      </c>
+      <c r="H38" s="29">
+        <f t="shared" si="4"/>
+        <v>340.17999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>7.71</v>
+      </c>
+      <c r="B39" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C39" s="7">
+        <v>91.53</v>
+      </c>
+      <c r="D39" s="7">
+        <v>125.47</v>
+      </c>
+      <c r="G39" s="7">
+        <v>112.81</v>
+      </c>
+      <c r="H39" s="29">
+        <f t="shared" si="4"/>
+        <v>452.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7">
+        <v>7.72</v>
+      </c>
+      <c r="B40" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C40" s="7">
+        <v>91.56</v>
+      </c>
+      <c r="D40" s="7">
+        <v>125.42</v>
+      </c>
+      <c r="E40" s="7">
+        <v>138.19</v>
+      </c>
+      <c r="F40" s="7">
+        <v>111.36</v>
+      </c>
+      <c r="G40" s="7">
+        <v>112.84</v>
+      </c>
+      <c r="H40" s="29">
+        <f t="shared" si="4"/>
+        <v>702.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7">
+        <v>7.75</v>
+      </c>
+      <c r="B41" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C41" s="7">
+        <v>91.49</v>
+      </c>
+      <c r="D41" s="7">
+        <v>125.59</v>
+      </c>
+      <c r="E41" s="7">
+        <v>138.16</v>
+      </c>
+      <c r="F41" s="7">
+        <v>111.51</v>
+      </c>
+      <c r="G41" s="7">
+        <v>112.77</v>
+      </c>
+      <c r="H41" s="29">
+        <f t="shared" si="4"/>
+        <v>702.58999999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="B42" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C42" s="7">
+        <v>91.56</v>
+      </c>
+      <c r="D42" s="7">
+        <v>125.53</v>
+      </c>
+      <c r="E42" s="7">
+        <v>138.09</v>
+      </c>
+      <c r="F42" s="7">
+        <v>111.38</v>
+      </c>
+      <c r="G42" s="7">
+        <v>112.87</v>
+      </c>
+      <c r="H42" s="29">
+        <f t="shared" si="4"/>
+        <v>702.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7">
+        <v>8</v>
+      </c>
+      <c r="B43" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C43" s="7">
+        <v>91.55</v>
+      </c>
+      <c r="D43" s="7">
+        <v>125.72</v>
+      </c>
+      <c r="E43" s="7">
+        <v>138.16</v>
+      </c>
+      <c r="F43" s="7">
+        <v>111.51</v>
+      </c>
+      <c r="G43" s="7">
+        <v>112.89</v>
+      </c>
+      <c r="H43" s="29">
+        <f t="shared" si="4"/>
+        <v>702.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="B44" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C44" s="7">
+        <v>91.52</v>
+      </c>
+      <c r="D44" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E44" s="31">
+        <v>258.36</v>
+      </c>
+      <c r="H44" s="29">
+        <f t="shared" si="4"/>
+        <v>598.43000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7">
+        <v>9</v>
+      </c>
+      <c r="B45" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C45" s="7">
+        <v>91.52</v>
+      </c>
+      <c r="D45" s="7">
+        <v>126.38</v>
+      </c>
+      <c r="E45" s="31">
+        <v>346.76</v>
+      </c>
+      <c r="H45" s="29">
+        <f t="shared" si="4"/>
+        <v>687.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="7">
+        <v>10</v>
+      </c>
+      <c r="B46" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C46" s="31">
+        <v>270.02999999999997</v>
+      </c>
+      <c r="G46" s="31">
+        <v>316.66000000000003</v>
+      </c>
+      <c r="H46" s="29">
+        <f t="shared" si="4"/>
+        <v>709.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="H47" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="29">
+        <f t="shared" ref="H50:H67" si="5">SUM(B50:G50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B51" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C51" s="7">
+        <v>92.1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E51" s="7">
+        <v>140.62</v>
+      </c>
+      <c r="F51" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="G51" s="7">
+        <v>113.44</v>
+      </c>
+      <c r="H51" s="29">
+        <f t="shared" si="5"/>
+        <v>710.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="H52" s="29">
+        <f t="shared" si="5"/>
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="B53" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C53" s="7">
+        <v>93.32</v>
+      </c>
+      <c r="E53" s="7">
+        <v>142.61000000000001</v>
+      </c>
+      <c r="G53" s="7">
+        <v>114.95</v>
+      </c>
+      <c r="H53" s="29">
+        <f t="shared" si="5"/>
+        <v>475.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="B54" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C54" s="7">
+        <v>92.35</v>
+      </c>
+      <c r="D54" s="7">
+        <v>127.78</v>
+      </c>
+      <c r="E54" s="7">
+        <v>141.04</v>
+      </c>
+      <c r="F54" s="7">
+        <v>113.19</v>
+      </c>
+      <c r="G54" s="7">
+        <v>113.82</v>
+      </c>
+      <c r="H54" s="29">
+        <f t="shared" si="5"/>
+        <v>712.40999999999985</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7">
+        <v>3</v>
+      </c>
+      <c r="B55" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C55" s="7">
+        <v>92.1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>127.1</v>
+      </c>
+      <c r="E55" s="7">
+        <v>140.63</v>
+      </c>
+      <c r="F55" s="7">
+        <v>112.76</v>
+      </c>
+      <c r="G55" s="7">
+        <v>113.26</v>
+      </c>
+      <c r="H55" s="29">
+        <f>SUM(B55:G55)</f>
+        <v>710.07999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B56" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C56" s="7">
+        <v>91.92</v>
+      </c>
+      <c r="D56" s="7">
+        <v>126.45</v>
+      </c>
+      <c r="E56" s="7">
+        <v>140.21</v>
+      </c>
+      <c r="F56" s="7">
+        <v>112.28</v>
+      </c>
+      <c r="G56" s="7">
+        <v>112.97</v>
+      </c>
+      <c r="H56" s="29">
+        <f t="shared" si="5"/>
+        <v>708.06000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B57" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C57" s="7">
+        <v>91.67</v>
+      </c>
+      <c r="D57" s="7">
+        <v>125.9</v>
+      </c>
+      <c r="E57" s="7">
+        <v>139.81</v>
+      </c>
+      <c r="F57" s="7">
+        <v>111.9</v>
+      </c>
+      <c r="G57" s="7">
+        <v>113.05</v>
+      </c>
+      <c r="H57" s="29">
+        <f t="shared" si="5"/>
+        <v>706.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="B58" s="7">
+        <v>125.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="B59" s="28">
+        <v>124.23</v>
+      </c>
+      <c r="C59" s="28">
+        <v>91.42</v>
+      </c>
+      <c r="D59" s="28">
+        <v>125.49</v>
+      </c>
+      <c r="E59" s="28">
+        <v>139.44999999999999</v>
+      </c>
+      <c r="F59" s="28">
+        <v>111.64</v>
+      </c>
+      <c r="G59" s="28">
+        <v>112.82</v>
+      </c>
+      <c r="H59" s="30">
+        <f t="shared" si="5"/>
+        <v>705.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="7">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B61" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C61" s="7">
+        <v>91.46</v>
+      </c>
+      <c r="D61" s="7">
+        <v>125.5</v>
+      </c>
+      <c r="E61" s="7">
+        <v>139.44</v>
+      </c>
+      <c r="F61" s="7">
+        <v>111.63</v>
+      </c>
+      <c r="G61" s="7">
+        <v>112.88</v>
+      </c>
+      <c r="H61" s="29">
+        <f t="shared" si="5"/>
+        <v>705.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B62" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C62" s="7">
+        <v>91.01</v>
+      </c>
+      <c r="D62" s="7">
+        <v>133.28</v>
+      </c>
+      <c r="E62" s="7">
+        <v>138.75</v>
+      </c>
+      <c r="F62" s="7">
+        <v>111.11</v>
+      </c>
+      <c r="G62" s="7">
+        <v>112.81</v>
+      </c>
+      <c r="H62" s="29">
+        <f t="shared" si="5"/>
+        <v>711.19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="H63" s="29">
+        <f t="shared" si="5"/>
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="7">
+        <v>4</v>
+      </c>
+      <c r="B64" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C64" s="7">
+        <v>92.13</v>
+      </c>
+      <c r="D64" s="7">
+        <v>127.1</v>
+      </c>
+      <c r="E64" s="7">
+        <v>140.63</v>
+      </c>
+      <c r="F64" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="G64" s="7">
+        <v>113.26</v>
+      </c>
+      <c r="H64" s="29">
+        <f t="shared" si="5"/>
+        <v>710.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="H65" s="29">
+        <f t="shared" si="5"/>
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="H66" s="29">
+        <f t="shared" si="5"/>
+        <v>124.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7">
+        <v>5</v>
+      </c>
+      <c r="B67" s="7">
+        <v>124.23</v>
+      </c>
+      <c r="C67" s="7">
+        <v>92.09</v>
+      </c>
+      <c r="D67" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E67" s="7">
+        <v>140.63</v>
+      </c>
+      <c r="F67" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="G67" s="7">
+        <v>113.48</v>
+      </c>
+      <c r="H67" s="29">
+        <f t="shared" si="5"/>
+        <v>710.29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="H70" s="29">
+        <f t="shared" ref="H70:H93" si="6">SUM(B70:G70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="H71" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="H72" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="B73" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C73" s="7">
+        <v>92.12</v>
+      </c>
+      <c r="D73" s="7">
+        <v>127.08</v>
+      </c>
+      <c r="E73" s="7">
+        <v>140.69</v>
+      </c>
+      <c r="F73" s="7">
+        <v>112.8</v>
+      </c>
+      <c r="G73" s="7">
+        <v>113.37</v>
+      </c>
+      <c r="H73" s="29">
+        <f t="shared" si="6"/>
+        <v>709.13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7">
+        <v>2.95</v>
+      </c>
+      <c r="B74" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="H74" s="29">
+        <f t="shared" si="6"/>
+        <v>123.07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="B75" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="D75" s="7">
+        <v>127.1</v>
+      </c>
+      <c r="H75" s="29">
+        <f t="shared" si="6"/>
+        <v>250.17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="B76" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="D76" s="7">
+        <v>127.1</v>
+      </c>
+      <c r="H76" s="29">
+        <f t="shared" si="6"/>
+        <v>250.17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="28">
+        <v>3</v>
+      </c>
+      <c r="B77" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C77" s="28">
+        <v>91.63</v>
+      </c>
+      <c r="D77" s="28">
+        <v>125.9</v>
+      </c>
+      <c r="E77" s="28">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="F77" s="28">
+        <v>111.9</v>
+      </c>
+      <c r="G77" s="28">
+        <v>112.86</v>
+      </c>
+      <c r="H77" s="30">
+        <f>SUM(B77:G77)</f>
+        <v>705.16000000000008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7">
+        <v>3</v>
+      </c>
+      <c r="B78" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C78" s="7">
+        <v>92.09</v>
+      </c>
+      <c r="D78" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E78" s="7">
+        <v>140.63</v>
+      </c>
+      <c r="F78" s="7">
+        <v>112.76</v>
+      </c>
+      <c r="G78" s="7">
+        <v>113.33</v>
+      </c>
+      <c r="H78" s="29">
+        <f>SUM(B78:G78)</f>
+        <v>708.99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7">
+        <v>3.01</v>
+      </c>
+      <c r="B79" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C79" s="7">
+        <v>92.09</v>
+      </c>
+      <c r="D79" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E79" s="7">
+        <v>140.61000000000001</v>
+      </c>
+      <c r="F79" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="G79" s="7">
+        <v>113.26</v>
+      </c>
+      <c r="H79" s="29">
+        <f t="shared" ref="H79:H80" si="7">SUM(B79:G79)</f>
+        <v>708.89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7">
+        <v>3.02</v>
+      </c>
+      <c r="B80" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C80" s="7">
+        <v>92.1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>127.11</v>
+      </c>
+      <c r="E80" s="7">
+        <v>140.58000000000001</v>
+      </c>
+      <c r="F80" s="7">
+        <v>112.71</v>
+      </c>
+      <c r="G80" s="7">
+        <v>113.25</v>
+      </c>
+      <c r="H80" s="29">
+        <f t="shared" si="7"/>
+        <v>708.82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="B81" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C81" s="7">
+        <v>92.13</v>
+      </c>
+      <c r="D81" s="7">
+        <v>127.09</v>
+      </c>
+      <c r="E81" s="7">
+        <v>140.57</v>
+      </c>
+      <c r="F81" s="7">
+        <v>112.7</v>
+      </c>
+      <c r="G81" s="7">
+        <v>113.31</v>
+      </c>
+      <c r="H81" s="29">
+        <f t="shared" si="6"/>
+        <v>708.86999999999989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B82" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C82" s="7">
+        <v>92.1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>127.1</v>
+      </c>
+      <c r="E82" s="7">
+        <v>140.55000000000001</v>
+      </c>
+      <c r="F82" s="7">
+        <v>112.69</v>
+      </c>
+      <c r="G82" s="7">
+        <v>113.41</v>
+      </c>
+      <c r="H82" s="29">
+        <f t="shared" si="6"/>
+        <v>708.92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B83" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C83" s="7">
+        <v>92.06</v>
+      </c>
+      <c r="D83" s="7">
+        <v>127.15</v>
+      </c>
+      <c r="E83" s="7">
+        <v>140.47999999999999</v>
+      </c>
+      <c r="F83" s="7">
+        <v>112.65</v>
+      </c>
+      <c r="G83" s="7">
+        <v>113.26</v>
+      </c>
+      <c r="H83" s="29">
+        <f t="shared" si="6"/>
+        <v>708.67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B85" s="7">
+        <v>123.17</v>
+      </c>
+      <c r="C85" s="7">
+        <v>92.07</v>
+      </c>
+      <c r="D85" s="7">
+        <v>127.21</v>
+      </c>
+      <c r="E85" s="7">
+        <v>140.41999999999999</v>
+      </c>
+      <c r="F85" s="7">
+        <v>112.61</v>
+      </c>
+      <c r="G85" s="7">
+        <v>113.22</v>
+      </c>
+      <c r="H85" s="29">
+        <f t="shared" si="6"/>
+        <v>708.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="H87" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B88" s="7">
+        <v>123.3</v>
+      </c>
+      <c r="C88" s="7">
+        <v>92.08</v>
+      </c>
+      <c r="D88" s="7">
+        <v>136.41</v>
+      </c>
+      <c r="E88" s="7">
+        <v>140.22</v>
+      </c>
+      <c r="F88" s="7">
+        <v>112.56</v>
+      </c>
+      <c r="G88" s="7">
+        <v>113.2</v>
+      </c>
+      <c r="H88" s="29">
+        <f t="shared" si="6"/>
+        <v>717.77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="H89" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7">
+        <v>4</v>
+      </c>
+      <c r="H90" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="H91" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="H92" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7">
+        <v>5</v>
+      </c>
+      <c r="H93" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="43.2">
+      <c r="A96" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="H98" s="29">
+        <f t="shared" ref="H98:H100" si="8">SUM(B98:G98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="H99" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="H100" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="B101" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C101" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="D101" s="7">
+        <v>125.55</v>
+      </c>
+      <c r="E101" s="7">
+        <v>138.15</v>
+      </c>
+      <c r="F101" s="7">
+        <v>111.43</v>
+      </c>
+      <c r="G101" s="7">
+        <v>112.81</v>
+      </c>
+      <c r="H101" s="29">
+        <f>SUM(B101:G101)</f>
+        <v>702.51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="7">
+        <v>3</v>
+      </c>
+      <c r="B102" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C102" s="7">
+        <v>91.51</v>
+      </c>
+      <c r="D102" s="7">
+        <v>125.44</v>
+      </c>
+      <c r="E102" s="7">
+        <v>138.09</v>
+      </c>
+      <c r="F102" s="7">
+        <v>111.4</v>
+      </c>
+      <c r="G102" s="7">
+        <v>112.83</v>
+      </c>
+      <c r="H102" s="29">
+        <f t="shared" ref="H102:H122" si="9">SUM(B102:G102)</f>
+        <v>702.34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="7">
+        <v>3.02</v>
+      </c>
+      <c r="B103" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C103" s="7">
+        <v>91.53</v>
+      </c>
+      <c r="D103" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E103" s="7">
+        <v>138.1</v>
+      </c>
+      <c r="F103" s="7">
+        <v>111.59</v>
+      </c>
+      <c r="G103" s="7">
+        <v>112.91</v>
+      </c>
+      <c r="H103" s="29">
+        <f t="shared" si="9"/>
+        <v>702.68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B104" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C104" s="7">
+        <v>91.58</v>
+      </c>
+      <c r="D104" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E104" s="7">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="F104" s="7">
+        <v>111.34</v>
+      </c>
+      <c r="G104" s="7">
+        <v>112.76</v>
+      </c>
+      <c r="H104" s="29">
+        <f t="shared" si="9"/>
+        <v>702.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="7">
+        <v>3.13</v>
+      </c>
+      <c r="B105" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C105" s="7">
+        <v>91.51</v>
+      </c>
+      <c r="D105" s="7">
+        <v>125.49</v>
+      </c>
+      <c r="E105" s="7">
+        <v>138.05000000000001</v>
+      </c>
+      <c r="F105" s="7">
+        <v>111.55</v>
+      </c>
+      <c r="G105" s="7">
+        <v>112.89</v>
+      </c>
+      <c r="H105" s="29">
+        <f t="shared" si="9"/>
+        <v>702.56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="7">
+        <v>3.14</v>
+      </c>
+      <c r="B106" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C106" s="7">
+        <v>91.52</v>
+      </c>
+      <c r="D106" s="7">
+        <v>125.52</v>
+      </c>
+      <c r="H106" s="29">
+        <f t="shared" si="9"/>
+        <v>340.10999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="7">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="B107" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C107" s="7">
+        <v>91.54</v>
+      </c>
+      <c r="D107" s="7">
+        <v>125.45</v>
+      </c>
+      <c r="E107" s="7">
+        <v>138.03</v>
+      </c>
+      <c r="F107" s="7">
+        <v>111.45</v>
+      </c>
+      <c r="G107" s="7">
+        <v>112.81</v>
+      </c>
+      <c r="H107" s="29">
+        <f t="shared" si="9"/>
+        <v>702.35000000000014</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="7">
+        <v>3.149</v>
+      </c>
+      <c r="B108" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C108" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="D108" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E108" s="7">
+        <v>138.04</v>
+      </c>
+      <c r="F108" s="7">
+        <v>111.33</v>
+      </c>
+      <c r="G108" s="7">
+        <v>112.92</v>
+      </c>
+      <c r="H108" s="29">
+        <f t="shared" si="9"/>
+        <v>702.34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="B109" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C109" s="7">
+        <v>91.56</v>
+      </c>
+      <c r="D109" s="7">
+        <v>125.42</v>
+      </c>
+      <c r="E109" s="7">
+        <v>138.01</v>
+      </c>
+      <c r="F109" s="7">
+        <v>111.34</v>
+      </c>
+      <c r="G109" s="7">
+        <v>112.75</v>
+      </c>
+      <c r="H109" s="29">
+        <f t="shared" si="9"/>
+        <v>702.15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="7">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="B110" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C110" s="7">
+        <v>91.52</v>
+      </c>
+      <c r="D110" s="7">
+        <v>125.53</v>
+      </c>
+      <c r="E110" s="7">
+        <v>138.06</v>
+      </c>
+      <c r="F110" s="7">
+        <v>111.35</v>
+      </c>
+      <c r="G110" s="7">
+        <v>112.89</v>
+      </c>
+      <c r="H110" s="29">
+        <f t="shared" si="9"/>
+        <v>702.42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="7">
+        <v>3.1520000000000001</v>
+      </c>
+      <c r="B111" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C111" s="7">
+        <v>91.58</v>
+      </c>
+      <c r="D111" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E111" s="7">
+        <v>138.01</v>
+      </c>
+      <c r="F111" s="7">
+        <v>111.58</v>
+      </c>
+      <c r="G111" s="7">
+        <v>112.77</v>
+      </c>
+      <c r="H111" s="29">
+        <f t="shared" si="9"/>
+        <v>702.49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="B112" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C112" s="7">
+        <v>91.51</v>
+      </c>
+      <c r="D112" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E112" s="7">
+        <v>138.02000000000001</v>
+      </c>
+      <c r="F112" s="7">
+        <v>111.38</v>
+      </c>
+      <c r="G112" s="7">
+        <v>112.78</v>
+      </c>
+      <c r="H112" s="29">
+        <f t="shared" si="9"/>
+        <v>702.24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="B113" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C113" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="D113" s="7">
+        <v>125.48</v>
+      </c>
+      <c r="E113" s="7">
+        <v>137.99</v>
+      </c>
+      <c r="F113" s="7">
+        <v>111.37</v>
+      </c>
+      <c r="G113" s="7">
+        <v>112.74</v>
+      </c>
+      <c r="H113" s="29">
+        <f t="shared" si="9"/>
+        <v>702.15000000000009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="7">
+        <v>3.17</v>
+      </c>
+      <c r="B114" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C114" s="7">
+        <v>91.55</v>
+      </c>
+      <c r="D114" s="7">
+        <v>125.49</v>
+      </c>
+      <c r="E114" s="7">
+        <v>138.05000000000001</v>
+      </c>
+      <c r="F114" s="7">
+        <v>111.56</v>
+      </c>
+      <c r="G114" s="7">
+        <v>112.81</v>
+      </c>
+      <c r="H114" s="29">
+        <f t="shared" si="9"/>
+        <v>702.53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B115" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C115" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="D115" s="7">
+        <v>125.5</v>
+      </c>
+      <c r="E115" s="7">
+        <v>138.06</v>
+      </c>
+      <c r="F115" s="7">
+        <v>111.41</v>
+      </c>
+      <c r="G115" s="7">
+        <v>112.76</v>
+      </c>
+      <c r="H115" s="29">
+        <f t="shared" si="9"/>
+        <v>702.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="B116" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C116" s="7">
+        <v>91.52</v>
+      </c>
+      <c r="D116" s="7">
+        <v>125.53</v>
+      </c>
+      <c r="E116" s="7">
+        <v>138.03</v>
+      </c>
+      <c r="F116" s="7">
+        <v>111.37</v>
+      </c>
+      <c r="G116" s="7">
+        <v>112.79</v>
+      </c>
+      <c r="H116" s="29">
+        <f t="shared" si="9"/>
+        <v>702.31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B117" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C117" s="7">
+        <v>91.57</v>
+      </c>
+      <c r="D117" s="7">
+        <v>125.51</v>
+      </c>
+      <c r="E117" s="7">
+        <v>138.05000000000001</v>
+      </c>
+      <c r="F117" s="7">
+        <v>111.38</v>
+      </c>
+      <c r="G117" s="7">
+        <v>112.86</v>
+      </c>
+      <c r="H117" s="29">
+        <f>SUM(B117:G117)</f>
+        <v>702.43999999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="H118" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="H119" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="H120" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="H121" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="H122" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D461CCE-4F6C-4DD8-8A93-0294A0729F9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD49CE-D281-4782-8DE6-752A85B24349}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9252" yWindow="1500" windowWidth="13788" windowHeight="8424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="106">
   <si>
     <t>Dirt6</t>
   </si>
@@ -431,6 +432,14 @@
   </si>
   <si>
     <t>1.3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,12 +1000,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M147" sqref="M147"/>
+      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4337,6 +4346,9 @@
       <c r="A157" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="D157" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E157" s="7">
         <v>123.07</v>
       </c>
@@ -4358,6 +4370,36 @@
       <c r="K157" s="29">
         <f>SUM(E157:J157)</f>
         <v>702.15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E159" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="F159" s="2">
+        <v>89.94</v>
+      </c>
+      <c r="G159" s="2">
+        <v>122.97</v>
+      </c>
+      <c r="H159" s="2">
+        <v>136.1</v>
+      </c>
+      <c r="I159" s="2">
+        <v>110.12</v>
+      </c>
+      <c r="J159" s="5">
+        <v>112.12</v>
+      </c>
+      <c r="K159" s="29">
+        <f>SUM(E159:J159)</f>
+        <v>694.32</v>
       </c>
     </row>
   </sheetData>
@@ -5482,7 +5524,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109:H109"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7700,4 +7742,692 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04426105-3CE9-4166-8490-5F0BECF6EB6B}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.8">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="29">
+        <f t="shared" ref="H4:H13" si="0">SUM(B4:G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="29">
+        <f t="shared" ref="H14:H39" si="1">SUM(B14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C15" s="7">
+        <v>91.52</v>
+      </c>
+      <c r="D15" s="7">
+        <v>125.53</v>
+      </c>
+      <c r="E15" s="7">
+        <v>138.06</v>
+      </c>
+      <c r="F15" s="7">
+        <v>111.35</v>
+      </c>
+      <c r="G15" s="7">
+        <v>112.8</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="1"/>
+        <v>702.32999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="H16" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B17" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C17" s="7">
+        <v>91.22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>125.01</v>
+      </c>
+      <c r="E17" s="7">
+        <v>137.61000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <v>111.11</v>
+      </c>
+      <c r="G17" s="7">
+        <v>112.85</v>
+      </c>
+      <c r="H17" s="29">
+        <f t="shared" si="1"/>
+        <v>700.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C20" s="7">
+        <v>90.79</v>
+      </c>
+      <c r="D20" s="7">
+        <v>124.53</v>
+      </c>
+      <c r="E20" s="7">
+        <v>137.21</v>
+      </c>
+      <c r="F20" s="7">
+        <v>111.03</v>
+      </c>
+      <c r="G20" s="7">
+        <v>112.78</v>
+      </c>
+      <c r="H20" s="29">
+        <f t="shared" si="1"/>
+        <v>699.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="B22" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C22" s="7">
+        <v>90.46</v>
+      </c>
+      <c r="D22" s="7">
+        <v>123.97</v>
+      </c>
+      <c r="E22" s="7">
+        <v>136.63999999999999</v>
+      </c>
+      <c r="F22" s="7">
+        <v>110.81</v>
+      </c>
+      <c r="G22" s="7">
+        <v>112.39</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="1"/>
+        <v>697.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C23" s="7">
+        <v>90.38</v>
+      </c>
+      <c r="D23" s="7">
+        <v>123.89</v>
+      </c>
+      <c r="E23" s="7">
+        <v>136.49</v>
+      </c>
+      <c r="F23" s="7">
+        <v>110.72</v>
+      </c>
+      <c r="G23" s="7">
+        <v>112.38</v>
+      </c>
+      <c r="H23" s="29">
+        <f t="shared" si="1"/>
+        <v>696.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B24" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C24" s="7">
+        <v>90.4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>123.8</v>
+      </c>
+      <c r="E24" s="7">
+        <v>136.43</v>
+      </c>
+      <c r="F24" s="7">
+        <v>110.67</v>
+      </c>
+      <c r="G24" s="7">
+        <v>112.45</v>
+      </c>
+      <c r="H24" s="29">
+        <f t="shared" si="1"/>
+        <v>696.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="B26" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C26" s="7">
+        <v>90.28</v>
+      </c>
+      <c r="D26" s="7">
+        <v>123.74</v>
+      </c>
+      <c r="E26" s="7">
+        <v>136.27000000000001</v>
+      </c>
+      <c r="F26" s="7">
+        <v>110.61</v>
+      </c>
+      <c r="G26" s="7">
+        <v>112.28</v>
+      </c>
+      <c r="H26" s="29">
+        <f t="shared" si="1"/>
+        <v>696.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C28" s="7">
+        <v>90.38</v>
+      </c>
+      <c r="D28" s="7">
+        <v>123.66</v>
+      </c>
+      <c r="E28" s="7">
+        <v>136.18</v>
+      </c>
+      <c r="F28" s="7">
+        <v>110.61</v>
+      </c>
+      <c r="G28" s="7">
+        <v>112.33</v>
+      </c>
+      <c r="H28" s="29">
+        <f t="shared" si="1"/>
+        <v>696.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B29" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C29" s="7">
+        <v>90.3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>123.61</v>
+      </c>
+      <c r="E29" s="7">
+        <v>136.15</v>
+      </c>
+      <c r="F29" s="7">
+        <v>110.58</v>
+      </c>
+      <c r="G29" s="7">
+        <v>112.28</v>
+      </c>
+      <c r="H29" s="29">
+        <f t="shared" si="1"/>
+        <v>695.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B30" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C30" s="7">
+        <v>90.21</v>
+      </c>
+      <c r="D30" s="7">
+        <v>123.59</v>
+      </c>
+      <c r="E30" s="7">
+        <v>136.09</v>
+      </c>
+      <c r="F30" s="7">
+        <v>110.55</v>
+      </c>
+      <c r="G30" s="7">
+        <v>112.47</v>
+      </c>
+      <c r="H30" s="29">
+        <f t="shared" si="1"/>
+        <v>695.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>4.41</v>
+      </c>
+      <c r="B31" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C31" s="7">
+        <v>90.18</v>
+      </c>
+      <c r="D31" s="7">
+        <v>123.59</v>
+      </c>
+      <c r="E31" s="7">
+        <v>136.09</v>
+      </c>
+      <c r="F31" s="7">
+        <v>110.54</v>
+      </c>
+      <c r="G31" s="7">
+        <v>112.27</v>
+      </c>
+      <c r="H31" s="30">
+        <f t="shared" si="1"/>
+        <v>695.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="B32" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C32" s="7">
+        <v>90.26</v>
+      </c>
+      <c r="D32" s="7">
+        <v>123.55</v>
+      </c>
+      <c r="E32" s="7">
+        <v>136.08000000000001</v>
+      </c>
+      <c r="F32" s="7">
+        <v>110.57</v>
+      </c>
+      <c r="G32" s="7">
+        <v>112.3</v>
+      </c>
+      <c r="H32" s="29">
+        <f t="shared" si="1"/>
+        <v>695.82999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="28" customFormat="1">
+      <c r="A33" s="28">
+        <v>4.43</v>
+      </c>
+      <c r="B33" s="28">
+        <v>123.07</v>
+      </c>
+      <c r="C33" s="28">
+        <v>90.2</v>
+      </c>
+      <c r="D33" s="28">
+        <v>123.58</v>
+      </c>
+      <c r="E33" s="28">
+        <v>136.09</v>
+      </c>
+      <c r="F33" s="28">
+        <v>110.6</v>
+      </c>
+      <c r="G33" s="28">
+        <v>112.19</v>
+      </c>
+      <c r="H33" s="30">
+        <f t="shared" si="1"/>
+        <v>695.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="B34" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C34" s="7">
+        <v>90.23</v>
+      </c>
+      <c r="D34" s="7">
+        <v>123.54</v>
+      </c>
+      <c r="E34" s="7">
+        <v>136.01</v>
+      </c>
+      <c r="F34" s="7">
+        <v>110.52</v>
+      </c>
+      <c r="G34" s="7">
+        <v>112.39</v>
+      </c>
+      <c r="H34" s="29">
+        <f t="shared" si="1"/>
+        <v>695.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="B35" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C35" s="7">
+        <v>90.18</v>
+      </c>
+      <c r="D35" s="7">
+        <v>123.52</v>
+      </c>
+      <c r="E35" s="7">
+        <v>136.04</v>
+      </c>
+      <c r="F35" s="7">
+        <v>110.52</v>
+      </c>
+      <c r="G35" s="7">
+        <v>112.38</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" si="1"/>
+        <v>695.70999999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="B38" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="C38" s="7">
+        <v>90.15</v>
+      </c>
+      <c r="D38" s="7">
+        <v>123.5</v>
+      </c>
+      <c r="E38" s="7">
+        <v>136.03</v>
+      </c>
+      <c r="F38" s="7">
+        <v>111.5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>112.35</v>
+      </c>
+      <c r="H38" s="29">
+        <f t="shared" si="1"/>
+        <v>696.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7">
+        <v>123.07</v>
+      </c>
+      <c r="E39" s="7">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="F39" s="7">
+        <v>110.45</v>
+      </c>
+      <c r="G39" s="7">
+        <v>727.17</v>
+      </c>
+      <c r="H39" s="29">
+        <f t="shared" si="1"/>
+        <v>1096.3899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cruise_grade.xlsx
+++ b/cruise_grade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD49CE-D281-4782-8DE6-752A85B24349}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F0EF5-CB2A-44B6-B18E-C186BE17CD07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9252" yWindow="1500" windowWidth="13788" windowHeight="8424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="107">
   <si>
     <t>Dirt6</t>
   </si>
@@ -440,6 +440,10 @@
   </si>
   <si>
     <t>2.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.30？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,12 +1004,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4400,6 +4404,14 @@
       <c r="K159" s="29">
         <f>SUM(E159:J159)</f>
         <v>694.32</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7">
+      <c r="F161" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G161" s="2">
+        <v>127.39</v>
       </c>
     </row>
   </sheetData>
@@ -8429,5 +8441,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>